--- a/data-raw/varsList.xlsx
+++ b/data-raw/varsList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\techme\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D46A21-A72B-4B69-834E-DF603E61FB7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A464E49-3C91-4715-8CBE-31546A85D657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3195" yWindow="8002" windowWidth="24495" windowHeight="15795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -5966,8 +5966,8 @@
   <dimension ref="A1:P489"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <pane ySplit="1" topLeftCell="A347" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E364" sqref="E364"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19556,8 +19556,8 @@
       <c r="D361" t="s">
         <v>1499</v>
       </c>
-      <c r="E361" t="s">
-        <v>525</v>
+      <c r="E361" s="1" t="s">
+        <v>1243</v>
       </c>
       <c r="F361" t="s">
         <v>808</v>
@@ -19632,8 +19632,8 @@
       <c r="D363" t="s">
         <v>1501</v>
       </c>
-      <c r="E363" t="s">
-        <v>525</v>
+      <c r="E363" s="1" t="s">
+        <v>1243</v>
       </c>
       <c r="F363" t="s">
         <v>808</v>

--- a/data-raw/varsList.xlsx
+++ b/data-raw/varsList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\techme\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A464E49-3C91-4715-8CBE-31546A85D657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E6CAEC-CB01-4162-8946-616DD22478EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-3195" yWindow="8002" windowWidth="24495" windowHeight="15795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5782" uniqueCount="1569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5786" uniqueCount="1569">
   <si>
     <t>variables</t>
   </si>
@@ -5966,8 +5966,8 @@
   <dimension ref="A1:P489"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A347" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E364" sqref="E364"/>
+      <pane ySplit="1" topLeftCell="A323" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E331" sqref="E331"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18317,7 +18317,9 @@
     </row>
     <row r="327" spans="3:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D327" s="1"/>
-      <c r="E327" s="1"/>
+      <c r="E327" s="1" t="s">
+        <v>1079</v>
+      </c>
       <c r="F327" t="s">
         <v>808</v>
       </c>
@@ -18348,7 +18350,9 @@
     </row>
     <row r="328" spans="3:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D328" s="1"/>
-      <c r="E328" s="1"/>
+      <c r="E328" s="1" t="s">
+        <v>1361</v>
+      </c>
       <c r="F328" t="s">
         <v>808</v>
       </c>
@@ -18379,7 +18383,9 @@
     </row>
     <row r="329" spans="3:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D329" s="1"/>
-      <c r="E329" s="1"/>
+      <c r="E329" s="1" t="s">
+        <v>1361</v>
+      </c>
       <c r="F329" t="s">
         <v>808</v>
       </c>
@@ -18410,7 +18416,9 @@
     </row>
     <row r="330" spans="3:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D330" s="1"/>
-      <c r="E330" s="1"/>
+      <c r="E330" s="1" t="s">
+        <v>1361</v>
+      </c>
       <c r="F330" t="s">
         <v>808</v>
       </c>

--- a/data-raw/varsList.xlsx
+++ b/data-raw/varsList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\techme\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E6CAEC-CB01-4162-8946-616DD22478EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2663D15D-BC6D-4868-A336-81397A75D789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3195" yWindow="8002" windowWidth="24495" windowHeight="15795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-9892" yWindow="8002" windowWidth="24495" windowHeight="15795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5786" uniqueCount="1569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6809" uniqueCount="1683">
   <si>
     <t>variables</t>
   </si>
@@ -5489,6 +5489,442 @@
   </si>
   <si>
     <t>units</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v8</t>
+  </si>
+  <si>
+    <t>v8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zcqc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>种畜禽场站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>种畜禽厂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>种牛场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>种奶牛场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>种水牛场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>种耗牛场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>种马场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>种猪场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>种羊场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>种绵阳场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>种细毛羊场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>种山羊场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>种绒山羊场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>znc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>znnc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zsnc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhnc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zmc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zzc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zyc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zmyc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zxmyc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zsyc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zmsyc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>种禽场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>种蛋鸡场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祖代及以上蛋鸡场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>父母代蛋鸡场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>种肉鸡场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祖代及以上肉鸡场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>父母代肉鸡场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>种鸭场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>种鹅场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>种兔场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>种蜂场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zqc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zdjc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zdjysdjc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fmddjc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zrjc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zdjysrjc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fmdrjc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表1</t>
+  </si>
+  <si>
+    <t>表1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t2</t>
+  </si>
+  <si>
+    <t>表2</t>
+  </si>
+  <si>
+    <t>ztc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zfc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>种畜站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>种公牛站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>种公羊站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>种公猪站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zcz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zgnz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zgyz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zgzz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nmcl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>种肉牛场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zrnc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表5</t>
+  </si>
+  <si>
+    <t>表5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表6</t>
+  </si>
+  <si>
+    <t>表6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t5</t>
+  </si>
+  <si>
+    <t>t5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t4</t>
+  </si>
+  <si>
+    <t>t4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表3</t>
+  </si>
+  <si>
+    <t>表3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表4</t>
+  </si>
+  <si>
+    <t>表4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年末存栏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nfmccl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t6</t>
+  </si>
+  <si>
+    <t>t6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t7</t>
+  </si>
+  <si>
+    <t>cczcq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表8</t>
+  </si>
+  <si>
+    <t>表8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出场种畜禽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产胚胎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表9</t>
+  </si>
+  <si>
+    <t>表9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t9</t>
+  </si>
+  <si>
+    <t>t9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scpt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产精液</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zsyz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>枚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表7</t>
+  </si>
+  <si>
+    <t>头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>匹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能繁母畜存栏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v2021.8</t>
+  </si>
+  <si>
+    <t>v2021.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国畜牧兽医年鉴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5963,11 +6399,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P489"/>
+  <dimension ref="A1:P591"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A323" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E331" sqref="E331"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A484" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L493" sqref="L493"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5979,9 +6415,9 @@
     <col min="5" max="5" width="7.85546875" customWidth="1"/>
     <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
-    <col min="10" max="10" width="6.5703125" customWidth="1"/>
-    <col min="11" max="11" width="9.28515625" customWidth="1"/>
-    <col min="12" max="12" width="11.140625" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" customWidth="1"/>
+    <col min="12" max="12" width="18.140625" customWidth="1"/>
     <col min="13" max="13" width="20.42578125" customWidth="1"/>
     <col min="14" max="14" width="60.42578125" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="17.85546875" customWidth="1"/>
@@ -22273,7 +22709,7 @@
     </row>
     <row r="428" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A428" t="str">
-        <f t="shared" ref="A428:A489" si="1">F428&amp;"_"&amp;G428&amp;"_"&amp;H428&amp;"_"&amp;I428</f>
+        <f t="shared" ref="A428:A491" si="1">F428&amp;"_"&amp;G428&amp;"_"&amp;H428&amp;"_"&amp;I428</f>
         <v>v5_kffw_sl_kfxs</v>
       </c>
       <c r="B428" t="str">
@@ -25068,6 +25504,3669 @@
       <c r="P489" s="1" t="s">
         <v>1559</v>
       </c>
+    </row>
+    <row r="490" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A490" t="str">
+        <f t="shared" si="1"/>
+        <v>v8_t1_zcqc_zs</v>
+      </c>
+      <c r="E490" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F490" t="s">
+        <v>1570</v>
+      </c>
+      <c r="G490" t="s">
+        <v>1621</v>
+      </c>
+      <c r="H490" t="s">
+        <v>1571</v>
+      </c>
+      <c r="I490" t="s">
+        <v>1572</v>
+      </c>
+      <c r="J490" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="K490" s="1" t="s">
+        <v>1619</v>
+      </c>
+      <c r="L490" s="1" t="s">
+        <v>1574</v>
+      </c>
+      <c r="M490" s="1" t="s">
+        <v>1575</v>
+      </c>
+      <c r="O490" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="P490" s="1" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="491" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A491" t="str">
+        <f t="shared" si="1"/>
+        <v>v8_t1_zcqc_znc</v>
+      </c>
+      <c r="E491" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F491" t="s">
+        <v>1570</v>
+      </c>
+      <c r="G491" t="s">
+        <v>1621</v>
+      </c>
+      <c r="H491" t="s">
+        <v>1571</v>
+      </c>
+      <c r="I491" t="s">
+        <v>1587</v>
+      </c>
+      <c r="J491" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="K491" s="1" t="s">
+        <v>1619</v>
+      </c>
+      <c r="L491" s="1" t="s">
+        <v>1574</v>
+      </c>
+      <c r="M491" s="1" t="s">
+        <v>1576</v>
+      </c>
+      <c r="O491" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="P491" s="1" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="492" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A492" t="str">
+        <f t="shared" ref="A492:A555" si="6">F492&amp;"_"&amp;G492&amp;"_"&amp;H492&amp;"_"&amp;I492</f>
+        <v>v8_t1_zcqc_znnc</v>
+      </c>
+      <c r="E492" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F492" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G492" t="s">
+        <v>1620</v>
+      </c>
+      <c r="H492" t="s">
+        <v>1571</v>
+      </c>
+      <c r="I492" t="s">
+        <v>1588</v>
+      </c>
+      <c r="J492" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="K492" s="1" t="s">
+        <v>1618</v>
+      </c>
+      <c r="L492" s="1" t="s">
+        <v>1574</v>
+      </c>
+      <c r="M492" s="1" t="s">
+        <v>1577</v>
+      </c>
+      <c r="O492" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="P492" s="1" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="493" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A493" t="str">
+        <f t="shared" si="6"/>
+        <v>v8_t1_zcqc_zrnc</v>
+      </c>
+      <c r="E493" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F493" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G493" t="s">
+        <v>1620</v>
+      </c>
+      <c r="H493" t="s">
+        <v>1571</v>
+      </c>
+      <c r="I493" t="s">
+        <v>1637</v>
+      </c>
+      <c r="J493" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="K493" s="1" t="s">
+        <v>1618</v>
+      </c>
+      <c r="L493" s="1" t="s">
+        <v>1574</v>
+      </c>
+      <c r="M493" s="1" t="s">
+        <v>1636</v>
+      </c>
+      <c r="O493" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="P493" s="1" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="494" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A494" t="str">
+        <f t="shared" si="6"/>
+        <v>v8_t1_zcqc_zsnc</v>
+      </c>
+      <c r="E494" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F494" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G494" t="s">
+        <v>1620</v>
+      </c>
+      <c r="H494" t="s">
+        <v>1571</v>
+      </c>
+      <c r="I494" t="s">
+        <v>1589</v>
+      </c>
+      <c r="J494" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="K494" s="1" t="s">
+        <v>1618</v>
+      </c>
+      <c r="L494" s="1" t="s">
+        <v>1574</v>
+      </c>
+      <c r="M494" s="1" t="s">
+        <v>1578</v>
+      </c>
+      <c r="O494" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="P494" s="1" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="495" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A495" t="str">
+        <f t="shared" si="6"/>
+        <v>v8_t1_zcqc_zhnc</v>
+      </c>
+      <c r="E495" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F495" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G495" t="s">
+        <v>1620</v>
+      </c>
+      <c r="H495" t="s">
+        <v>1571</v>
+      </c>
+      <c r="I495" t="s">
+        <v>1590</v>
+      </c>
+      <c r="J495" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="K495" s="1" t="s">
+        <v>1618</v>
+      </c>
+      <c r="L495" s="1" t="s">
+        <v>1574</v>
+      </c>
+      <c r="M495" s="1" t="s">
+        <v>1579</v>
+      </c>
+      <c r="O495" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="P495" s="1" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="496" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A496" t="str">
+        <f t="shared" si="6"/>
+        <v>v8_t1_zcqc_zmc</v>
+      </c>
+      <c r="E496" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F496" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G496" t="s">
+        <v>1620</v>
+      </c>
+      <c r="H496" t="s">
+        <v>1571</v>
+      </c>
+      <c r="I496" t="s">
+        <v>1591</v>
+      </c>
+      <c r="J496" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="K496" s="1" t="s">
+        <v>1618</v>
+      </c>
+      <c r="L496" s="1" t="s">
+        <v>1574</v>
+      </c>
+      <c r="M496" s="1" t="s">
+        <v>1580</v>
+      </c>
+      <c r="O496" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="P496" s="1" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="497" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A497" t="str">
+        <f t="shared" si="6"/>
+        <v>v8_t1_zcqc_zzc</v>
+      </c>
+      <c r="E497" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F497" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G497" t="s">
+        <v>1620</v>
+      </c>
+      <c r="H497" t="s">
+        <v>1571</v>
+      </c>
+      <c r="I497" t="s">
+        <v>1592</v>
+      </c>
+      <c r="J497" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="K497" s="1" t="s">
+        <v>1618</v>
+      </c>
+      <c r="L497" s="1" t="s">
+        <v>1574</v>
+      </c>
+      <c r="M497" s="1" t="s">
+        <v>1581</v>
+      </c>
+      <c r="O497" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="P497" s="1" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="498" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A498" t="str">
+        <f t="shared" si="6"/>
+        <v>v8_t1_zcqc_zyc</v>
+      </c>
+      <c r="E498" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F498" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G498" t="s">
+        <v>1620</v>
+      </c>
+      <c r="H498" t="s">
+        <v>1571</v>
+      </c>
+      <c r="I498" t="s">
+        <v>1593</v>
+      </c>
+      <c r="J498" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="K498" s="1" t="s">
+        <v>1618</v>
+      </c>
+      <c r="L498" s="1" t="s">
+        <v>1574</v>
+      </c>
+      <c r="M498" s="1" t="s">
+        <v>1582</v>
+      </c>
+      <c r="O498" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="P498" s="1" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="499" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A499" t="str">
+        <f t="shared" si="6"/>
+        <v>v8_t1_zcqc_zmyc</v>
+      </c>
+      <c r="E499" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F499" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G499" t="s">
+        <v>1620</v>
+      </c>
+      <c r="H499" t="s">
+        <v>1571</v>
+      </c>
+      <c r="I499" t="s">
+        <v>1594</v>
+      </c>
+      <c r="J499" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="K499" s="1" t="s">
+        <v>1618</v>
+      </c>
+      <c r="L499" s="1" t="s">
+        <v>1574</v>
+      </c>
+      <c r="M499" s="1" t="s">
+        <v>1583</v>
+      </c>
+      <c r="O499" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="P499" s="1" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="500" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A500" t="str">
+        <f t="shared" si="6"/>
+        <v>v8_t1_zcqc_zxmyc</v>
+      </c>
+      <c r="E500" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F500" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G500" t="s">
+        <v>1620</v>
+      </c>
+      <c r="H500" t="s">
+        <v>1571</v>
+      </c>
+      <c r="I500" t="s">
+        <v>1595</v>
+      </c>
+      <c r="J500" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="K500" s="1" t="s">
+        <v>1618</v>
+      </c>
+      <c r="L500" s="1" t="s">
+        <v>1574</v>
+      </c>
+      <c r="M500" s="1" t="s">
+        <v>1584</v>
+      </c>
+      <c r="O500" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="P500" s="1" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="501" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A501" t="str">
+        <f t="shared" si="6"/>
+        <v>v8_t1_zcqc_zsyc</v>
+      </c>
+      <c r="E501" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F501" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G501" t="s">
+        <v>1620</v>
+      </c>
+      <c r="H501" t="s">
+        <v>1571</v>
+      </c>
+      <c r="I501" t="s">
+        <v>1596</v>
+      </c>
+      <c r="J501" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="K501" s="1" t="s">
+        <v>1618</v>
+      </c>
+      <c r="L501" s="1" t="s">
+        <v>1574</v>
+      </c>
+      <c r="M501" s="1" t="s">
+        <v>1585</v>
+      </c>
+      <c r="O501" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="P501" s="1" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="502" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A502" t="str">
+        <f t="shared" si="6"/>
+        <v>v8_t1_zcqc_zmsyc</v>
+      </c>
+      <c r="E502" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F502" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G502" t="s">
+        <v>1620</v>
+      </c>
+      <c r="H502" t="s">
+        <v>1571</v>
+      </c>
+      <c r="I502" t="s">
+        <v>1597</v>
+      </c>
+      <c r="J502" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="K502" s="1" t="s">
+        <v>1618</v>
+      </c>
+      <c r="L502" s="1" t="s">
+        <v>1574</v>
+      </c>
+      <c r="M502" s="1" t="s">
+        <v>1586</v>
+      </c>
+      <c r="O502" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="P502" s="1" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="503" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A503" t="str">
+        <f t="shared" si="6"/>
+        <v>v8_t2_zcqc_zqc</v>
+      </c>
+      <c r="E503" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F503" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G503" t="s">
+        <v>1622</v>
+      </c>
+      <c r="H503" t="s">
+        <v>1571</v>
+      </c>
+      <c r="I503" t="s">
+        <v>1610</v>
+      </c>
+      <c r="J503" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="K503" s="1" t="s">
+        <v>1623</v>
+      </c>
+      <c r="L503" s="1" t="s">
+        <v>1574</v>
+      </c>
+      <c r="M503" s="1" t="s">
+        <v>1598</v>
+      </c>
+      <c r="O503" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="P503" s="1" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="504" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A504" t="str">
+        <f t="shared" si="6"/>
+        <v>v8_t2_zcqc_zdjc</v>
+      </c>
+      <c r="E504" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F504" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G504" t="s">
+        <v>1622</v>
+      </c>
+      <c r="H504" t="s">
+        <v>1571</v>
+      </c>
+      <c r="I504" t="s">
+        <v>1611</v>
+      </c>
+      <c r="J504" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="K504" s="1" t="s">
+        <v>1623</v>
+      </c>
+      <c r="L504" s="1" t="s">
+        <v>1574</v>
+      </c>
+      <c r="M504" s="1" t="s">
+        <v>1599</v>
+      </c>
+      <c r="O504" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="P504" s="1" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="505" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A505" t="str">
+        <f t="shared" si="6"/>
+        <v>v8_t2_zcqc_zdjysdjc</v>
+      </c>
+      <c r="E505" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F505" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G505" t="s">
+        <v>1622</v>
+      </c>
+      <c r="H505" t="s">
+        <v>1571</v>
+      </c>
+      <c r="I505" t="s">
+        <v>1612</v>
+      </c>
+      <c r="J505" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="K505" s="1" t="s">
+        <v>1623</v>
+      </c>
+      <c r="L505" s="1" t="s">
+        <v>1574</v>
+      </c>
+      <c r="M505" s="1" t="s">
+        <v>1600</v>
+      </c>
+      <c r="O505" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="P505" s="1" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="506" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A506" t="str">
+        <f t="shared" si="6"/>
+        <v>v8_t2_zcqc_fmddjc</v>
+      </c>
+      <c r="E506" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F506" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G506" t="s">
+        <v>1622</v>
+      </c>
+      <c r="H506" t="s">
+        <v>1571</v>
+      </c>
+      <c r="I506" t="s">
+        <v>1613</v>
+      </c>
+      <c r="J506" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="K506" s="1" t="s">
+        <v>1623</v>
+      </c>
+      <c r="L506" s="1" t="s">
+        <v>1574</v>
+      </c>
+      <c r="M506" s="1" t="s">
+        <v>1601</v>
+      </c>
+      <c r="O506" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="P506" s="1" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="507" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A507" t="str">
+        <f t="shared" si="6"/>
+        <v>v8_t2_zcqc_zrjc</v>
+      </c>
+      <c r="E507" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F507" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G507" t="s">
+        <v>1622</v>
+      </c>
+      <c r="H507" t="s">
+        <v>1571</v>
+      </c>
+      <c r="I507" t="s">
+        <v>1614</v>
+      </c>
+      <c r="J507" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="K507" s="1" t="s">
+        <v>1623</v>
+      </c>
+      <c r="L507" s="1" t="s">
+        <v>1574</v>
+      </c>
+      <c r="M507" s="1" t="s">
+        <v>1602</v>
+      </c>
+      <c r="O507" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="P507" s="1" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="508" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A508" t="str">
+        <f t="shared" si="6"/>
+        <v>v8_t2_zcqc_zdjysrjc</v>
+      </c>
+      <c r="E508" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F508" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G508" t="s">
+        <v>1622</v>
+      </c>
+      <c r="H508" t="s">
+        <v>1571</v>
+      </c>
+      <c r="I508" t="s">
+        <v>1615</v>
+      </c>
+      <c r="J508" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="K508" s="1" t="s">
+        <v>1623</v>
+      </c>
+      <c r="L508" s="1" t="s">
+        <v>1574</v>
+      </c>
+      <c r="M508" s="1" t="s">
+        <v>1603</v>
+      </c>
+      <c r="O508" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="P508" s="1" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="509" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A509" t="str">
+        <f t="shared" si="6"/>
+        <v>v8_t2_zcqc_fmdrjc</v>
+      </c>
+      <c r="E509" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F509" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G509" t="s">
+        <v>1622</v>
+      </c>
+      <c r="H509" t="s">
+        <v>1571</v>
+      </c>
+      <c r="I509" t="s">
+        <v>1616</v>
+      </c>
+      <c r="J509" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="K509" s="1" t="s">
+        <v>1623</v>
+      </c>
+      <c r="L509" s="1" t="s">
+        <v>1574</v>
+      </c>
+      <c r="M509" s="1" t="s">
+        <v>1604</v>
+      </c>
+      <c r="O509" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="P509" s="1" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="510" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A510" t="str">
+        <f t="shared" si="6"/>
+        <v>v8_t2_zcqc_zyc</v>
+      </c>
+      <c r="E510" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F510" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G510" t="s">
+        <v>1622</v>
+      </c>
+      <c r="H510" t="s">
+        <v>1571</v>
+      </c>
+      <c r="I510" t="s">
+        <v>1593</v>
+      </c>
+      <c r="J510" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="K510" s="1" t="s">
+        <v>1623</v>
+      </c>
+      <c r="L510" s="1" t="s">
+        <v>1574</v>
+      </c>
+      <c r="M510" s="1" t="s">
+        <v>1605</v>
+      </c>
+      <c r="O510" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="P510" s="1" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="511" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A511" t="str">
+        <f t="shared" si="6"/>
+        <v>v8_t2_zcqc_zec</v>
+      </c>
+      <c r="E511" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F511" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G511" t="s">
+        <v>1622</v>
+      </c>
+      <c r="H511" t="s">
+        <v>1571</v>
+      </c>
+      <c r="I511" t="s">
+        <v>1617</v>
+      </c>
+      <c r="J511" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="K511" s="1" t="s">
+        <v>1623</v>
+      </c>
+      <c r="L511" s="1" t="s">
+        <v>1574</v>
+      </c>
+      <c r="M511" s="1" t="s">
+        <v>1606</v>
+      </c>
+      <c r="O511" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="P511" s="1" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="512" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A512" t="str">
+        <f t="shared" si="6"/>
+        <v>v8_t2_zcqc_ztc</v>
+      </c>
+      <c r="E512" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F512" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G512" t="s">
+        <v>1622</v>
+      </c>
+      <c r="H512" t="s">
+        <v>1571</v>
+      </c>
+      <c r="I512" t="s">
+        <v>1624</v>
+      </c>
+      <c r="J512" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="K512" s="1" t="s">
+        <v>1623</v>
+      </c>
+      <c r="L512" s="1" t="s">
+        <v>1574</v>
+      </c>
+      <c r="M512" s="1" t="s">
+        <v>1607</v>
+      </c>
+      <c r="O512" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="P512" s="1" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="513" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A513" t="str">
+        <f t="shared" si="6"/>
+        <v>v8_t2_zcqc_zfc</v>
+      </c>
+      <c r="E513" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F513" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G513" t="s">
+        <v>1622</v>
+      </c>
+      <c r="H513" t="s">
+        <v>1571</v>
+      </c>
+      <c r="I513" t="s">
+        <v>1625</v>
+      </c>
+      <c r="J513" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="K513" s="1" t="s">
+        <v>1623</v>
+      </c>
+      <c r="L513" s="1" t="s">
+        <v>1574</v>
+      </c>
+      <c r="M513" s="1" t="s">
+        <v>1608</v>
+      </c>
+      <c r="O513" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="P513" s="1" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="514" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A514" t="str">
+        <f t="shared" si="6"/>
+        <v>v8_t2_zcqc_qt</v>
+      </c>
+      <c r="E514" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F514" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G514" t="s">
+        <v>1622</v>
+      </c>
+      <c r="H514" t="s">
+        <v>1571</v>
+      </c>
+      <c r="I514" t="s">
+        <v>1626</v>
+      </c>
+      <c r="J514" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="K514" s="1" t="s">
+        <v>1623</v>
+      </c>
+      <c r="L514" s="1" t="s">
+        <v>1574</v>
+      </c>
+      <c r="M514" s="1" t="s">
+        <v>1609</v>
+      </c>
+      <c r="O514" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="P514" s="1" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="515" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A515" t="str">
+        <f t="shared" si="6"/>
+        <v>v8_t3_zcqc_zcz</v>
+      </c>
+      <c r="E515" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F515" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G515" t="s">
+        <v>1647</v>
+      </c>
+      <c r="H515" t="s">
+        <v>1571</v>
+      </c>
+      <c r="I515" t="s">
+        <v>1631</v>
+      </c>
+      <c r="J515" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="K515" s="1" t="s">
+        <v>1649</v>
+      </c>
+      <c r="L515" s="1" t="s">
+        <v>1574</v>
+      </c>
+      <c r="M515" s="1" t="s">
+        <v>1627</v>
+      </c>
+      <c r="O515" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="P515" s="1" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="516" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A516" t="str">
+        <f t="shared" si="6"/>
+        <v>v8_t3_zcqc_zgnz</v>
+      </c>
+      <c r="E516" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F516" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G516" t="s">
+        <v>1647</v>
+      </c>
+      <c r="H516" t="s">
+        <v>1571</v>
+      </c>
+      <c r="I516" t="s">
+        <v>1632</v>
+      </c>
+      <c r="J516" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="K516" s="1" t="s">
+        <v>1649</v>
+      </c>
+      <c r="L516" s="1" t="s">
+        <v>1574</v>
+      </c>
+      <c r="M516" s="1" t="s">
+        <v>1628</v>
+      </c>
+      <c r="O516" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="P516" s="1" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="517" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A517" t="str">
+        <f t="shared" si="6"/>
+        <v>v8_t3_zcqc_zgyz</v>
+      </c>
+      <c r="E517" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F517" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G517" t="s">
+        <v>1646</v>
+      </c>
+      <c r="H517" t="s">
+        <v>1571</v>
+      </c>
+      <c r="I517" t="s">
+        <v>1633</v>
+      </c>
+      <c r="J517" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="K517" s="1" t="s">
+        <v>1648</v>
+      </c>
+      <c r="L517" s="1" t="s">
+        <v>1574</v>
+      </c>
+      <c r="M517" s="1" t="s">
+        <v>1629</v>
+      </c>
+      <c r="O517" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="P517" s="1" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="518" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A518" t="str">
+        <f t="shared" si="6"/>
+        <v>v8_t3_zcqc_zgzz</v>
+      </c>
+      <c r="E518" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F518" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G518" t="s">
+        <v>1646</v>
+      </c>
+      <c r="H518" t="s">
+        <v>1571</v>
+      </c>
+      <c r="I518" t="s">
+        <v>1634</v>
+      </c>
+      <c r="J518" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="K518" s="1" t="s">
+        <v>1648</v>
+      </c>
+      <c r="L518" s="1" t="s">
+        <v>1574</v>
+      </c>
+      <c r="M518" s="1" t="s">
+        <v>1630</v>
+      </c>
+      <c r="O518" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="P518" s="1" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="519" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A519" t="str">
+        <f t="shared" si="6"/>
+        <v>v8_t3_nmcl_znc</v>
+      </c>
+      <c r="E519" s="1" t="s">
+        <v>1676</v>
+      </c>
+      <c r="F519" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G519" t="s">
+        <v>1647</v>
+      </c>
+      <c r="H519" t="s">
+        <v>1635</v>
+      </c>
+      <c r="I519" t="s">
+        <v>1587</v>
+      </c>
+      <c r="J519" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="K519" s="1" t="s">
+        <v>1648</v>
+      </c>
+      <c r="L519" s="1" t="s">
+        <v>1652</v>
+      </c>
+      <c r="M519" s="1" t="s">
+        <v>1576</v>
+      </c>
+      <c r="O519" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="P519" s="1" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="520" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A520" t="str">
+        <f t="shared" si="6"/>
+        <v>v8_t3_nmcl_znnc</v>
+      </c>
+      <c r="E520" s="1" t="s">
+        <v>1676</v>
+      </c>
+      <c r="F520" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G520" t="s">
+        <v>1647</v>
+      </c>
+      <c r="H520" t="s">
+        <v>1635</v>
+      </c>
+      <c r="I520" t="s">
+        <v>1588</v>
+      </c>
+      <c r="J520" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="K520" s="1" t="s">
+        <v>1648</v>
+      </c>
+      <c r="L520" s="1" t="s">
+        <v>1652</v>
+      </c>
+      <c r="M520" s="1" t="s">
+        <v>1577</v>
+      </c>
+      <c r="O520" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="P520" s="1" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="521" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A521" t="str">
+        <f t="shared" si="6"/>
+        <v>v8_t3_nmcl_zrnc</v>
+      </c>
+      <c r="E521" s="1" t="s">
+        <v>1676</v>
+      </c>
+      <c r="F521" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G521" t="s">
+        <v>1646</v>
+      </c>
+      <c r="H521" t="s">
+        <v>1635</v>
+      </c>
+      <c r="I521" t="s">
+        <v>1637</v>
+      </c>
+      <c r="J521" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="K521" s="1" t="s">
+        <v>1648</v>
+      </c>
+      <c r="L521" s="1" t="s">
+        <v>1652</v>
+      </c>
+      <c r="M521" s="1" t="s">
+        <v>1636</v>
+      </c>
+      <c r="O521" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="P521" s="1" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="522" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A522" t="str">
+        <f t="shared" si="6"/>
+        <v>v8_t3_nmcl_zsnc</v>
+      </c>
+      <c r="E522" s="1" t="s">
+        <v>1676</v>
+      </c>
+      <c r="F522" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G522" t="s">
+        <v>1646</v>
+      </c>
+      <c r="H522" t="s">
+        <v>1635</v>
+      </c>
+      <c r="I522" t="s">
+        <v>1589</v>
+      </c>
+      <c r="J522" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="K522" s="1" t="s">
+        <v>1648</v>
+      </c>
+      <c r="L522" s="1" t="s">
+        <v>1652</v>
+      </c>
+      <c r="M522" s="1" t="s">
+        <v>1578</v>
+      </c>
+      <c r="O522" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="P522" s="1" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="523" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A523" t="str">
+        <f t="shared" si="6"/>
+        <v>v8_t3_nmcl_zhnc</v>
+      </c>
+      <c r="E523" s="1" t="s">
+        <v>1676</v>
+      </c>
+      <c r="F523" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G523" t="s">
+        <v>1646</v>
+      </c>
+      <c r="H523" t="s">
+        <v>1635</v>
+      </c>
+      <c r="I523" t="s">
+        <v>1590</v>
+      </c>
+      <c r="J523" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="K523" s="1" t="s">
+        <v>1648</v>
+      </c>
+      <c r="L523" s="1" t="s">
+        <v>1652</v>
+      </c>
+      <c r="M523" s="1" t="s">
+        <v>1579</v>
+      </c>
+      <c r="O523" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="P523" s="1" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="524" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A524" t="str">
+        <f t="shared" si="6"/>
+        <v>v8_t3_nmcl_zmc</v>
+      </c>
+      <c r="E524" s="1" t="s">
+        <v>1677</v>
+      </c>
+      <c r="F524" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G524" t="s">
+        <v>1646</v>
+      </c>
+      <c r="H524" t="s">
+        <v>1635</v>
+      </c>
+      <c r="I524" t="s">
+        <v>1591</v>
+      </c>
+      <c r="J524" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="K524" s="1" t="s">
+        <v>1648</v>
+      </c>
+      <c r="L524" s="1" t="s">
+        <v>1652</v>
+      </c>
+      <c r="M524" s="1" t="s">
+        <v>1580</v>
+      </c>
+      <c r="O524" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="P524" s="1" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="525" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A525" t="str">
+        <f t="shared" si="6"/>
+        <v>v8_t3_nmcl_zzc</v>
+      </c>
+      <c r="E525" s="1" t="s">
+        <v>1676</v>
+      </c>
+      <c r="F525" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G525" t="s">
+        <v>1646</v>
+      </c>
+      <c r="H525" t="s">
+        <v>1635</v>
+      </c>
+      <c r="I525" t="s">
+        <v>1592</v>
+      </c>
+      <c r="J525" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="K525" s="1" t="s">
+        <v>1648</v>
+      </c>
+      <c r="L525" s="1" t="s">
+        <v>1652</v>
+      </c>
+      <c r="M525" s="1" t="s">
+        <v>1581</v>
+      </c>
+      <c r="O525" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="P525" s="1" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="526" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A526" t="str">
+        <f t="shared" si="6"/>
+        <v>v8_t4_nmcl_zyc</v>
+      </c>
+      <c r="E526" s="1" t="s">
+        <v>1674</v>
+      </c>
+      <c r="F526" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G526" t="s">
+        <v>1645</v>
+      </c>
+      <c r="H526" t="s">
+        <v>1635</v>
+      </c>
+      <c r="I526" t="s">
+        <v>1593</v>
+      </c>
+      <c r="J526" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="K526" s="1" t="s">
+        <v>1651</v>
+      </c>
+      <c r="L526" s="1" t="s">
+        <v>1652</v>
+      </c>
+      <c r="M526" s="1" t="s">
+        <v>1582</v>
+      </c>
+      <c r="O526" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="P526" s="1" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="527" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A527" t="str">
+        <f t="shared" si="6"/>
+        <v>v8_t4_nmcl_zmyc</v>
+      </c>
+      <c r="E527" s="1" t="s">
+        <v>1674</v>
+      </c>
+      <c r="F527" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G527" t="s">
+        <v>1645</v>
+      </c>
+      <c r="H527" t="s">
+        <v>1635</v>
+      </c>
+      <c r="I527" t="s">
+        <v>1594</v>
+      </c>
+      <c r="J527" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="K527" s="1" t="s">
+        <v>1651</v>
+      </c>
+      <c r="L527" s="1" t="s">
+        <v>1652</v>
+      </c>
+      <c r="M527" s="1" t="s">
+        <v>1583</v>
+      </c>
+      <c r="O527" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="P527" s="1" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="528" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A528" t="str">
+        <f t="shared" si="6"/>
+        <v>v8_t4_nmcl_zxmyc</v>
+      </c>
+      <c r="E528" s="1" t="s">
+        <v>1674</v>
+      </c>
+      <c r="F528" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G528" t="s">
+        <v>1644</v>
+      </c>
+      <c r="H528" t="s">
+        <v>1635</v>
+      </c>
+      <c r="I528" t="s">
+        <v>1595</v>
+      </c>
+      <c r="J528" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="K528" s="1" t="s">
+        <v>1650</v>
+      </c>
+      <c r="L528" s="1" t="s">
+        <v>1652</v>
+      </c>
+      <c r="M528" s="1" t="s">
+        <v>1584</v>
+      </c>
+      <c r="O528" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="P528" s="1" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="529" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A529" t="str">
+        <f t="shared" si="6"/>
+        <v>v8_t4_nmcl_zsyc</v>
+      </c>
+      <c r="E529" s="1" t="s">
+        <v>1674</v>
+      </c>
+      <c r="F529" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G529" t="s">
+        <v>1644</v>
+      </c>
+      <c r="H529" t="s">
+        <v>1635</v>
+      </c>
+      <c r="I529" t="s">
+        <v>1596</v>
+      </c>
+      <c r="J529" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="K529" s="1" t="s">
+        <v>1650</v>
+      </c>
+      <c r="L529" s="1" t="s">
+        <v>1652</v>
+      </c>
+      <c r="M529" s="1" t="s">
+        <v>1585</v>
+      </c>
+      <c r="O529" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="P529" s="1" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="530" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A530" t="str">
+        <f t="shared" si="6"/>
+        <v>v8_t4_nmcl_zmsyc</v>
+      </c>
+      <c r="E530" s="1" t="s">
+        <v>1674</v>
+      </c>
+      <c r="F530" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G530" t="s">
+        <v>1644</v>
+      </c>
+      <c r="H530" t="s">
+        <v>1635</v>
+      </c>
+      <c r="I530" t="s">
+        <v>1597</v>
+      </c>
+      <c r="J530" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="K530" s="1" t="s">
+        <v>1650</v>
+      </c>
+      <c r="L530" s="1" t="s">
+        <v>1652</v>
+      </c>
+      <c r="M530" s="1" t="s">
+        <v>1586</v>
+      </c>
+      <c r="O530" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="P530" s="1" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="531" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A531" t="str">
+        <f t="shared" si="6"/>
+        <v>v8_t4_nmcl_zdjc</v>
+      </c>
+      <c r="E531" s="1" t="s">
+        <v>1673</v>
+      </c>
+      <c r="F531" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G531" t="s">
+        <v>1644</v>
+      </c>
+      <c r="H531" t="s">
+        <v>1635</v>
+      </c>
+      <c r="I531" t="s">
+        <v>1611</v>
+      </c>
+      <c r="J531" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="K531" s="1" t="s">
+        <v>1650</v>
+      </c>
+      <c r="L531" s="1" t="s">
+        <v>1652</v>
+      </c>
+      <c r="M531" s="1" t="s">
+        <v>1599</v>
+      </c>
+      <c r="O531" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="P531" s="1" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="532" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A532" t="str">
+        <f t="shared" si="6"/>
+        <v>v8_t4_nmcl_zdjysdjc</v>
+      </c>
+      <c r="E532" s="1" t="s">
+        <v>1673</v>
+      </c>
+      <c r="F532" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G532" t="s">
+        <v>1644</v>
+      </c>
+      <c r="H532" t="s">
+        <v>1635</v>
+      </c>
+      <c r="I532" t="s">
+        <v>1612</v>
+      </c>
+      <c r="J532" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="K532" s="1" t="s">
+        <v>1650</v>
+      </c>
+      <c r="L532" s="1" t="s">
+        <v>1652</v>
+      </c>
+      <c r="M532" s="1" t="s">
+        <v>1600</v>
+      </c>
+      <c r="O532" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="P532" s="1" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="533" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A533" t="str">
+        <f t="shared" si="6"/>
+        <v>v8_t4_nmcl_fmddjc</v>
+      </c>
+      <c r="E533" s="1" t="s">
+        <v>1673</v>
+      </c>
+      <c r="F533" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G533" t="s">
+        <v>1644</v>
+      </c>
+      <c r="H533" t="s">
+        <v>1635</v>
+      </c>
+      <c r="I533" t="s">
+        <v>1613</v>
+      </c>
+      <c r="J533" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="K533" s="1" t="s">
+        <v>1650</v>
+      </c>
+      <c r="L533" s="1" t="s">
+        <v>1652</v>
+      </c>
+      <c r="M533" s="1" t="s">
+        <v>1601</v>
+      </c>
+      <c r="O533" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="P533" s="1" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="534" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A534" t="str">
+        <f t="shared" si="6"/>
+        <v>v8_t5_nmcl_zrjc</v>
+      </c>
+      <c r="E534" s="1" t="s">
+        <v>1673</v>
+      </c>
+      <c r="F534" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G534" t="s">
+        <v>1643</v>
+      </c>
+      <c r="H534" t="s">
+        <v>1635</v>
+      </c>
+      <c r="I534" t="s">
+        <v>1614</v>
+      </c>
+      <c r="J534" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="K534" s="1" t="s">
+        <v>1639</v>
+      </c>
+      <c r="L534" s="1" t="s">
+        <v>1652</v>
+      </c>
+      <c r="M534" s="1" t="s">
+        <v>1602</v>
+      </c>
+      <c r="O534" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="P534" s="1" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="535" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A535" t="str">
+        <f t="shared" si="6"/>
+        <v>v8_t5_nmcl_zdjysrjc</v>
+      </c>
+      <c r="E535" s="1" t="s">
+        <v>1673</v>
+      </c>
+      <c r="F535" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G535" t="s">
+        <v>1643</v>
+      </c>
+      <c r="H535" t="s">
+        <v>1635</v>
+      </c>
+      <c r="I535" t="s">
+        <v>1615</v>
+      </c>
+      <c r="J535" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="K535" s="1" t="s">
+        <v>1639</v>
+      </c>
+      <c r="L535" s="1" t="s">
+        <v>1652</v>
+      </c>
+      <c r="M535" s="1" t="s">
+        <v>1603</v>
+      </c>
+      <c r="O535" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="P535" s="1" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="536" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A536" t="str">
+        <f t="shared" si="6"/>
+        <v>v8_t5_nmcl_fmdrjc</v>
+      </c>
+      <c r="E536" s="1" t="s">
+        <v>1673</v>
+      </c>
+      <c r="F536" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G536" t="s">
+        <v>1642</v>
+      </c>
+      <c r="H536" t="s">
+        <v>1635</v>
+      </c>
+      <c r="I536" t="s">
+        <v>1616</v>
+      </c>
+      <c r="J536" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="K536" s="1" t="s">
+        <v>1638</v>
+      </c>
+      <c r="L536" s="1" t="s">
+        <v>1652</v>
+      </c>
+      <c r="M536" s="1" t="s">
+        <v>1604</v>
+      </c>
+      <c r="O536" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="P536" s="1" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="537" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A537" t="str">
+        <f t="shared" si="6"/>
+        <v>v8_t5_nmcl_zyc</v>
+      </c>
+      <c r="E537" s="1" t="s">
+        <v>1674</v>
+      </c>
+      <c r="F537" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G537" t="s">
+        <v>1642</v>
+      </c>
+      <c r="H537" t="s">
+        <v>1635</v>
+      </c>
+      <c r="I537" t="s">
+        <v>1593</v>
+      </c>
+      <c r="J537" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="K537" s="1" t="s">
+        <v>1638</v>
+      </c>
+      <c r="L537" s="1" t="s">
+        <v>1652</v>
+      </c>
+      <c r="M537" s="1" t="s">
+        <v>1605</v>
+      </c>
+      <c r="O537" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="P537" s="1" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="538" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A538" t="str">
+        <f t="shared" si="6"/>
+        <v>v8_t5_nmcl_zec</v>
+      </c>
+      <c r="E538" s="1" t="s">
+        <v>1674</v>
+      </c>
+      <c r="F538" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G538" t="s">
+        <v>1642</v>
+      </c>
+      <c r="H538" t="s">
+        <v>1635</v>
+      </c>
+      <c r="I538" t="s">
+        <v>1617</v>
+      </c>
+      <c r="J538" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="K538" s="1" t="s">
+        <v>1638</v>
+      </c>
+      <c r="L538" s="1" t="s">
+        <v>1652</v>
+      </c>
+      <c r="M538" s="1" t="s">
+        <v>1606</v>
+      </c>
+      <c r="O538" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="P538" s="1" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="539" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A539" t="str">
+        <f t="shared" si="6"/>
+        <v>v8_t5_nmcl_ztc</v>
+      </c>
+      <c r="E539" s="1" t="s">
+        <v>1674</v>
+      </c>
+      <c r="F539" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G539" t="s">
+        <v>1642</v>
+      </c>
+      <c r="H539" t="s">
+        <v>1635</v>
+      </c>
+      <c r="I539" t="s">
+        <v>1624</v>
+      </c>
+      <c r="J539" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="K539" s="1" t="s">
+        <v>1638</v>
+      </c>
+      <c r="L539" s="1" t="s">
+        <v>1652</v>
+      </c>
+      <c r="M539" s="1" t="s">
+        <v>1607</v>
+      </c>
+      <c r="O539" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="P539" s="1" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="540" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A540" t="str">
+        <f t="shared" si="6"/>
+        <v>v8_t5_nmcl_zfc</v>
+      </c>
+      <c r="E540" s="1" t="s">
+        <v>1679</v>
+      </c>
+      <c r="F540" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G540" t="s">
+        <v>1642</v>
+      </c>
+      <c r="H540" t="s">
+        <v>1635</v>
+      </c>
+      <c r="I540" t="s">
+        <v>1625</v>
+      </c>
+      <c r="J540" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="K540" s="1" t="s">
+        <v>1638</v>
+      </c>
+      <c r="L540" s="1" t="s">
+        <v>1652</v>
+      </c>
+      <c r="M540" s="1" t="s">
+        <v>1608</v>
+      </c>
+      <c r="O540" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="P540" s="1" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="541" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A541" t="str">
+        <f t="shared" si="6"/>
+        <v>v8_t5_nmcl_zgnz</v>
+      </c>
+      <c r="E541" s="1" t="s">
+        <v>1676</v>
+      </c>
+      <c r="F541" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G541" t="s">
+        <v>1642</v>
+      </c>
+      <c r="H541" t="s">
+        <v>1635</v>
+      </c>
+      <c r="I541" t="s">
+        <v>1632</v>
+      </c>
+      <c r="J541" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="K541" s="1" t="s">
+        <v>1638</v>
+      </c>
+      <c r="L541" s="1" t="s">
+        <v>1574</v>
+      </c>
+      <c r="M541" s="1" t="s">
+        <v>1628</v>
+      </c>
+      <c r="O541" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="P541" s="1" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="542" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A542" t="str">
+        <f t="shared" si="6"/>
+        <v>v8_t5_nmcl_zgyz</v>
+      </c>
+      <c r="E542" s="1" t="s">
+        <v>1674</v>
+      </c>
+      <c r="F542" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G542" t="s">
+        <v>1642</v>
+      </c>
+      <c r="H542" t="s">
+        <v>1635</v>
+      </c>
+      <c r="I542" t="s">
+        <v>1633</v>
+      </c>
+      <c r="J542" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="K542" s="1" t="s">
+        <v>1638</v>
+      </c>
+      <c r="L542" s="1" t="s">
+        <v>1574</v>
+      </c>
+      <c r="M542" s="1" t="s">
+        <v>1629</v>
+      </c>
+      <c r="O542" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="P542" s="1" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="543" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A543" t="str">
+        <f t="shared" si="6"/>
+        <v>v8_t5_nmcl_zgzz</v>
+      </c>
+      <c r="E543" s="1" t="s">
+        <v>1676</v>
+      </c>
+      <c r="F543" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G543" t="s">
+        <v>1642</v>
+      </c>
+      <c r="H543" t="s">
+        <v>1635</v>
+      </c>
+      <c r="I543" t="s">
+        <v>1634</v>
+      </c>
+      <c r="J543" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="K543" s="1" t="s">
+        <v>1638</v>
+      </c>
+      <c r="L543" s="1" t="s">
+        <v>1574</v>
+      </c>
+      <c r="M543" s="1" t="s">
+        <v>1630</v>
+      </c>
+      <c r="O543" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="P543" s="1" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="544" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A544" t="str">
+        <f t="shared" si="6"/>
+        <v>v8_t6_nfmccl_znc</v>
+      </c>
+      <c r="E544" s="1" t="s">
+        <v>1676</v>
+      </c>
+      <c r="F544" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G544" t="s">
+        <v>1655</v>
+      </c>
+      <c r="H544" t="s">
+        <v>1653</v>
+      </c>
+      <c r="I544" t="s">
+        <v>1587</v>
+      </c>
+      <c r="J544" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="K544" s="1" t="s">
+        <v>1641</v>
+      </c>
+      <c r="L544" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="M544" s="1" t="s">
+        <v>1576</v>
+      </c>
+      <c r="O544" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="P544" s="1" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="545" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A545" t="str">
+        <f t="shared" si="6"/>
+        <v>v8_t6_nfmccl_znnc</v>
+      </c>
+      <c r="E545" s="1" t="s">
+        <v>1676</v>
+      </c>
+      <c r="F545" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G545" t="s">
+        <v>1655</v>
+      </c>
+      <c r="H545" t="s">
+        <v>1653</v>
+      </c>
+      <c r="I545" t="s">
+        <v>1588</v>
+      </c>
+      <c r="J545" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="K545" s="1" t="s">
+        <v>1641</v>
+      </c>
+      <c r="L545" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="M545" s="1" t="s">
+        <v>1577</v>
+      </c>
+      <c r="O545" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="P545" s="1" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="546" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A546" t="str">
+        <f t="shared" si="6"/>
+        <v>v8_t6_nfmccl_zrnc</v>
+      </c>
+      <c r="E546" s="1" t="s">
+        <v>1676</v>
+      </c>
+      <c r="F546" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G546" t="s">
+        <v>1654</v>
+      </c>
+      <c r="H546" t="s">
+        <v>1653</v>
+      </c>
+      <c r="I546" t="s">
+        <v>1637</v>
+      </c>
+      <c r="J546" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="K546" s="1" t="s">
+        <v>1640</v>
+      </c>
+      <c r="L546" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="M546" s="1" t="s">
+        <v>1636</v>
+      </c>
+      <c r="O546" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="P546" s="1" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="547" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A547" t="str">
+        <f t="shared" si="6"/>
+        <v>v8_t6_nfmccl_zsnc</v>
+      </c>
+      <c r="E547" s="1" t="s">
+        <v>1676</v>
+      </c>
+      <c r="F547" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G547" t="s">
+        <v>1654</v>
+      </c>
+      <c r="H547" t="s">
+        <v>1653</v>
+      </c>
+      <c r="I547" t="s">
+        <v>1589</v>
+      </c>
+      <c r="J547" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="K547" s="1" t="s">
+        <v>1640</v>
+      </c>
+      <c r="L547" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="M547" s="1" t="s">
+        <v>1578</v>
+      </c>
+      <c r="O547" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="P547" s="1" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="548" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A548" t="str">
+        <f t="shared" si="6"/>
+        <v>v8_t6_nfmccl_zhnc</v>
+      </c>
+      <c r="E548" s="1" t="s">
+        <v>1676</v>
+      </c>
+      <c r="F548" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G548" t="s">
+        <v>1654</v>
+      </c>
+      <c r="H548" t="s">
+        <v>1653</v>
+      </c>
+      <c r="I548" t="s">
+        <v>1590</v>
+      </c>
+      <c r="J548" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="K548" s="1" t="s">
+        <v>1640</v>
+      </c>
+      <c r="L548" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="M548" s="1" t="s">
+        <v>1579</v>
+      </c>
+      <c r="O548" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="P548" s="1" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="549" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A549" t="str">
+        <f t="shared" si="6"/>
+        <v>v8_t6_nfmccl_zmc</v>
+      </c>
+      <c r="E549" s="1" t="s">
+        <v>1677</v>
+      </c>
+      <c r="F549" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G549" t="s">
+        <v>1654</v>
+      </c>
+      <c r="H549" t="s">
+        <v>1653</v>
+      </c>
+      <c r="I549" t="s">
+        <v>1591</v>
+      </c>
+      <c r="J549" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="K549" s="1" t="s">
+        <v>1640</v>
+      </c>
+      <c r="L549" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="M549" s="1" t="s">
+        <v>1580</v>
+      </c>
+      <c r="O549" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="P549" s="1" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="550" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A550" t="str">
+        <f t="shared" si="6"/>
+        <v>v8_t6_nfmccl_zzc</v>
+      </c>
+      <c r="E550" s="1" t="s">
+        <v>1676</v>
+      </c>
+      <c r="F550" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G550" t="s">
+        <v>1654</v>
+      </c>
+      <c r="H550" t="s">
+        <v>1653</v>
+      </c>
+      <c r="I550" t="s">
+        <v>1592</v>
+      </c>
+      <c r="J550" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="K550" s="1" t="s">
+        <v>1640</v>
+      </c>
+      <c r="L550" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="M550" s="1" t="s">
+        <v>1581</v>
+      </c>
+      <c r="O550" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="P550" s="1" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="551" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A551" t="str">
+        <f t="shared" si="6"/>
+        <v>v8_t6_nfmccl_zyc</v>
+      </c>
+      <c r="E551" s="1" t="s">
+        <v>1674</v>
+      </c>
+      <c r="F551" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G551" t="s">
+        <v>1654</v>
+      </c>
+      <c r="H551" t="s">
+        <v>1653</v>
+      </c>
+      <c r="I551" t="s">
+        <v>1593</v>
+      </c>
+      <c r="J551" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="K551" s="1" t="s">
+        <v>1640</v>
+      </c>
+      <c r="L551" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="M551" s="1" t="s">
+        <v>1582</v>
+      </c>
+      <c r="O551" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="P551" s="1" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="552" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A552" t="str">
+        <f t="shared" si="6"/>
+        <v>v8_t6_nfmccl_zmyc</v>
+      </c>
+      <c r="E552" s="1" t="s">
+        <v>1674</v>
+      </c>
+      <c r="F552" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G552" t="s">
+        <v>1654</v>
+      </c>
+      <c r="H552" t="s">
+        <v>1653</v>
+      </c>
+      <c r="I552" t="s">
+        <v>1594</v>
+      </c>
+      <c r="J552" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="K552" s="1" t="s">
+        <v>1640</v>
+      </c>
+      <c r="L552" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="M552" s="1" t="s">
+        <v>1583</v>
+      </c>
+      <c r="O552" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="P552" s="1" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="553" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A553" t="str">
+        <f t="shared" si="6"/>
+        <v>v8_t6_nfmccl_zxmyc</v>
+      </c>
+      <c r="E553" s="1" t="s">
+        <v>1674</v>
+      </c>
+      <c r="F553" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G553" t="s">
+        <v>1655</v>
+      </c>
+      <c r="H553" t="s">
+        <v>1653</v>
+      </c>
+      <c r="I553" t="s">
+        <v>1595</v>
+      </c>
+      <c r="J553" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="K553" s="1" t="s">
+        <v>1641</v>
+      </c>
+      <c r="L553" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="M553" s="1" t="s">
+        <v>1584</v>
+      </c>
+      <c r="O553" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="P553" s="1" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="554" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A554" t="str">
+        <f t="shared" si="6"/>
+        <v>v8_t7_nfmccl_zsyc</v>
+      </c>
+      <c r="E554" s="1" t="s">
+        <v>1674</v>
+      </c>
+      <c r="F554" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G554" t="s">
+        <v>1656</v>
+      </c>
+      <c r="H554" t="s">
+        <v>1653</v>
+      </c>
+      <c r="I554" t="s">
+        <v>1596</v>
+      </c>
+      <c r="J554" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="K554" s="1" t="s">
+        <v>1675</v>
+      </c>
+      <c r="L554" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="M554" s="1" t="s">
+        <v>1585</v>
+      </c>
+      <c r="O554" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="P554" s="1" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="555" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A555" t="str">
+        <f t="shared" si="6"/>
+        <v>v8_t7_nfmccl_zmsyc</v>
+      </c>
+      <c r="E555" s="1" t="s">
+        <v>1674</v>
+      </c>
+      <c r="F555" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G555" t="s">
+        <v>1656</v>
+      </c>
+      <c r="H555" t="s">
+        <v>1653</v>
+      </c>
+      <c r="I555" t="s">
+        <v>1597</v>
+      </c>
+      <c r="J555" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="K555" s="1" t="s">
+        <v>1675</v>
+      </c>
+      <c r="L555" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="M555" s="1" t="s">
+        <v>1586</v>
+      </c>
+      <c r="O555" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="P555" s="1" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="556" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A556" t="str">
+        <f t="shared" ref="A556:A582" si="7">F556&amp;"_"&amp;G556&amp;"_"&amp;H556&amp;"_"&amp;I556</f>
+        <v>v8_t7_cczcq_znc</v>
+      </c>
+      <c r="E556" s="1" t="s">
+        <v>1676</v>
+      </c>
+      <c r="F556" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G556" t="s">
+        <v>1656</v>
+      </c>
+      <c r="H556" t="s">
+        <v>1657</v>
+      </c>
+      <c r="I556" t="s">
+        <v>1587</v>
+      </c>
+      <c r="J556" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="K556" s="1" t="s">
+        <v>1675</v>
+      </c>
+      <c r="L556" s="1" t="s">
+        <v>1662</v>
+      </c>
+      <c r="M556" s="1" t="s">
+        <v>1576</v>
+      </c>
+      <c r="O556" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="P556" s="1" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="557" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A557" t="str">
+        <f t="shared" si="7"/>
+        <v>v8_t7_cczcq_znnc</v>
+      </c>
+      <c r="E557" s="1" t="s">
+        <v>1676</v>
+      </c>
+      <c r="F557" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G557" t="s">
+        <v>1656</v>
+      </c>
+      <c r="H557" t="s">
+        <v>1657</v>
+      </c>
+      <c r="I557" t="s">
+        <v>1588</v>
+      </c>
+      <c r="J557" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="K557" s="1" t="s">
+        <v>1675</v>
+      </c>
+      <c r="L557" s="1" t="s">
+        <v>1662</v>
+      </c>
+      <c r="M557" s="1" t="s">
+        <v>1577</v>
+      </c>
+      <c r="O557" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="P557" s="1" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="558" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A558" t="str">
+        <f t="shared" si="7"/>
+        <v>v8_t7_cczcq_zrnc</v>
+      </c>
+      <c r="E558" s="1" t="s">
+        <v>1676</v>
+      </c>
+      <c r="F558" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G558" t="s">
+        <v>1656</v>
+      </c>
+      <c r="H558" t="s">
+        <v>1657</v>
+      </c>
+      <c r="I558" t="s">
+        <v>1637</v>
+      </c>
+      <c r="J558" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="K558" s="1" t="s">
+        <v>1675</v>
+      </c>
+      <c r="L558" s="1" t="s">
+        <v>1662</v>
+      </c>
+      <c r="M558" s="1" t="s">
+        <v>1636</v>
+      </c>
+      <c r="O558" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="P558" s="1" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="559" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A559" t="str">
+        <f t="shared" si="7"/>
+        <v>v8_t7_cczcq_zsnc</v>
+      </c>
+      <c r="E559" s="1" t="s">
+        <v>1676</v>
+      </c>
+      <c r="F559" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G559" t="s">
+        <v>1656</v>
+      </c>
+      <c r="H559" t="s">
+        <v>1657</v>
+      </c>
+      <c r="I559" t="s">
+        <v>1589</v>
+      </c>
+      <c r="J559" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="K559" s="1" t="s">
+        <v>1675</v>
+      </c>
+      <c r="L559" s="1" t="s">
+        <v>1662</v>
+      </c>
+      <c r="M559" s="1" t="s">
+        <v>1578</v>
+      </c>
+      <c r="O559" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="P559" s="1" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="560" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A560" t="str">
+        <f t="shared" si="7"/>
+        <v>v8_t7_cczcq_zhnc</v>
+      </c>
+      <c r="E560" s="1" t="s">
+        <v>1676</v>
+      </c>
+      <c r="F560" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G560" t="s">
+        <v>1656</v>
+      </c>
+      <c r="H560" t="s">
+        <v>1657</v>
+      </c>
+      <c r="I560" t="s">
+        <v>1590</v>
+      </c>
+      <c r="J560" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="K560" s="1" t="s">
+        <v>1675</v>
+      </c>
+      <c r="L560" s="1" t="s">
+        <v>1662</v>
+      </c>
+      <c r="M560" s="1" t="s">
+        <v>1579</v>
+      </c>
+      <c r="O560" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="P560" s="1" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="561" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A561" t="str">
+        <f t="shared" si="7"/>
+        <v>v8_t7_cczcq_zmc</v>
+      </c>
+      <c r="E561" s="1" t="s">
+        <v>1677</v>
+      </c>
+      <c r="F561" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G561" t="s">
+        <v>1656</v>
+      </c>
+      <c r="H561" t="s">
+        <v>1657</v>
+      </c>
+      <c r="I561" t="s">
+        <v>1591</v>
+      </c>
+      <c r="J561" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="K561" s="1" t="s">
+        <v>1675</v>
+      </c>
+      <c r="L561" s="1" t="s">
+        <v>1662</v>
+      </c>
+      <c r="M561" s="1" t="s">
+        <v>1580</v>
+      </c>
+      <c r="O561" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="P561" s="1" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="562" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A562" t="str">
+        <f t="shared" si="7"/>
+        <v>v8_t7_cczcq_zzc</v>
+      </c>
+      <c r="E562" s="1" t="s">
+        <v>1676</v>
+      </c>
+      <c r="F562" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G562" t="s">
+        <v>1656</v>
+      </c>
+      <c r="H562" t="s">
+        <v>1657</v>
+      </c>
+      <c r="I562" t="s">
+        <v>1592</v>
+      </c>
+      <c r="J562" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="K562" s="1" t="s">
+        <v>1675</v>
+      </c>
+      <c r="L562" s="1" t="s">
+        <v>1662</v>
+      </c>
+      <c r="M562" s="1" t="s">
+        <v>1581</v>
+      </c>
+      <c r="O562" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="P562" s="1" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="563" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A563" t="str">
+        <f t="shared" si="7"/>
+        <v>v8_t7_cczcq_zyc</v>
+      </c>
+      <c r="E563" s="1" t="s">
+        <v>1674</v>
+      </c>
+      <c r="F563" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G563" t="s">
+        <v>1656</v>
+      </c>
+      <c r="H563" t="s">
+        <v>1657</v>
+      </c>
+      <c r="I563" t="s">
+        <v>1593</v>
+      </c>
+      <c r="J563" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="K563" s="1" t="s">
+        <v>1675</v>
+      </c>
+      <c r="L563" s="1" t="s">
+        <v>1662</v>
+      </c>
+      <c r="M563" s="1" t="s">
+        <v>1582</v>
+      </c>
+      <c r="O563" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="P563" s="1" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="564" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A564" t="str">
+        <f t="shared" si="7"/>
+        <v>v8_t7_cczcq_zmyc</v>
+      </c>
+      <c r="E564" s="1" t="s">
+        <v>1674</v>
+      </c>
+      <c r="F564" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G564" t="s">
+        <v>1656</v>
+      </c>
+      <c r="H564" t="s">
+        <v>1657</v>
+      </c>
+      <c r="I564" t="s">
+        <v>1594</v>
+      </c>
+      <c r="J564" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="K564" s="1" t="s">
+        <v>1675</v>
+      </c>
+      <c r="L564" s="1" t="s">
+        <v>1662</v>
+      </c>
+      <c r="M564" s="1" t="s">
+        <v>1583</v>
+      </c>
+      <c r="O564" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="P564" s="1" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="565" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A565" t="str">
+        <f t="shared" si="7"/>
+        <v>v8_t7_cczcq_zxmyc</v>
+      </c>
+      <c r="E565" s="1" t="s">
+        <v>1674</v>
+      </c>
+      <c r="F565" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G565" t="s">
+        <v>1656</v>
+      </c>
+      <c r="H565" t="s">
+        <v>1657</v>
+      </c>
+      <c r="I565" t="s">
+        <v>1595</v>
+      </c>
+      <c r="J565" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="K565" s="1" t="s">
+        <v>1675</v>
+      </c>
+      <c r="L565" s="1" t="s">
+        <v>1662</v>
+      </c>
+      <c r="M565" s="1" t="s">
+        <v>1584</v>
+      </c>
+      <c r="O565" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="P565" s="1" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="566" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A566" t="str">
+        <f t="shared" si="7"/>
+        <v>v8_t8_cczcq_zsyc</v>
+      </c>
+      <c r="E566" s="1" t="s">
+        <v>1674</v>
+      </c>
+      <c r="F566" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G566" t="s">
+        <v>1659</v>
+      </c>
+      <c r="H566" t="s">
+        <v>1657</v>
+      </c>
+      <c r="I566" t="s">
+        <v>1596</v>
+      </c>
+      <c r="J566" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="K566" s="1" t="s">
+        <v>1661</v>
+      </c>
+      <c r="L566" s="1" t="s">
+        <v>1662</v>
+      </c>
+      <c r="M566" s="1" t="s">
+        <v>1585</v>
+      </c>
+      <c r="O566" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="P566" s="1" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="567" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A567" t="str">
+        <f t="shared" si="7"/>
+        <v>v8_t8_cczcq_zmsyc</v>
+      </c>
+      <c r="E567" s="1" t="s">
+        <v>1674</v>
+      </c>
+      <c r="F567" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G567" t="s">
+        <v>1659</v>
+      </c>
+      <c r="H567" t="s">
+        <v>1657</v>
+      </c>
+      <c r="I567" t="s">
+        <v>1597</v>
+      </c>
+      <c r="J567" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="K567" s="1" t="s">
+        <v>1661</v>
+      </c>
+      <c r="L567" s="1" t="s">
+        <v>1662</v>
+      </c>
+      <c r="M567" s="1" t="s">
+        <v>1586</v>
+      </c>
+      <c r="O567" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="P567" s="1" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="568" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A568" t="str">
+        <f t="shared" si="7"/>
+        <v>v8_t8_cczcq_zdjysdjc</v>
+      </c>
+      <c r="E568" s="1" t="s">
+        <v>1673</v>
+      </c>
+      <c r="F568" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G568" t="s">
+        <v>1658</v>
+      </c>
+      <c r="H568" t="s">
+        <v>1657</v>
+      </c>
+      <c r="I568" t="s">
+        <v>1612</v>
+      </c>
+      <c r="J568" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="K568" s="1" t="s">
+        <v>1660</v>
+      </c>
+      <c r="L568" s="1" t="s">
+        <v>1662</v>
+      </c>
+      <c r="M568" s="1" t="s">
+        <v>1600</v>
+      </c>
+      <c r="O568" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="P568" s="1" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="569" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A569" t="str">
+        <f t="shared" si="7"/>
+        <v>v8_t8_cczcq_zdjysrjc</v>
+      </c>
+      <c r="E569" s="1" t="s">
+        <v>1673</v>
+      </c>
+      <c r="F569" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G569" t="s">
+        <v>1658</v>
+      </c>
+      <c r="H569" t="s">
+        <v>1657</v>
+      </c>
+      <c r="I569" t="s">
+        <v>1615</v>
+      </c>
+      <c r="J569" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="K569" s="1" t="s">
+        <v>1660</v>
+      </c>
+      <c r="L569" s="1" t="s">
+        <v>1662</v>
+      </c>
+      <c r="M569" s="1" t="s">
+        <v>1603</v>
+      </c>
+      <c r="O569" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="P569" s="1" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="570" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A570" t="str">
+        <f t="shared" si="7"/>
+        <v>v8_t8_scpt_znc</v>
+      </c>
+      <c r="E570" s="1" t="s">
+        <v>1671</v>
+      </c>
+      <c r="F570" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G570" t="s">
+        <v>1658</v>
+      </c>
+      <c r="H570" t="s">
+        <v>1668</v>
+      </c>
+      <c r="I570" t="s">
+        <v>1587</v>
+      </c>
+      <c r="J570" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="K570" s="1" t="s">
+        <v>1660</v>
+      </c>
+      <c r="L570" s="1" t="s">
+        <v>1663</v>
+      </c>
+      <c r="M570" s="1" t="s">
+        <v>1576</v>
+      </c>
+      <c r="O570" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="P570" s="1" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="571" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A571" t="str">
+        <f t="shared" si="7"/>
+        <v>v8_t8_scpt_znnc</v>
+      </c>
+      <c r="E571" s="1" t="s">
+        <v>1671</v>
+      </c>
+      <c r="F571" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G571" t="s">
+        <v>1658</v>
+      </c>
+      <c r="H571" t="s">
+        <v>1668</v>
+      </c>
+      <c r="I571" t="s">
+        <v>1588</v>
+      </c>
+      <c r="J571" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="K571" s="1" t="s">
+        <v>1660</v>
+      </c>
+      <c r="L571" s="1" t="s">
+        <v>1663</v>
+      </c>
+      <c r="M571" s="1" t="s">
+        <v>1577</v>
+      </c>
+      <c r="O571" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="P571" s="1" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="572" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A572" t="str">
+        <f t="shared" si="7"/>
+        <v>v8_t8_scpt_zrnc</v>
+      </c>
+      <c r="E572" s="1" t="s">
+        <v>1671</v>
+      </c>
+      <c r="F572" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G572" t="s">
+        <v>1658</v>
+      </c>
+      <c r="H572" t="s">
+        <v>1668</v>
+      </c>
+      <c r="I572" t="s">
+        <v>1637</v>
+      </c>
+      <c r="J572" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="K572" s="1" t="s">
+        <v>1660</v>
+      </c>
+      <c r="L572" s="1" t="s">
+        <v>1663</v>
+      </c>
+      <c r="M572" s="1" t="s">
+        <v>1636</v>
+      </c>
+      <c r="O572" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="P572" s="1" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="573" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A573" t="str">
+        <f t="shared" si="7"/>
+        <v>v8_t8_scpt_zsnc</v>
+      </c>
+      <c r="E573" s="1" t="s">
+        <v>1671</v>
+      </c>
+      <c r="F573" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G573" t="s">
+        <v>1658</v>
+      </c>
+      <c r="H573" t="s">
+        <v>1668</v>
+      </c>
+      <c r="I573" t="s">
+        <v>1589</v>
+      </c>
+      <c r="J573" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="K573" s="1" t="s">
+        <v>1660</v>
+      </c>
+      <c r="L573" s="1" t="s">
+        <v>1663</v>
+      </c>
+      <c r="M573" s="1" t="s">
+        <v>1578</v>
+      </c>
+      <c r="O573" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="P573" s="1" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="574" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A574" t="str">
+        <f t="shared" si="7"/>
+        <v>v8_t8_scpt_zhnc</v>
+      </c>
+      <c r="E574" s="1" t="s">
+        <v>1671</v>
+      </c>
+      <c r="F574" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G574" t="s">
+        <v>1658</v>
+      </c>
+      <c r="H574" t="s">
+        <v>1668</v>
+      </c>
+      <c r="I574" t="s">
+        <v>1590</v>
+      </c>
+      <c r="J574" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="K574" s="1" t="s">
+        <v>1660</v>
+      </c>
+      <c r="L574" s="1" t="s">
+        <v>1663</v>
+      </c>
+      <c r="M574" s="1" t="s">
+        <v>1579</v>
+      </c>
+      <c r="O574" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="P574" s="1" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="575" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A575" t="str">
+        <f t="shared" si="7"/>
+        <v>v8_t9_scpt_zyc</v>
+      </c>
+      <c r="E575" s="1" t="s">
+        <v>1671</v>
+      </c>
+      <c r="F575" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G575" t="s">
+        <v>1667</v>
+      </c>
+      <c r="H575" t="s">
+        <v>1668</v>
+      </c>
+      <c r="I575" t="s">
+        <v>1593</v>
+      </c>
+      <c r="J575" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="K575" s="1" t="s">
+        <v>1665</v>
+      </c>
+      <c r="L575" s="1" t="s">
+        <v>1663</v>
+      </c>
+      <c r="M575" s="1" t="s">
+        <v>1582</v>
+      </c>
+      <c r="O575" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="P575" s="1" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="576" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A576" t="str">
+        <f t="shared" si="7"/>
+        <v>v8_t9_scpt_zmyc</v>
+      </c>
+      <c r="E576" s="1" t="s">
+        <v>1671</v>
+      </c>
+      <c r="F576" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G576" t="s">
+        <v>1667</v>
+      </c>
+      <c r="H576" t="s">
+        <v>1668</v>
+      </c>
+      <c r="I576" t="s">
+        <v>1594</v>
+      </c>
+      <c r="J576" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="K576" s="1" t="s">
+        <v>1665</v>
+      </c>
+      <c r="L576" s="1" t="s">
+        <v>1663</v>
+      </c>
+      <c r="M576" s="1" t="s">
+        <v>1583</v>
+      </c>
+      <c r="O576" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="P576" s="1" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="577" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A577" t="str">
+        <f t="shared" si="7"/>
+        <v>v8_t9_scpt_zxmyc</v>
+      </c>
+      <c r="E577" s="1" t="s">
+        <v>1671</v>
+      </c>
+      <c r="F577" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G577" t="s">
+        <v>1666</v>
+      </c>
+      <c r="H577" t="s">
+        <v>1668</v>
+      </c>
+      <c r="I577" t="s">
+        <v>1595</v>
+      </c>
+      <c r="J577" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="K577" s="1" t="s">
+        <v>1664</v>
+      </c>
+      <c r="L577" s="1" t="s">
+        <v>1663</v>
+      </c>
+      <c r="M577" s="1" t="s">
+        <v>1584</v>
+      </c>
+      <c r="O577" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="P577" s="1" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="578" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A578" t="str">
+        <f t="shared" si="7"/>
+        <v>v8_t9_scpt_zsyc</v>
+      </c>
+      <c r="E578" s="1" t="s">
+        <v>1671</v>
+      </c>
+      <c r="F578" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G578" t="s">
+        <v>1666</v>
+      </c>
+      <c r="H578" t="s">
+        <v>1668</v>
+      </c>
+      <c r="I578" t="s">
+        <v>1596</v>
+      </c>
+      <c r="J578" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="K578" s="1" t="s">
+        <v>1664</v>
+      </c>
+      <c r="L578" s="1" t="s">
+        <v>1663</v>
+      </c>
+      <c r="M578" s="1" t="s">
+        <v>1585</v>
+      </c>
+      <c r="O578" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="P578" s="1" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="579" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A579" t="str">
+        <f t="shared" si="7"/>
+        <v>v8_t9_scpt_zmsyc</v>
+      </c>
+      <c r="E579" s="1" t="s">
+        <v>1671</v>
+      </c>
+      <c r="F579" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G579" t="s">
+        <v>1666</v>
+      </c>
+      <c r="H579" t="s">
+        <v>1668</v>
+      </c>
+      <c r="I579" t="s">
+        <v>1597</v>
+      </c>
+      <c r="J579" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="K579" s="1" t="s">
+        <v>1664</v>
+      </c>
+      <c r="L579" s="1" t="s">
+        <v>1663</v>
+      </c>
+      <c r="M579" s="1" t="s">
+        <v>1586</v>
+      </c>
+      <c r="O579" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="P579" s="1" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="580" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A580" t="str">
+        <f t="shared" si="7"/>
+        <v>v8_t9_scjy_zgnz</v>
+      </c>
+      <c r="E580" s="1" t="s">
+        <v>1672</v>
+      </c>
+      <c r="F580" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G580" t="s">
+        <v>1666</v>
+      </c>
+      <c r="H580" t="s">
+        <v>1509</v>
+      </c>
+      <c r="I580" t="s">
+        <v>1632</v>
+      </c>
+      <c r="J580" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="K580" s="1" t="s">
+        <v>1664</v>
+      </c>
+      <c r="L580" s="1" t="s">
+        <v>1669</v>
+      </c>
+      <c r="M580" s="1" t="s">
+        <v>1628</v>
+      </c>
+      <c r="O580" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="P580" s="1" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="581" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A581" t="str">
+        <f t="shared" si="7"/>
+        <v>v8_t9_scjy_zsyz</v>
+      </c>
+      <c r="E581" s="1" t="s">
+        <v>1672</v>
+      </c>
+      <c r="F581" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G581" t="s">
+        <v>1666</v>
+      </c>
+      <c r="H581" t="s">
+        <v>1509</v>
+      </c>
+      <c r="I581" t="s">
+        <v>1670</v>
+      </c>
+      <c r="J581" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="K581" s="1" t="s">
+        <v>1664</v>
+      </c>
+      <c r="L581" s="1" t="s">
+        <v>1669</v>
+      </c>
+      <c r="M581" s="1" t="s">
+        <v>1629</v>
+      </c>
+      <c r="O581" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="P581" s="1" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="582" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A582" t="str">
+        <f t="shared" si="7"/>
+        <v>v8_t9_scjy_zgzz</v>
+      </c>
+      <c r="E582" s="1" t="s">
+        <v>1672</v>
+      </c>
+      <c r="F582" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G582" t="s">
+        <v>1666</v>
+      </c>
+      <c r="H582" t="s">
+        <v>1509</v>
+      </c>
+      <c r="I582" t="s">
+        <v>1634</v>
+      </c>
+      <c r="J582" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="K582" s="1" t="s">
+        <v>1664</v>
+      </c>
+      <c r="L582" s="1" t="s">
+        <v>1669</v>
+      </c>
+      <c r="M582" s="1" t="s">
+        <v>1630</v>
+      </c>
+      <c r="O582" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="P582" s="1" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="583" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K583" s="1"/>
+      <c r="L583" s="1"/>
+    </row>
+    <row r="584" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K584" s="1"/>
+      <c r="L584" s="1"/>
+    </row>
+    <row r="585" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K585" s="1"/>
+      <c r="L585" s="1"/>
+    </row>
+    <row r="586" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K586" s="1"/>
+      <c r="L586" s="1"/>
+    </row>
+    <row r="587" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K587" s="1"/>
+      <c r="L587" s="1"/>
+    </row>
+    <row r="588" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K588" s="1"/>
+      <c r="L588" s="1"/>
+    </row>
+    <row r="589" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K589" s="1"/>
+      <c r="L589" s="1"/>
+    </row>
+    <row r="590" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K590" s="1"/>
+      <c r="L590" s="1"/>
+    </row>
+    <row r="591" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K591" s="1"/>
+      <c r="L591" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data-raw/varsList.xlsx
+++ b/data-raw/varsList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\techme\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2663D15D-BC6D-4868-A336-81397A75D789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E01A328-181F-4A83-9E9E-16492F68029D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9892" yWindow="8002" windowWidth="24495" windowHeight="15795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3225" yWindow="8002" windowWidth="20715" windowHeight="13425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6809" uniqueCount="1683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6820" uniqueCount="1684">
   <si>
     <t>variables</t>
   </si>
@@ -5531,10 +5531,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>种耗牛场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>种马场</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5547,10 +5543,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>种绵阳场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>种细毛羊场</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5925,6 +5917,16 @@
   </si>
   <si>
     <t>中国畜牧兽医年鉴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>种牦牛场</t>
+  </si>
+  <si>
+    <t>种绵羊场</t>
+  </si>
+  <si>
+    <t>种乳牛场</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6399,11 +6401,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P591"/>
+  <dimension ref="A1:P592"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A484" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L493" sqref="L493"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A482" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I494" sqref="I494"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25517,7 +25519,7 @@
         <v>1570</v>
       </c>
       <c r="G490" t="s">
-        <v>1621</v>
+        <v>1619</v>
       </c>
       <c r="H490" t="s">
         <v>1571</v>
@@ -25529,7 +25531,7 @@
         <v>1573</v>
       </c>
       <c r="K490" s="1" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="L490" s="1" t="s">
         <v>1574</v>
@@ -25538,10 +25540,10 @@
         <v>1575</v>
       </c>
       <c r="O490" s="1" t="s">
-        <v>1681</v>
+        <v>1679</v>
       </c>
       <c r="P490" s="1" t="s">
-        <v>1682</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="491" spans="1:16" x14ac:dyDescent="0.25">
@@ -25556,19 +25558,19 @@
         <v>1570</v>
       </c>
       <c r="G491" t="s">
-        <v>1621</v>
+        <v>1619</v>
       </c>
       <c r="H491" t="s">
         <v>1571</v>
       </c>
       <c r="I491" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="J491" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K491" s="1" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="L491" s="1" t="s">
         <v>1574</v>
@@ -25577,15 +25579,15 @@
         <v>1576</v>
       </c>
       <c r="O491" s="1" t="s">
-        <v>1681</v>
+        <v>1679</v>
       </c>
       <c r="P491" s="1" t="s">
-        <v>1682</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="492" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A492" t="str">
-        <f t="shared" ref="A492:A555" si="6">F492&amp;"_"&amp;G492&amp;"_"&amp;H492&amp;"_"&amp;I492</f>
+        <f t="shared" ref="A492:A556" si="6">F492&amp;"_"&amp;G492&amp;"_"&amp;H492&amp;"_"&amp;I492</f>
         <v>v8_t1_zcqc_znnc</v>
       </c>
       <c r="E492" s="1" t="s">
@@ -25595,19 +25597,19 @@
         <v>1569</v>
       </c>
       <c r="G492" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="H492" t="s">
         <v>1571</v>
       </c>
       <c r="I492" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
       <c r="J492" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K492" s="1" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="L492" s="1" t="s">
         <v>1574</v>
@@ -25616,17 +25618,13 @@
         <v>1577</v>
       </c>
       <c r="O492" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="P492" s="1" t="s">
         <v>1680</v>
       </c>
-      <c r="P492" s="1" t="s">
-        <v>1682</v>
-      </c>
     </row>
     <row r="493" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A493" t="str">
-        <f t="shared" si="6"/>
-        <v>v8_t1_zcqc_zrnc</v>
-      </c>
       <c r="E493" s="1" t="s">
         <v>1079</v>
       </c>
@@ -25634,37 +25632,37 @@
         <v>1569</v>
       </c>
       <c r="G493" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="H493" t="s">
         <v>1571</v>
       </c>
       <c r="I493" t="s">
-        <v>1637</v>
+        <v>1635</v>
       </c>
       <c r="J493" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K493" s="1" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="L493" s="1" t="s">
         <v>1574</v>
       </c>
       <c r="M493" s="1" t="s">
-        <v>1636</v>
+        <v>1683</v>
       </c>
       <c r="O493" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="P493" s="1" t="s">
         <v>1680</v>
-      </c>
-      <c r="P493" s="1" t="s">
-        <v>1682</v>
       </c>
     </row>
     <row r="494" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A494" t="str">
         <f t="shared" si="6"/>
-        <v>v8_t1_zcqc_zsnc</v>
+        <v>v8_t1_zcqc_zrnc</v>
       </c>
       <c r="E494" s="1" t="s">
         <v>1079</v>
@@ -25673,37 +25671,37 @@
         <v>1569</v>
       </c>
       <c r="G494" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="H494" t="s">
         <v>1571</v>
       </c>
       <c r="I494" t="s">
-        <v>1589</v>
+        <v>1635</v>
       </c>
       <c r="J494" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K494" s="1" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="L494" s="1" t="s">
         <v>1574</v>
       </c>
       <c r="M494" s="1" t="s">
-        <v>1578</v>
+        <v>1634</v>
       </c>
       <c r="O494" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="P494" s="1" t="s">
         <v>1680</v>
-      </c>
-      <c r="P494" s="1" t="s">
-        <v>1682</v>
       </c>
     </row>
     <row r="495" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A495" t="str">
         <f t="shared" si="6"/>
-        <v>v8_t1_zcqc_zhnc</v>
+        <v>v8_t1_zcqc_zsnc</v>
       </c>
       <c r="E495" s="1" t="s">
         <v>1079</v>
@@ -25712,37 +25710,37 @@
         <v>1569</v>
       </c>
       <c r="G495" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="H495" t="s">
         <v>1571</v>
       </c>
       <c r="I495" t="s">
-        <v>1590</v>
+        <v>1587</v>
       </c>
       <c r="J495" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K495" s="1" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="L495" s="1" t="s">
         <v>1574</v>
       </c>
       <c r="M495" s="1" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="O495" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="P495" s="1" t="s">
         <v>1680</v>
-      </c>
-      <c r="P495" s="1" t="s">
-        <v>1682</v>
       </c>
     </row>
     <row r="496" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A496" t="str">
         <f t="shared" si="6"/>
-        <v>v8_t1_zcqc_zmc</v>
+        <v>v8_t1_zcqc_zhnc</v>
       </c>
       <c r="E496" s="1" t="s">
         <v>1079</v>
@@ -25751,37 +25749,37 @@
         <v>1569</v>
       </c>
       <c r="G496" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="H496" t="s">
         <v>1571</v>
       </c>
       <c r="I496" t="s">
-        <v>1591</v>
+        <v>1588</v>
       </c>
       <c r="J496" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K496" s="1" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="L496" s="1" t="s">
         <v>1574</v>
       </c>
       <c r="M496" s="1" t="s">
-        <v>1580</v>
+        <v>1681</v>
       </c>
       <c r="O496" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="P496" s="1" t="s">
         <v>1680</v>
-      </c>
-      <c r="P496" s="1" t="s">
-        <v>1682</v>
       </c>
     </row>
     <row r="497" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A497" t="str">
         <f t="shared" si="6"/>
-        <v>v8_t1_zcqc_zzc</v>
+        <v>v8_t1_zcqc_zmc</v>
       </c>
       <c r="E497" s="1" t="s">
         <v>1079</v>
@@ -25790,37 +25788,37 @@
         <v>1569</v>
       </c>
       <c r="G497" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="H497" t="s">
         <v>1571</v>
       </c>
       <c r="I497" t="s">
-        <v>1592</v>
+        <v>1589</v>
       </c>
       <c r="J497" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K497" s="1" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="L497" s="1" t="s">
         <v>1574</v>
       </c>
       <c r="M497" s="1" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
       <c r="O497" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="P497" s="1" t="s">
         <v>1680</v>
-      </c>
-      <c r="P497" s="1" t="s">
-        <v>1682</v>
       </c>
     </row>
     <row r="498" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A498" t="str">
         <f t="shared" si="6"/>
-        <v>v8_t1_zcqc_zyc</v>
+        <v>v8_t1_zcqc_zzc</v>
       </c>
       <c r="E498" s="1" t="s">
         <v>1079</v>
@@ -25829,37 +25827,37 @@
         <v>1569</v>
       </c>
       <c r="G498" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="H498" t="s">
         <v>1571</v>
       </c>
       <c r="I498" t="s">
-        <v>1593</v>
+        <v>1590</v>
       </c>
       <c r="J498" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K498" s="1" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="L498" s="1" t="s">
         <v>1574</v>
       </c>
       <c r="M498" s="1" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="O498" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="P498" s="1" t="s">
         <v>1680</v>
-      </c>
-      <c r="P498" s="1" t="s">
-        <v>1682</v>
       </c>
     </row>
     <row r="499" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A499" t="str">
         <f t="shared" si="6"/>
-        <v>v8_t1_zcqc_zmyc</v>
+        <v>v8_t1_zcqc_zyc</v>
       </c>
       <c r="E499" s="1" t="s">
         <v>1079</v>
@@ -25868,37 +25866,37 @@
         <v>1569</v>
       </c>
       <c r="G499" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="H499" t="s">
         <v>1571</v>
       </c>
       <c r="I499" t="s">
-        <v>1594</v>
+        <v>1591</v>
       </c>
       <c r="J499" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K499" s="1" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="L499" s="1" t="s">
         <v>1574</v>
       </c>
       <c r="M499" s="1" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="O499" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="P499" s="1" t="s">
         <v>1680</v>
-      </c>
-      <c r="P499" s="1" t="s">
-        <v>1682</v>
       </c>
     </row>
     <row r="500" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A500" t="str">
         <f t="shared" si="6"/>
-        <v>v8_t1_zcqc_zxmyc</v>
+        <v>v8_t1_zcqc_zmyc</v>
       </c>
       <c r="E500" s="1" t="s">
         <v>1079</v>
@@ -25907,37 +25905,37 @@
         <v>1569</v>
       </c>
       <c r="G500" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="H500" t="s">
         <v>1571</v>
       </c>
       <c r="I500" t="s">
-        <v>1595</v>
+        <v>1592</v>
       </c>
       <c r="J500" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K500" s="1" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="L500" s="1" t="s">
         <v>1574</v>
       </c>
       <c r="M500" s="1" t="s">
-        <v>1584</v>
+        <v>1682</v>
       </c>
       <c r="O500" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="P500" s="1" t="s">
         <v>1680</v>
-      </c>
-      <c r="P500" s="1" t="s">
-        <v>1682</v>
       </c>
     </row>
     <row r="501" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A501" t="str">
         <f t="shared" si="6"/>
-        <v>v8_t1_zcqc_zsyc</v>
+        <v>v8_t1_zcqc_zxmyc</v>
       </c>
       <c r="E501" s="1" t="s">
         <v>1079</v>
@@ -25946,37 +25944,37 @@
         <v>1569</v>
       </c>
       <c r="G501" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="H501" t="s">
         <v>1571</v>
       </c>
       <c r="I501" t="s">
-        <v>1596</v>
+        <v>1593</v>
       </c>
       <c r="J501" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K501" s="1" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="L501" s="1" t="s">
         <v>1574</v>
       </c>
       <c r="M501" s="1" t="s">
-        <v>1585</v>
+        <v>1582</v>
       </c>
       <c r="O501" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="P501" s="1" t="s">
         <v>1680</v>
-      </c>
-      <c r="P501" s="1" t="s">
-        <v>1682</v>
       </c>
     </row>
     <row r="502" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A502" t="str">
         <f t="shared" si="6"/>
-        <v>v8_t1_zcqc_zmsyc</v>
+        <v>v8_t1_zcqc_zsyc</v>
       </c>
       <c r="E502" s="1" t="s">
         <v>1079</v>
@@ -25985,37 +25983,37 @@
         <v>1569</v>
       </c>
       <c r="G502" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="H502" t="s">
         <v>1571</v>
       </c>
       <c r="I502" t="s">
-        <v>1597</v>
+        <v>1594</v>
       </c>
       <c r="J502" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K502" s="1" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="L502" s="1" t="s">
         <v>1574</v>
       </c>
       <c r="M502" s="1" t="s">
-        <v>1586</v>
+        <v>1583</v>
       </c>
       <c r="O502" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="P502" s="1" t="s">
         <v>1680</v>
-      </c>
-      <c r="P502" s="1" t="s">
-        <v>1682</v>
       </c>
     </row>
     <row r="503" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A503" t="str">
         <f t="shared" si="6"/>
-        <v>v8_t2_zcqc_zqc</v>
+        <v>v8_t1_zcqc_zmsyc</v>
       </c>
       <c r="E503" s="1" t="s">
         <v>1079</v>
@@ -26024,37 +26022,37 @@
         <v>1569</v>
       </c>
       <c r="G503" t="s">
-        <v>1622</v>
+        <v>1618</v>
       </c>
       <c r="H503" t="s">
         <v>1571</v>
       </c>
       <c r="I503" t="s">
-        <v>1610</v>
+        <v>1595</v>
       </c>
       <c r="J503" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K503" s="1" t="s">
-        <v>1623</v>
+        <v>1616</v>
       </c>
       <c r="L503" s="1" t="s">
         <v>1574</v>
       </c>
       <c r="M503" s="1" t="s">
-        <v>1598</v>
+        <v>1584</v>
       </c>
       <c r="O503" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="P503" s="1" t="s">
         <v>1680</v>
-      </c>
-      <c r="P503" s="1" t="s">
-        <v>1682</v>
       </c>
     </row>
     <row r="504" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A504" t="str">
         <f t="shared" si="6"/>
-        <v>v8_t2_zcqc_zdjc</v>
+        <v>v8_t2_zcqc_zqc</v>
       </c>
       <c r="E504" s="1" t="s">
         <v>1079</v>
@@ -26063,37 +26061,37 @@
         <v>1569</v>
       </c>
       <c r="G504" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
       <c r="H504" t="s">
         <v>1571</v>
       </c>
       <c r="I504" t="s">
-        <v>1611</v>
+        <v>1608</v>
       </c>
       <c r="J504" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K504" s="1" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="L504" s="1" t="s">
         <v>1574</v>
       </c>
       <c r="M504" s="1" t="s">
-        <v>1599</v>
+        <v>1596</v>
       </c>
       <c r="O504" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="P504" s="1" t="s">
         <v>1680</v>
-      </c>
-      <c r="P504" s="1" t="s">
-        <v>1682</v>
       </c>
     </row>
     <row r="505" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A505" t="str">
         <f t="shared" si="6"/>
-        <v>v8_t2_zcqc_zdjysdjc</v>
+        <v>v8_t2_zcqc_zdjc</v>
       </c>
       <c r="E505" s="1" t="s">
         <v>1079</v>
@@ -26102,37 +26100,37 @@
         <v>1569</v>
       </c>
       <c r="G505" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
       <c r="H505" t="s">
         <v>1571</v>
       </c>
       <c r="I505" t="s">
-        <v>1612</v>
+        <v>1609</v>
       </c>
       <c r="J505" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K505" s="1" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="L505" s="1" t="s">
         <v>1574</v>
       </c>
       <c r="M505" s="1" t="s">
-        <v>1600</v>
+        <v>1597</v>
       </c>
       <c r="O505" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="P505" s="1" t="s">
         <v>1680</v>
-      </c>
-      <c r="P505" s="1" t="s">
-        <v>1682</v>
       </c>
     </row>
     <row r="506" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A506" t="str">
         <f t="shared" si="6"/>
-        <v>v8_t2_zcqc_fmddjc</v>
+        <v>v8_t2_zcqc_zdjysdjc</v>
       </c>
       <c r="E506" s="1" t="s">
         <v>1079</v>
@@ -26141,37 +26139,37 @@
         <v>1569</v>
       </c>
       <c r="G506" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
       <c r="H506" t="s">
         <v>1571</v>
       </c>
       <c r="I506" t="s">
-        <v>1613</v>
+        <v>1610</v>
       </c>
       <c r="J506" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K506" s="1" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="L506" s="1" t="s">
         <v>1574</v>
       </c>
       <c r="M506" s="1" t="s">
-        <v>1601</v>
+        <v>1598</v>
       </c>
       <c r="O506" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="P506" s="1" t="s">
         <v>1680</v>
-      </c>
-      <c r="P506" s="1" t="s">
-        <v>1682</v>
       </c>
     </row>
     <row r="507" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A507" t="str">
         <f t="shared" si="6"/>
-        <v>v8_t2_zcqc_zrjc</v>
+        <v>v8_t2_zcqc_fmddjc</v>
       </c>
       <c r="E507" s="1" t="s">
         <v>1079</v>
@@ -26180,37 +26178,37 @@
         <v>1569</v>
       </c>
       <c r="G507" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
       <c r="H507" t="s">
         <v>1571</v>
       </c>
       <c r="I507" t="s">
-        <v>1614</v>
+        <v>1611</v>
       </c>
       <c r="J507" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K507" s="1" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="L507" s="1" t="s">
         <v>1574</v>
       </c>
       <c r="M507" s="1" t="s">
-        <v>1602</v>
+        <v>1599</v>
       </c>
       <c r="O507" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="P507" s="1" t="s">
         <v>1680</v>
-      </c>
-      <c r="P507" s="1" t="s">
-        <v>1682</v>
       </c>
     </row>
     <row r="508" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A508" t="str">
         <f t="shared" si="6"/>
-        <v>v8_t2_zcqc_zdjysrjc</v>
+        <v>v8_t2_zcqc_zrjc</v>
       </c>
       <c r="E508" s="1" t="s">
         <v>1079</v>
@@ -26219,37 +26217,37 @@
         <v>1569</v>
       </c>
       <c r="G508" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
       <c r="H508" t="s">
         <v>1571</v>
       </c>
       <c r="I508" t="s">
-        <v>1615</v>
+        <v>1612</v>
       </c>
       <c r="J508" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K508" s="1" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="L508" s="1" t="s">
         <v>1574</v>
       </c>
       <c r="M508" s="1" t="s">
-        <v>1603</v>
+        <v>1600</v>
       </c>
       <c r="O508" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="P508" s="1" t="s">
         <v>1680</v>
-      </c>
-      <c r="P508" s="1" t="s">
-        <v>1682</v>
       </c>
     </row>
     <row r="509" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A509" t="str">
         <f t="shared" si="6"/>
-        <v>v8_t2_zcqc_fmdrjc</v>
+        <v>v8_t2_zcqc_zdjysrjc</v>
       </c>
       <c r="E509" s="1" t="s">
         <v>1079</v>
@@ -26258,37 +26256,37 @@
         <v>1569</v>
       </c>
       <c r="G509" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
       <c r="H509" t="s">
         <v>1571</v>
       </c>
       <c r="I509" t="s">
-        <v>1616</v>
+        <v>1613</v>
       </c>
       <c r="J509" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K509" s="1" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="L509" s="1" t="s">
         <v>1574</v>
       </c>
       <c r="M509" s="1" t="s">
-        <v>1604</v>
+        <v>1601</v>
       </c>
       <c r="O509" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="P509" s="1" t="s">
         <v>1680</v>
-      </c>
-      <c r="P509" s="1" t="s">
-        <v>1682</v>
       </c>
     </row>
     <row r="510" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A510" t="str">
         <f t="shared" si="6"/>
-        <v>v8_t2_zcqc_zyc</v>
+        <v>v8_t2_zcqc_fmdrjc</v>
       </c>
       <c r="E510" s="1" t="s">
         <v>1079</v>
@@ -26297,37 +26295,37 @@
         <v>1569</v>
       </c>
       <c r="G510" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
       <c r="H510" t="s">
         <v>1571</v>
       </c>
       <c r="I510" t="s">
-        <v>1593</v>
+        <v>1614</v>
       </c>
       <c r="J510" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K510" s="1" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="L510" s="1" t="s">
         <v>1574</v>
       </c>
       <c r="M510" s="1" t="s">
-        <v>1605</v>
+        <v>1602</v>
       </c>
       <c r="O510" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="P510" s="1" t="s">
         <v>1680</v>
-      </c>
-      <c r="P510" s="1" t="s">
-        <v>1682</v>
       </c>
     </row>
     <row r="511" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A511" t="str">
         <f t="shared" si="6"/>
-        <v>v8_t2_zcqc_zec</v>
+        <v>v8_t2_zcqc_zyc</v>
       </c>
       <c r="E511" s="1" t="s">
         <v>1079</v>
@@ -26336,37 +26334,37 @@
         <v>1569</v>
       </c>
       <c r="G511" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
       <c r="H511" t="s">
         <v>1571</v>
       </c>
       <c r="I511" t="s">
-        <v>1617</v>
+        <v>1591</v>
       </c>
       <c r="J511" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K511" s="1" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="L511" s="1" t="s">
         <v>1574</v>
       </c>
       <c r="M511" s="1" t="s">
-        <v>1606</v>
+        <v>1603</v>
       </c>
       <c r="O511" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="P511" s="1" t="s">
         <v>1680</v>
-      </c>
-      <c r="P511" s="1" t="s">
-        <v>1682</v>
       </c>
     </row>
     <row r="512" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A512" t="str">
         <f t="shared" si="6"/>
-        <v>v8_t2_zcqc_ztc</v>
+        <v>v8_t2_zcqc_zec</v>
       </c>
       <c r="E512" s="1" t="s">
         <v>1079</v>
@@ -26375,37 +26373,37 @@
         <v>1569</v>
       </c>
       <c r="G512" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
       <c r="H512" t="s">
         <v>1571</v>
       </c>
       <c r="I512" t="s">
-        <v>1624</v>
+        <v>1615</v>
       </c>
       <c r="J512" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K512" s="1" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="L512" s="1" t="s">
         <v>1574</v>
       </c>
       <c r="M512" s="1" t="s">
-        <v>1607</v>
+        <v>1604</v>
       </c>
       <c r="O512" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="P512" s="1" t="s">
         <v>1680</v>
-      </c>
-      <c r="P512" s="1" t="s">
-        <v>1682</v>
       </c>
     </row>
     <row r="513" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A513" t="str">
         <f t="shared" si="6"/>
-        <v>v8_t2_zcqc_zfc</v>
+        <v>v8_t2_zcqc_ztc</v>
       </c>
       <c r="E513" s="1" t="s">
         <v>1079</v>
@@ -26414,37 +26412,37 @@
         <v>1569</v>
       </c>
       <c r="G513" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
       <c r="H513" t="s">
         <v>1571</v>
       </c>
       <c r="I513" t="s">
-        <v>1625</v>
+        <v>1622</v>
       </c>
       <c r="J513" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K513" s="1" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="L513" s="1" t="s">
         <v>1574</v>
       </c>
       <c r="M513" s="1" t="s">
-        <v>1608</v>
+        <v>1605</v>
       </c>
       <c r="O513" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="P513" s="1" t="s">
         <v>1680</v>
-      </c>
-      <c r="P513" s="1" t="s">
-        <v>1682</v>
       </c>
     </row>
     <row r="514" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A514" t="str">
         <f t="shared" si="6"/>
-        <v>v8_t2_zcqc_qt</v>
+        <v>v8_t2_zcqc_zfc</v>
       </c>
       <c r="E514" s="1" t="s">
         <v>1079</v>
@@ -26453,37 +26451,37 @@
         <v>1569</v>
       </c>
       <c r="G514" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
       <c r="H514" t="s">
         <v>1571</v>
       </c>
       <c r="I514" t="s">
-        <v>1626</v>
+        <v>1623</v>
       </c>
       <c r="J514" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K514" s="1" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="L514" s="1" t="s">
         <v>1574</v>
       </c>
       <c r="M514" s="1" t="s">
-        <v>1609</v>
+        <v>1606</v>
       </c>
       <c r="O514" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="P514" s="1" t="s">
         <v>1680</v>
-      </c>
-      <c r="P514" s="1" t="s">
-        <v>1682</v>
       </c>
     </row>
     <row r="515" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A515" t="str">
         <f t="shared" si="6"/>
-        <v>v8_t3_zcqc_zcz</v>
+        <v>v8_t2_zcqc_qt</v>
       </c>
       <c r="E515" s="1" t="s">
         <v>1079</v>
@@ -26492,37 +26490,37 @@
         <v>1569</v>
       </c>
       <c r="G515" t="s">
-        <v>1647</v>
+        <v>1620</v>
       </c>
       <c r="H515" t="s">
         <v>1571</v>
       </c>
       <c r="I515" t="s">
-        <v>1631</v>
+        <v>1624</v>
       </c>
       <c r="J515" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K515" s="1" t="s">
-        <v>1649</v>
+        <v>1621</v>
       </c>
       <c r="L515" s="1" t="s">
         <v>1574</v>
       </c>
       <c r="M515" s="1" t="s">
-        <v>1627</v>
+        <v>1607</v>
       </c>
       <c r="O515" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="P515" s="1" t="s">
         <v>1680</v>
-      </c>
-      <c r="P515" s="1" t="s">
-        <v>1682</v>
       </c>
     </row>
     <row r="516" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A516" t="str">
         <f t="shared" si="6"/>
-        <v>v8_t3_zcqc_zgnz</v>
+        <v>v8_t3_zcqc_zcz</v>
       </c>
       <c r="E516" s="1" t="s">
         <v>1079</v>
@@ -26531,37 +26529,37 @@
         <v>1569</v>
       </c>
       <c r="G516" t="s">
-        <v>1647</v>
+        <v>1645</v>
       </c>
       <c r="H516" t="s">
         <v>1571</v>
       </c>
       <c r="I516" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="J516" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K516" s="1" t="s">
-        <v>1649</v>
+        <v>1647</v>
       </c>
       <c r="L516" s="1" t="s">
         <v>1574</v>
       </c>
       <c r="M516" s="1" t="s">
-        <v>1628</v>
+        <v>1625</v>
       </c>
       <c r="O516" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="P516" s="1" t="s">
         <v>1680</v>
-      </c>
-      <c r="P516" s="1" t="s">
-        <v>1682</v>
       </c>
     </row>
     <row r="517" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A517" t="str">
         <f t="shared" si="6"/>
-        <v>v8_t3_zcqc_zgyz</v>
+        <v>v8_t3_zcqc_zgnz</v>
       </c>
       <c r="E517" s="1" t="s">
         <v>1079</v>
@@ -26570,37 +26568,37 @@
         <v>1569</v>
       </c>
       <c r="G517" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="H517" t="s">
         <v>1571</v>
       </c>
       <c r="I517" t="s">
-        <v>1633</v>
+        <v>1630</v>
       </c>
       <c r="J517" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K517" s="1" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="L517" s="1" t="s">
         <v>1574</v>
       </c>
       <c r="M517" s="1" t="s">
-        <v>1629</v>
+        <v>1626</v>
       </c>
       <c r="O517" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="P517" s="1" t="s">
         <v>1680</v>
-      </c>
-      <c r="P517" s="1" t="s">
-        <v>1682</v>
       </c>
     </row>
     <row r="518" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A518" t="str">
         <f t="shared" si="6"/>
-        <v>v8_t3_zcqc_zgzz</v>
+        <v>v8_t3_zcqc_zgyz</v>
       </c>
       <c r="E518" s="1" t="s">
         <v>1079</v>
@@ -26609,310 +26607,310 @@
         <v>1569</v>
       </c>
       <c r="G518" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
       <c r="H518" t="s">
         <v>1571</v>
       </c>
       <c r="I518" t="s">
-        <v>1634</v>
+        <v>1631</v>
       </c>
       <c r="J518" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K518" s="1" t="s">
-        <v>1648</v>
+        <v>1646</v>
       </c>
       <c r="L518" s="1" t="s">
         <v>1574</v>
       </c>
       <c r="M518" s="1" t="s">
-        <v>1630</v>
+        <v>1627</v>
       </c>
       <c r="O518" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="P518" s="1" t="s">
         <v>1680</v>
-      </c>
-      <c r="P518" s="1" t="s">
-        <v>1682</v>
       </c>
     </row>
     <row r="519" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A519" t="str">
         <f t="shared" si="6"/>
-        <v>v8_t3_nmcl_znc</v>
+        <v>v8_t3_zcqc_zgzz</v>
       </c>
       <c r="E519" s="1" t="s">
-        <v>1676</v>
+        <v>1079</v>
       </c>
       <c r="F519" t="s">
         <v>1569</v>
       </c>
       <c r="G519" t="s">
-        <v>1647</v>
+        <v>1644</v>
       </c>
       <c r="H519" t="s">
-        <v>1635</v>
+        <v>1571</v>
       </c>
       <c r="I519" t="s">
-        <v>1587</v>
+        <v>1632</v>
       </c>
       <c r="J519" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K519" s="1" t="s">
-        <v>1648</v>
+        <v>1646</v>
       </c>
       <c r="L519" s="1" t="s">
-        <v>1652</v>
+        <v>1574</v>
       </c>
       <c r="M519" s="1" t="s">
-        <v>1576</v>
+        <v>1628</v>
       </c>
       <c r="O519" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="P519" s="1" t="s">
         <v>1680</v>
-      </c>
-      <c r="P519" s="1" t="s">
-        <v>1682</v>
       </c>
     </row>
     <row r="520" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A520" t="str">
         <f t="shared" si="6"/>
-        <v>v8_t3_nmcl_znnc</v>
+        <v>v8_t3_nmcl_znc</v>
       </c>
       <c r="E520" s="1" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="F520" t="s">
         <v>1569</v>
       </c>
       <c r="G520" t="s">
-        <v>1647</v>
+        <v>1645</v>
       </c>
       <c r="H520" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="I520" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="J520" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K520" s="1" t="s">
-        <v>1648</v>
+        <v>1646</v>
       </c>
       <c r="L520" s="1" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
       <c r="M520" s="1" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="O520" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="P520" s="1" t="s">
         <v>1680</v>
-      </c>
-      <c r="P520" s="1" t="s">
-        <v>1682</v>
       </c>
     </row>
     <row r="521" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A521" t="str">
         <f t="shared" si="6"/>
-        <v>v8_t3_nmcl_zrnc</v>
+        <v>v8_t3_nmcl_znnc</v>
       </c>
       <c r="E521" s="1" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="F521" t="s">
         <v>1569</v>
       </c>
       <c r="G521" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="H521" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="I521" t="s">
-        <v>1637</v>
+        <v>1586</v>
       </c>
       <c r="J521" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K521" s="1" t="s">
-        <v>1648</v>
+        <v>1646</v>
       </c>
       <c r="L521" s="1" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
       <c r="M521" s="1" t="s">
-        <v>1636</v>
+        <v>1577</v>
       </c>
       <c r="O521" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="P521" s="1" t="s">
         <v>1680</v>
-      </c>
-      <c r="P521" s="1" t="s">
-        <v>1682</v>
       </c>
     </row>
     <row r="522" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A522" t="str">
         <f t="shared" si="6"/>
-        <v>v8_t3_nmcl_zsnc</v>
+        <v>v8_t3_nmcl_zrnc</v>
       </c>
       <c r="E522" s="1" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="F522" t="s">
         <v>1569</v>
       </c>
       <c r="G522" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
       <c r="H522" t="s">
+        <v>1633</v>
+      </c>
+      <c r="I522" t="s">
         <v>1635</v>
-      </c>
-      <c r="I522" t="s">
-        <v>1589</v>
       </c>
       <c r="J522" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K522" s="1" t="s">
-        <v>1648</v>
+        <v>1646</v>
       </c>
       <c r="L522" s="1" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
       <c r="M522" s="1" t="s">
-        <v>1578</v>
+        <v>1634</v>
       </c>
       <c r="O522" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="P522" s="1" t="s">
         <v>1680</v>
-      </c>
-      <c r="P522" s="1" t="s">
-        <v>1682</v>
       </c>
     </row>
     <row r="523" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A523" t="str">
         <f t="shared" si="6"/>
-        <v>v8_t3_nmcl_zhnc</v>
+        <v>v8_t3_nmcl_zsnc</v>
       </c>
       <c r="E523" s="1" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="F523" t="s">
         <v>1569</v>
       </c>
       <c r="G523" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
       <c r="H523" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="I523" t="s">
-        <v>1590</v>
+        <v>1587</v>
       </c>
       <c r="J523" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K523" s="1" t="s">
-        <v>1648</v>
+        <v>1646</v>
       </c>
       <c r="L523" s="1" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
       <c r="M523" s="1" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="O523" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="P523" s="1" t="s">
         <v>1680</v>
-      </c>
-      <c r="P523" s="1" t="s">
-        <v>1682</v>
       </c>
     </row>
     <row r="524" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A524" t="str">
         <f t="shared" si="6"/>
-        <v>v8_t3_nmcl_zmc</v>
+        <v>v8_t3_nmcl_zhnc</v>
       </c>
       <c r="E524" s="1" t="s">
-        <v>1677</v>
+        <v>1674</v>
       </c>
       <c r="F524" t="s">
         <v>1569</v>
       </c>
       <c r="G524" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
       <c r="H524" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="I524" t="s">
-        <v>1591</v>
+        <v>1588</v>
       </c>
       <c r="J524" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K524" s="1" t="s">
-        <v>1648</v>
+        <v>1646</v>
       </c>
       <c r="L524" s="1" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
       <c r="M524" s="1" t="s">
-        <v>1580</v>
+        <v>1681</v>
       </c>
       <c r="O524" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="P524" s="1" t="s">
         <v>1680</v>
-      </c>
-      <c r="P524" s="1" t="s">
-        <v>1682</v>
       </c>
     </row>
     <row r="525" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A525" t="str">
         <f t="shared" si="6"/>
-        <v>v8_t3_nmcl_zzc</v>
+        <v>v8_t3_nmcl_zmc</v>
       </c>
       <c r="E525" s="1" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="F525" t="s">
         <v>1569</v>
       </c>
       <c r="G525" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
       <c r="H525" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="I525" t="s">
-        <v>1592</v>
+        <v>1589</v>
       </c>
       <c r="J525" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K525" s="1" t="s">
-        <v>1648</v>
+        <v>1646</v>
       </c>
       <c r="L525" s="1" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
       <c r="M525" s="1" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
       <c r="O525" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="P525" s="1" t="s">
         <v>1680</v>
-      </c>
-      <c r="P525" s="1" t="s">
-        <v>1682</v>
       </c>
     </row>
     <row r="526" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A526" t="str">
         <f t="shared" si="6"/>
-        <v>v8_t4_nmcl_zyc</v>
+        <v>v8_t3_nmcl_zzc</v>
       </c>
       <c r="E526" s="1" t="s">
         <v>1674</v>
@@ -26921,622 +26919,622 @@
         <v>1569</v>
       </c>
       <c r="G526" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="H526" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="I526" t="s">
-        <v>1593</v>
+        <v>1590</v>
       </c>
       <c r="J526" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K526" s="1" t="s">
-        <v>1651</v>
+        <v>1646</v>
       </c>
       <c r="L526" s="1" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
       <c r="M526" s="1" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="O526" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="P526" s="1" t="s">
         <v>1680</v>
-      </c>
-      <c r="P526" s="1" t="s">
-        <v>1682</v>
       </c>
     </row>
     <row r="527" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A527" t="str">
         <f t="shared" si="6"/>
-        <v>v8_t4_nmcl_zmyc</v>
+        <v>v8_t4_nmcl_zyc</v>
       </c>
       <c r="E527" s="1" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
       <c r="F527" t="s">
         <v>1569</v>
       </c>
       <c r="G527" t="s">
-        <v>1645</v>
+        <v>1643</v>
       </c>
       <c r="H527" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="I527" t="s">
-        <v>1594</v>
+        <v>1591</v>
       </c>
       <c r="J527" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K527" s="1" t="s">
-        <v>1651</v>
+        <v>1649</v>
       </c>
       <c r="L527" s="1" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
       <c r="M527" s="1" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="O527" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="P527" s="1" t="s">
         <v>1680</v>
-      </c>
-      <c r="P527" s="1" t="s">
-        <v>1682</v>
       </c>
     </row>
     <row r="528" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A528" t="str">
         <f t="shared" si="6"/>
-        <v>v8_t4_nmcl_zxmyc</v>
+        <v>v8_t4_nmcl_zmyc</v>
       </c>
       <c r="E528" s="1" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
       <c r="F528" t="s">
         <v>1569</v>
       </c>
       <c r="G528" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="H528" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="I528" t="s">
-        <v>1595</v>
+        <v>1592</v>
       </c>
       <c r="J528" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K528" s="1" t="s">
+        <v>1649</v>
+      </c>
+      <c r="L528" s="1" t="s">
         <v>1650</v>
       </c>
-      <c r="L528" s="1" t="s">
-        <v>1652</v>
-      </c>
       <c r="M528" s="1" t="s">
-        <v>1584</v>
+        <v>1682</v>
       </c>
       <c r="O528" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="P528" s="1" t="s">
         <v>1680</v>
-      </c>
-      <c r="P528" s="1" t="s">
-        <v>1682</v>
       </c>
     </row>
     <row r="529" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A529" t="str">
         <f t="shared" si="6"/>
-        <v>v8_t4_nmcl_zsyc</v>
+        <v>v8_t4_nmcl_zxmyc</v>
       </c>
       <c r="E529" s="1" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
       <c r="F529" t="s">
         <v>1569</v>
       </c>
       <c r="G529" t="s">
-        <v>1644</v>
+        <v>1642</v>
       </c>
       <c r="H529" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="I529" t="s">
-        <v>1596</v>
+        <v>1593</v>
       </c>
       <c r="J529" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K529" s="1" t="s">
+        <v>1648</v>
+      </c>
+      <c r="L529" s="1" t="s">
         <v>1650</v>
       </c>
-      <c r="L529" s="1" t="s">
-        <v>1652</v>
-      </c>
       <c r="M529" s="1" t="s">
-        <v>1585</v>
+        <v>1582</v>
       </c>
       <c r="O529" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="P529" s="1" t="s">
         <v>1680</v>
-      </c>
-      <c r="P529" s="1" t="s">
-        <v>1682</v>
       </c>
     </row>
     <row r="530" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A530" t="str">
         <f t="shared" si="6"/>
-        <v>v8_t4_nmcl_zmsyc</v>
+        <v>v8_t4_nmcl_zsyc</v>
       </c>
       <c r="E530" s="1" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
       <c r="F530" t="s">
         <v>1569</v>
       </c>
       <c r="G530" t="s">
-        <v>1644</v>
+        <v>1642</v>
       </c>
       <c r="H530" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="I530" t="s">
-        <v>1597</v>
+        <v>1594</v>
       </c>
       <c r="J530" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K530" s="1" t="s">
+        <v>1648</v>
+      </c>
+      <c r="L530" s="1" t="s">
         <v>1650</v>
       </c>
-      <c r="L530" s="1" t="s">
-        <v>1652</v>
-      </c>
       <c r="M530" s="1" t="s">
-        <v>1586</v>
+        <v>1583</v>
       </c>
       <c r="O530" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="P530" s="1" t="s">
         <v>1680</v>
-      </c>
-      <c r="P530" s="1" t="s">
-        <v>1682</v>
       </c>
     </row>
     <row r="531" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A531" t="str">
         <f t="shared" si="6"/>
-        <v>v8_t4_nmcl_zdjc</v>
+        <v>v8_t4_nmcl_zmsyc</v>
       </c>
       <c r="E531" s="1" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="F531" t="s">
         <v>1569</v>
       </c>
       <c r="G531" t="s">
-        <v>1644</v>
+        <v>1642</v>
       </c>
       <c r="H531" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="I531" t="s">
-        <v>1611</v>
+        <v>1595</v>
       </c>
       <c r="J531" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K531" s="1" t="s">
+        <v>1648</v>
+      </c>
+      <c r="L531" s="1" t="s">
         <v>1650</v>
       </c>
-      <c r="L531" s="1" t="s">
-        <v>1652</v>
-      </c>
       <c r="M531" s="1" t="s">
-        <v>1599</v>
+        <v>1584</v>
       </c>
       <c r="O531" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="P531" s="1" t="s">
         <v>1680</v>
-      </c>
-      <c r="P531" s="1" t="s">
-        <v>1682</v>
       </c>
     </row>
     <row r="532" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A532" t="str">
         <f t="shared" si="6"/>
-        <v>v8_t4_nmcl_zdjysdjc</v>
+        <v>v8_t4_nmcl_zdjc</v>
       </c>
       <c r="E532" s="1" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
       <c r="F532" t="s">
         <v>1569</v>
       </c>
       <c r="G532" t="s">
-        <v>1644</v>
+        <v>1642</v>
       </c>
       <c r="H532" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="I532" t="s">
-        <v>1612</v>
+        <v>1609</v>
       </c>
       <c r="J532" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K532" s="1" t="s">
+        <v>1648</v>
+      </c>
+      <c r="L532" s="1" t="s">
         <v>1650</v>
       </c>
-      <c r="L532" s="1" t="s">
-        <v>1652</v>
-      </c>
       <c r="M532" s="1" t="s">
-        <v>1600</v>
+        <v>1597</v>
       </c>
       <c r="O532" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="P532" s="1" t="s">
         <v>1680</v>
-      </c>
-      <c r="P532" s="1" t="s">
-        <v>1682</v>
       </c>
     </row>
     <row r="533" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A533" t="str">
         <f t="shared" si="6"/>
-        <v>v8_t4_nmcl_fmddjc</v>
+        <v>v8_t4_nmcl_zdjysdjc</v>
       </c>
       <c r="E533" s="1" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
       <c r="F533" t="s">
         <v>1569</v>
       </c>
       <c r="G533" t="s">
-        <v>1644</v>
+        <v>1642</v>
       </c>
       <c r="H533" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="I533" t="s">
-        <v>1613</v>
+        <v>1610</v>
       </c>
       <c r="J533" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K533" s="1" t="s">
+        <v>1648</v>
+      </c>
+      <c r="L533" s="1" t="s">
         <v>1650</v>
       </c>
-      <c r="L533" s="1" t="s">
-        <v>1652</v>
-      </c>
       <c r="M533" s="1" t="s">
-        <v>1601</v>
+        <v>1598</v>
       </c>
       <c r="O533" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="P533" s="1" t="s">
         <v>1680</v>
-      </c>
-      <c r="P533" s="1" t="s">
-        <v>1682</v>
       </c>
     </row>
     <row r="534" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A534" t="str">
         <f t="shared" si="6"/>
-        <v>v8_t5_nmcl_zrjc</v>
+        <v>v8_t4_nmcl_fmddjc</v>
       </c>
       <c r="E534" s="1" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
       <c r="F534" t="s">
         <v>1569</v>
       </c>
       <c r="G534" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="H534" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="I534" t="s">
-        <v>1614</v>
+        <v>1611</v>
       </c>
       <c r="J534" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K534" s="1" t="s">
-        <v>1639</v>
+        <v>1648</v>
       </c>
       <c r="L534" s="1" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
       <c r="M534" s="1" t="s">
-        <v>1602</v>
+        <v>1599</v>
       </c>
       <c r="O534" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="P534" s="1" t="s">
         <v>1680</v>
-      </c>
-      <c r="P534" s="1" t="s">
-        <v>1682</v>
       </c>
     </row>
     <row r="535" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A535" t="str">
         <f t="shared" si="6"/>
-        <v>v8_t5_nmcl_zdjysrjc</v>
+        <v>v8_t5_nmcl_zrjc</v>
       </c>
       <c r="E535" s="1" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
       <c r="F535" t="s">
         <v>1569</v>
       </c>
       <c r="G535" t="s">
-        <v>1643</v>
+        <v>1641</v>
       </c>
       <c r="H535" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="I535" t="s">
-        <v>1615</v>
+        <v>1612</v>
       </c>
       <c r="J535" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K535" s="1" t="s">
-        <v>1639</v>
+        <v>1637</v>
       </c>
       <c r="L535" s="1" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
       <c r="M535" s="1" t="s">
-        <v>1603</v>
+        <v>1600</v>
       </c>
       <c r="O535" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="P535" s="1" t="s">
         <v>1680</v>
-      </c>
-      <c r="P535" s="1" t="s">
-        <v>1682</v>
       </c>
     </row>
     <row r="536" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A536" t="str">
         <f t="shared" si="6"/>
-        <v>v8_t5_nmcl_fmdrjc</v>
+        <v>v8_t5_nmcl_zdjysrjc</v>
       </c>
       <c r="E536" s="1" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
       <c r="F536" t="s">
         <v>1569</v>
       </c>
       <c r="G536" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="H536" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="I536" t="s">
-        <v>1616</v>
+        <v>1613</v>
       </c>
       <c r="J536" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K536" s="1" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="L536" s="1" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
       <c r="M536" s="1" t="s">
-        <v>1604</v>
+        <v>1601</v>
       </c>
       <c r="O536" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="P536" s="1" t="s">
         <v>1680</v>
-      </c>
-      <c r="P536" s="1" t="s">
-        <v>1682</v>
       </c>
     </row>
     <row r="537" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A537" t="str">
         <f t="shared" si="6"/>
-        <v>v8_t5_nmcl_zyc</v>
+        <v>v8_t5_nmcl_fmdrjc</v>
       </c>
       <c r="E537" s="1" t="s">
-        <v>1674</v>
+        <v>1671</v>
       </c>
       <c r="F537" t="s">
         <v>1569</v>
       </c>
       <c r="G537" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
       <c r="H537" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="I537" t="s">
-        <v>1593</v>
+        <v>1614</v>
       </c>
       <c r="J537" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K537" s="1" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
       <c r="L537" s="1" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
       <c r="M537" s="1" t="s">
-        <v>1605</v>
+        <v>1602</v>
       </c>
       <c r="O537" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="P537" s="1" t="s">
         <v>1680</v>
-      </c>
-      <c r="P537" s="1" t="s">
-        <v>1682</v>
       </c>
     </row>
     <row r="538" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A538" t="str">
         <f t="shared" si="6"/>
-        <v>v8_t5_nmcl_zec</v>
+        <v>v8_t5_nmcl_zyc</v>
       </c>
       <c r="E538" s="1" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
       <c r="F538" t="s">
         <v>1569</v>
       </c>
       <c r="G538" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
       <c r="H538" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="I538" t="s">
-        <v>1617</v>
+        <v>1591</v>
       </c>
       <c r="J538" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K538" s="1" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
       <c r="L538" s="1" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
       <c r="M538" s="1" t="s">
-        <v>1606</v>
+        <v>1603</v>
       </c>
       <c r="O538" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="P538" s="1" t="s">
         <v>1680</v>
-      </c>
-      <c r="P538" s="1" t="s">
-        <v>1682</v>
       </c>
     </row>
     <row r="539" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A539" t="str">
         <f t="shared" si="6"/>
-        <v>v8_t5_nmcl_ztc</v>
+        <v>v8_t5_nmcl_zec</v>
       </c>
       <c r="E539" s="1" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
       <c r="F539" t="s">
         <v>1569</v>
       </c>
       <c r="G539" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
       <c r="H539" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="I539" t="s">
-        <v>1624</v>
+        <v>1615</v>
       </c>
       <c r="J539" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K539" s="1" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
       <c r="L539" s="1" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
       <c r="M539" s="1" t="s">
-        <v>1607</v>
+        <v>1604</v>
       </c>
       <c r="O539" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="P539" s="1" t="s">
         <v>1680</v>
-      </c>
-      <c r="P539" s="1" t="s">
-        <v>1682</v>
       </c>
     </row>
     <row r="540" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A540" t="str">
         <f t="shared" si="6"/>
-        <v>v8_t5_nmcl_zfc</v>
+        <v>v8_t5_nmcl_ztc</v>
       </c>
       <c r="E540" s="1" t="s">
-        <v>1679</v>
+        <v>1672</v>
       </c>
       <c r="F540" t="s">
         <v>1569</v>
       </c>
       <c r="G540" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
       <c r="H540" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="I540" t="s">
-        <v>1625</v>
+        <v>1622</v>
       </c>
       <c r="J540" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K540" s="1" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
       <c r="L540" s="1" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
       <c r="M540" s="1" t="s">
-        <v>1608</v>
+        <v>1605</v>
       </c>
       <c r="O540" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="P540" s="1" t="s">
         <v>1680</v>
-      </c>
-      <c r="P540" s="1" t="s">
-        <v>1682</v>
       </c>
     </row>
     <row r="541" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A541" t="str">
         <f t="shared" si="6"/>
-        <v>v8_t5_nmcl_zgnz</v>
+        <v>v8_t5_nmcl_zfc</v>
       </c>
       <c r="E541" s="1" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="F541" t="s">
         <v>1569</v>
       </c>
       <c r="G541" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
       <c r="H541" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="I541" t="s">
-        <v>1632</v>
+        <v>1623</v>
       </c>
       <c r="J541" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K541" s="1" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
       <c r="L541" s="1" t="s">
-        <v>1574</v>
+        <v>1650</v>
       </c>
       <c r="M541" s="1" t="s">
-        <v>1628</v>
+        <v>1606</v>
       </c>
       <c r="O541" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="P541" s="1" t="s">
         <v>1680</v>
-      </c>
-      <c r="P541" s="1" t="s">
-        <v>1682</v>
       </c>
     </row>
     <row r="542" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A542" t="str">
         <f t="shared" si="6"/>
-        <v>v8_t5_nmcl_zgyz</v>
+        <v>v8_t5_nmcl_zgnz</v>
       </c>
       <c r="E542" s="1" t="s">
         <v>1674</v>
@@ -27545,349 +27543,349 @@
         <v>1569</v>
       </c>
       <c r="G542" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
       <c r="H542" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="I542" t="s">
-        <v>1633</v>
+        <v>1630</v>
       </c>
       <c r="J542" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K542" s="1" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
       <c r="L542" s="1" t="s">
         <v>1574</v>
       </c>
       <c r="M542" s="1" t="s">
-        <v>1629</v>
+        <v>1626</v>
       </c>
       <c r="O542" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="P542" s="1" t="s">
         <v>1680</v>
-      </c>
-      <c r="P542" s="1" t="s">
-        <v>1682</v>
       </c>
     </row>
     <row r="543" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A543" t="str">
         <f t="shared" si="6"/>
-        <v>v8_t5_nmcl_zgzz</v>
+        <v>v8_t5_nmcl_zgyz</v>
       </c>
       <c r="E543" s="1" t="s">
-        <v>1676</v>
+        <v>1672</v>
       </c>
       <c r="F543" t="s">
         <v>1569</v>
       </c>
       <c r="G543" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
       <c r="H543" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="I543" t="s">
-        <v>1634</v>
+        <v>1631</v>
       </c>
       <c r="J543" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K543" s="1" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
       <c r="L543" s="1" t="s">
         <v>1574</v>
       </c>
       <c r="M543" s="1" t="s">
-        <v>1630</v>
+        <v>1627</v>
       </c>
       <c r="O543" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="P543" s="1" t="s">
         <v>1680</v>
-      </c>
-      <c r="P543" s="1" t="s">
-        <v>1682</v>
       </c>
     </row>
     <row r="544" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A544" t="str">
         <f t="shared" si="6"/>
-        <v>v8_t6_nfmccl_znc</v>
+        <v>v8_t5_nmcl_zgzz</v>
       </c>
       <c r="E544" s="1" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="F544" t="s">
         <v>1569</v>
       </c>
       <c r="G544" t="s">
-        <v>1655</v>
+        <v>1640</v>
       </c>
       <c r="H544" t="s">
-        <v>1653</v>
+        <v>1633</v>
       </c>
       <c r="I544" t="s">
-        <v>1587</v>
+        <v>1632</v>
       </c>
       <c r="J544" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K544" s="1" t="s">
-        <v>1641</v>
+        <v>1636</v>
       </c>
       <c r="L544" s="1" t="s">
+        <v>1574</v>
+      </c>
+      <c r="M544" s="1" t="s">
+        <v>1628</v>
+      </c>
+      <c r="O544" s="1" t="s">
         <v>1678</v>
       </c>
-      <c r="M544" s="1" t="s">
-        <v>1576</v>
-      </c>
-      <c r="O544" s="1" t="s">
+      <c r="P544" s="1" t="s">
         <v>1680</v>
-      </c>
-      <c r="P544" s="1" t="s">
-        <v>1682</v>
       </c>
     </row>
     <row r="545" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A545" t="str">
         <f t="shared" si="6"/>
-        <v>v8_t6_nfmccl_znnc</v>
+        <v>v8_t6_nfmccl_znc</v>
       </c>
       <c r="E545" s="1" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="F545" t="s">
         <v>1569</v>
       </c>
       <c r="G545" t="s">
-        <v>1655</v>
+        <v>1653</v>
       </c>
       <c r="H545" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
       <c r="I545" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="J545" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K545" s="1" t="s">
-        <v>1641</v>
+        <v>1639</v>
       </c>
       <c r="L545" s="1" t="s">
+        <v>1676</v>
+      </c>
+      <c r="M545" s="1" t="s">
+        <v>1576</v>
+      </c>
+      <c r="O545" s="1" t="s">
         <v>1678</v>
       </c>
-      <c r="M545" s="1" t="s">
-        <v>1577</v>
-      </c>
-      <c r="O545" s="1" t="s">
+      <c r="P545" s="1" t="s">
         <v>1680</v>
-      </c>
-      <c r="P545" s="1" t="s">
-        <v>1682</v>
       </c>
     </row>
     <row r="546" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A546" t="str">
         <f t="shared" si="6"/>
-        <v>v8_t6_nfmccl_zrnc</v>
+        <v>v8_t6_nfmccl_znnc</v>
       </c>
       <c r="E546" s="1" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="F546" t="s">
         <v>1569</v>
       </c>
       <c r="G546" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="H546" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
       <c r="I546" t="s">
-        <v>1637</v>
+        <v>1586</v>
       </c>
       <c r="J546" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K546" s="1" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="L546" s="1" t="s">
+        <v>1676</v>
+      </c>
+      <c r="M546" s="1" t="s">
+        <v>1577</v>
+      </c>
+      <c r="O546" s="1" t="s">
         <v>1678</v>
       </c>
-      <c r="M546" s="1" t="s">
-        <v>1636</v>
-      </c>
-      <c r="O546" s="1" t="s">
+      <c r="P546" s="1" t="s">
         <v>1680</v>
-      </c>
-      <c r="P546" s="1" t="s">
-        <v>1682</v>
       </c>
     </row>
     <row r="547" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A547" t="str">
         <f t="shared" si="6"/>
-        <v>v8_t6_nfmccl_zsnc</v>
+        <v>v8_t6_nfmccl_zrnc</v>
       </c>
       <c r="E547" s="1" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="F547" t="s">
         <v>1569</v>
       </c>
       <c r="G547" t="s">
-        <v>1654</v>
+        <v>1652</v>
       </c>
       <c r="H547" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
       <c r="I547" t="s">
-        <v>1589</v>
+        <v>1635</v>
       </c>
       <c r="J547" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K547" s="1" t="s">
-        <v>1640</v>
+        <v>1638</v>
       </c>
       <c r="L547" s="1" t="s">
+        <v>1676</v>
+      </c>
+      <c r="M547" s="1" t="s">
+        <v>1634</v>
+      </c>
+      <c r="O547" s="1" t="s">
         <v>1678</v>
       </c>
-      <c r="M547" s="1" t="s">
-        <v>1578</v>
-      </c>
-      <c r="O547" s="1" t="s">
+      <c r="P547" s="1" t="s">
         <v>1680</v>
-      </c>
-      <c r="P547" s="1" t="s">
-        <v>1682</v>
       </c>
     </row>
     <row r="548" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A548" t="str">
         <f t="shared" si="6"/>
-        <v>v8_t6_nfmccl_zhnc</v>
+        <v>v8_t6_nfmccl_zsnc</v>
       </c>
       <c r="E548" s="1" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="F548" t="s">
         <v>1569</v>
       </c>
       <c r="G548" t="s">
-        <v>1654</v>
+        <v>1652</v>
       </c>
       <c r="H548" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
       <c r="I548" t="s">
-        <v>1590</v>
+        <v>1587</v>
       </c>
       <c r="J548" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K548" s="1" t="s">
-        <v>1640</v>
+        <v>1638</v>
       </c>
       <c r="L548" s="1" t="s">
+        <v>1676</v>
+      </c>
+      <c r="M548" s="1" t="s">
+        <v>1578</v>
+      </c>
+      <c r="O548" s="1" t="s">
         <v>1678</v>
       </c>
-      <c r="M548" s="1" t="s">
-        <v>1579</v>
-      </c>
-      <c r="O548" s="1" t="s">
+      <c r="P548" s="1" t="s">
         <v>1680</v>
-      </c>
-      <c r="P548" s="1" t="s">
-        <v>1682</v>
       </c>
     </row>
     <row r="549" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A549" t="str">
         <f t="shared" si="6"/>
-        <v>v8_t6_nfmccl_zmc</v>
+        <v>v8_t6_nfmccl_zhnc</v>
       </c>
       <c r="E549" s="1" t="s">
-        <v>1677</v>
+        <v>1674</v>
       </c>
       <c r="F549" t="s">
         <v>1569</v>
       </c>
       <c r="G549" t="s">
-        <v>1654</v>
+        <v>1652</v>
       </c>
       <c r="H549" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
       <c r="I549" t="s">
-        <v>1591</v>
+        <v>1588</v>
       </c>
       <c r="J549" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K549" s="1" t="s">
-        <v>1640</v>
+        <v>1638</v>
       </c>
       <c r="L549" s="1" t="s">
+        <v>1676</v>
+      </c>
+      <c r="M549" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="O549" s="1" t="s">
         <v>1678</v>
       </c>
-      <c r="M549" s="1" t="s">
-        <v>1580</v>
-      </c>
-      <c r="O549" s="1" t="s">
+      <c r="P549" s="1" t="s">
         <v>1680</v>
-      </c>
-      <c r="P549" s="1" t="s">
-        <v>1682</v>
       </c>
     </row>
     <row r="550" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A550" t="str">
         <f t="shared" si="6"/>
-        <v>v8_t6_nfmccl_zzc</v>
+        <v>v8_t6_nfmccl_zmc</v>
       </c>
       <c r="E550" s="1" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="F550" t="s">
         <v>1569</v>
       </c>
       <c r="G550" t="s">
-        <v>1654</v>
+        <v>1652</v>
       </c>
       <c r="H550" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
       <c r="I550" t="s">
-        <v>1592</v>
+        <v>1589</v>
       </c>
       <c r="J550" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K550" s="1" t="s">
-        <v>1640</v>
+        <v>1638</v>
       </c>
       <c r="L550" s="1" t="s">
+        <v>1676</v>
+      </c>
+      <c r="M550" s="1" t="s">
+        <v>1579</v>
+      </c>
+      <c r="O550" s="1" t="s">
         <v>1678</v>
       </c>
-      <c r="M550" s="1" t="s">
-        <v>1581</v>
-      </c>
-      <c r="O550" s="1" t="s">
+      <c r="P550" s="1" t="s">
         <v>1680</v>
-      </c>
-      <c r="P550" s="1" t="s">
-        <v>1682</v>
       </c>
     </row>
     <row r="551" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A551" t="str">
         <f t="shared" si="6"/>
-        <v>v8_t6_nfmccl_zyc</v>
+        <v>v8_t6_nfmccl_zzc</v>
       </c>
       <c r="E551" s="1" t="s">
         <v>1674</v>
@@ -27896,466 +27894,466 @@
         <v>1569</v>
       </c>
       <c r="G551" t="s">
-        <v>1654</v>
+        <v>1652</v>
       </c>
       <c r="H551" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
       <c r="I551" t="s">
-        <v>1593</v>
+        <v>1590</v>
       </c>
       <c r="J551" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K551" s="1" t="s">
-        <v>1640</v>
+        <v>1638</v>
       </c>
       <c r="L551" s="1" t="s">
+        <v>1676</v>
+      </c>
+      <c r="M551" s="1" t="s">
+        <v>1580</v>
+      </c>
+      <c r="O551" s="1" t="s">
         <v>1678</v>
       </c>
-      <c r="M551" s="1" t="s">
-        <v>1582</v>
-      </c>
-      <c r="O551" s="1" t="s">
+      <c r="P551" s="1" t="s">
         <v>1680</v>
-      </c>
-      <c r="P551" s="1" t="s">
-        <v>1682</v>
       </c>
     </row>
     <row r="552" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A552" t="str">
         <f t="shared" si="6"/>
-        <v>v8_t6_nfmccl_zmyc</v>
+        <v>v8_t6_nfmccl_zyc</v>
       </c>
       <c r="E552" s="1" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
       <c r="F552" t="s">
         <v>1569</v>
       </c>
       <c r="G552" t="s">
-        <v>1654</v>
+        <v>1652</v>
       </c>
       <c r="H552" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
       <c r="I552" t="s">
-        <v>1594</v>
+        <v>1591</v>
       </c>
       <c r="J552" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K552" s="1" t="s">
-        <v>1640</v>
+        <v>1638</v>
       </c>
       <c r="L552" s="1" t="s">
+        <v>1676</v>
+      </c>
+      <c r="M552" s="1" t="s">
+        <v>1581</v>
+      </c>
+      <c r="O552" s="1" t="s">
         <v>1678</v>
       </c>
-      <c r="M552" s="1" t="s">
-        <v>1583</v>
-      </c>
-      <c r="O552" s="1" t="s">
+      <c r="P552" s="1" t="s">
         <v>1680</v>
-      </c>
-      <c r="P552" s="1" t="s">
-        <v>1682</v>
       </c>
     </row>
     <row r="553" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A553" t="str">
         <f t="shared" si="6"/>
-        <v>v8_t6_nfmccl_zxmyc</v>
+        <v>v8_t6_nfmccl_zmyc</v>
       </c>
       <c r="E553" s="1" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
       <c r="F553" t="s">
         <v>1569</v>
       </c>
       <c r="G553" t="s">
-        <v>1655</v>
+        <v>1652</v>
       </c>
       <c r="H553" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
       <c r="I553" t="s">
-        <v>1595</v>
+        <v>1592</v>
       </c>
       <c r="J553" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K553" s="1" t="s">
-        <v>1641</v>
+        <v>1638</v>
       </c>
       <c r="L553" s="1" t="s">
+        <v>1676</v>
+      </c>
+      <c r="M553" s="1" t="s">
+        <v>1682</v>
+      </c>
+      <c r="O553" s="1" t="s">
         <v>1678</v>
       </c>
-      <c r="M553" s="1" t="s">
-        <v>1584</v>
-      </c>
-      <c r="O553" s="1" t="s">
+      <c r="P553" s="1" t="s">
         <v>1680</v>
-      </c>
-      <c r="P553" s="1" t="s">
-        <v>1682</v>
       </c>
     </row>
     <row r="554" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A554" t="str">
         <f t="shared" si="6"/>
-        <v>v8_t7_nfmccl_zsyc</v>
+        <v>v8_t6_nfmccl_zxmyc</v>
       </c>
       <c r="E554" s="1" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
       <c r="F554" t="s">
         <v>1569</v>
       </c>
       <c r="G554" t="s">
-        <v>1656</v>
+        <v>1653</v>
       </c>
       <c r="H554" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
       <c r="I554" t="s">
-        <v>1596</v>
+        <v>1593</v>
       </c>
       <c r="J554" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K554" s="1" t="s">
-        <v>1675</v>
+        <v>1639</v>
       </c>
       <c r="L554" s="1" t="s">
+        <v>1676</v>
+      </c>
+      <c r="M554" s="1" t="s">
+        <v>1582</v>
+      </c>
+      <c r="O554" s="1" t="s">
         <v>1678</v>
       </c>
-      <c r="M554" s="1" t="s">
-        <v>1585</v>
-      </c>
-      <c r="O554" s="1" t="s">
+      <c r="P554" s="1" t="s">
         <v>1680</v>
-      </c>
-      <c r="P554" s="1" t="s">
-        <v>1682</v>
       </c>
     </row>
     <row r="555" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A555" t="str">
         <f t="shared" si="6"/>
-        <v>v8_t7_nfmccl_zmsyc</v>
+        <v>v8_t7_nfmccl_zsyc</v>
       </c>
       <c r="E555" s="1" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
       <c r="F555" t="s">
         <v>1569</v>
       </c>
       <c r="G555" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="H555" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
       <c r="I555" t="s">
-        <v>1597</v>
+        <v>1594</v>
       </c>
       <c r="J555" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K555" s="1" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="L555" s="1" t="s">
+        <v>1676</v>
+      </c>
+      <c r="M555" s="1" t="s">
+        <v>1583</v>
+      </c>
+      <c r="O555" s="1" t="s">
         <v>1678</v>
       </c>
-      <c r="M555" s="1" t="s">
-        <v>1586</v>
-      </c>
-      <c r="O555" s="1" t="s">
+      <c r="P555" s="1" t="s">
         <v>1680</v>
-      </c>
-      <c r="P555" s="1" t="s">
-        <v>1682</v>
       </c>
     </row>
     <row r="556" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A556" t="str">
-        <f t="shared" ref="A556:A582" si="7">F556&amp;"_"&amp;G556&amp;"_"&amp;H556&amp;"_"&amp;I556</f>
-        <v>v8_t7_cczcq_znc</v>
+        <f t="shared" si="6"/>
+        <v>v8_t7_nfmccl_zmsyc</v>
       </c>
       <c r="E556" s="1" t="s">
-        <v>1676</v>
+        <v>1672</v>
       </c>
       <c r="F556" t="s">
         <v>1569</v>
       </c>
       <c r="G556" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="H556" t="s">
-        <v>1657</v>
+        <v>1651</v>
       </c>
       <c r="I556" t="s">
-        <v>1587</v>
+        <v>1595</v>
       </c>
       <c r="J556" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K556" s="1" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="L556" s="1" t="s">
-        <v>1662</v>
+        <v>1676</v>
       </c>
       <c r="M556" s="1" t="s">
-        <v>1576</v>
+        <v>1584</v>
       </c>
       <c r="O556" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="P556" s="1" t="s">
         <v>1680</v>
-      </c>
-      <c r="P556" s="1" t="s">
-        <v>1682</v>
       </c>
     </row>
     <row r="557" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A557" t="str">
-        <f t="shared" si="7"/>
-        <v>v8_t7_cczcq_znnc</v>
+        <f t="shared" ref="A557:A583" si="7">F557&amp;"_"&amp;G557&amp;"_"&amp;H557&amp;"_"&amp;I557</f>
+        <v>v8_t7_cczcq_znc</v>
       </c>
       <c r="E557" s="1" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="F557" t="s">
         <v>1569</v>
       </c>
       <c r="G557" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="H557" t="s">
-        <v>1657</v>
+        <v>1655</v>
       </c>
       <c r="I557" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="J557" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K557" s="1" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="L557" s="1" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
       <c r="M557" s="1" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="O557" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="P557" s="1" t="s">
         <v>1680</v>
-      </c>
-      <c r="P557" s="1" t="s">
-        <v>1682</v>
       </c>
     </row>
     <row r="558" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A558" t="str">
         <f t="shared" si="7"/>
-        <v>v8_t7_cczcq_zrnc</v>
+        <v>v8_t7_cczcq_znnc</v>
       </c>
       <c r="E558" s="1" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="F558" t="s">
         <v>1569</v>
       </c>
       <c r="G558" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="H558" t="s">
-        <v>1657</v>
+        <v>1655</v>
       </c>
       <c r="I558" t="s">
-        <v>1637</v>
+        <v>1586</v>
       </c>
       <c r="J558" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K558" s="1" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="L558" s="1" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
       <c r="M558" s="1" t="s">
-        <v>1636</v>
+        <v>1577</v>
       </c>
       <c r="O558" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="P558" s="1" t="s">
         <v>1680</v>
-      </c>
-      <c r="P558" s="1" t="s">
-        <v>1682</v>
       </c>
     </row>
     <row r="559" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A559" t="str">
         <f t="shared" si="7"/>
-        <v>v8_t7_cczcq_zsnc</v>
+        <v>v8_t7_cczcq_zrnc</v>
       </c>
       <c r="E559" s="1" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="F559" t="s">
         <v>1569</v>
       </c>
       <c r="G559" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="H559" t="s">
-        <v>1657</v>
+        <v>1655</v>
       </c>
       <c r="I559" t="s">
-        <v>1589</v>
+        <v>1635</v>
       </c>
       <c r="J559" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K559" s="1" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="L559" s="1" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
       <c r="M559" s="1" t="s">
-        <v>1578</v>
+        <v>1634</v>
       </c>
       <c r="O559" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="P559" s="1" t="s">
         <v>1680</v>
-      </c>
-      <c r="P559" s="1" t="s">
-        <v>1682</v>
       </c>
     </row>
     <row r="560" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A560" t="str">
         <f t="shared" si="7"/>
-        <v>v8_t7_cczcq_zhnc</v>
+        <v>v8_t7_cczcq_zsnc</v>
       </c>
       <c r="E560" s="1" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="F560" t="s">
         <v>1569</v>
       </c>
       <c r="G560" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="H560" t="s">
-        <v>1657</v>
+        <v>1655</v>
       </c>
       <c r="I560" t="s">
-        <v>1590</v>
+        <v>1587</v>
       </c>
       <c r="J560" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K560" s="1" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="L560" s="1" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
       <c r="M560" s="1" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="O560" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="P560" s="1" t="s">
         <v>1680</v>
-      </c>
-      <c r="P560" s="1" t="s">
-        <v>1682</v>
       </c>
     </row>
     <row r="561" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A561" t="str">
         <f t="shared" si="7"/>
-        <v>v8_t7_cczcq_zmc</v>
+        <v>v8_t7_cczcq_zhnc</v>
       </c>
       <c r="E561" s="1" t="s">
-        <v>1677</v>
+        <v>1674</v>
       </c>
       <c r="F561" t="s">
         <v>1569</v>
       </c>
       <c r="G561" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="H561" t="s">
-        <v>1657</v>
+        <v>1655</v>
       </c>
       <c r="I561" t="s">
-        <v>1591</v>
+        <v>1588</v>
       </c>
       <c r="J561" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K561" s="1" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="L561" s="1" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
       <c r="M561" s="1" t="s">
-        <v>1580</v>
+        <v>1681</v>
       </c>
       <c r="O561" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="P561" s="1" t="s">
         <v>1680</v>
-      </c>
-      <c r="P561" s="1" t="s">
-        <v>1682</v>
       </c>
     </row>
     <row r="562" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A562" t="str">
         <f t="shared" si="7"/>
-        <v>v8_t7_cczcq_zzc</v>
+        <v>v8_t7_cczcq_zmc</v>
       </c>
       <c r="E562" s="1" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="F562" t="s">
         <v>1569</v>
       </c>
       <c r="G562" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="H562" t="s">
-        <v>1657</v>
+        <v>1655</v>
       </c>
       <c r="I562" t="s">
-        <v>1592</v>
+        <v>1589</v>
       </c>
       <c r="J562" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K562" s="1" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="L562" s="1" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
       <c r="M562" s="1" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
       <c r="O562" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="P562" s="1" t="s">
         <v>1680</v>
-      </c>
-      <c r="P562" s="1" t="s">
-        <v>1682</v>
       </c>
     </row>
     <row r="563" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A563" t="str">
         <f t="shared" si="7"/>
-        <v>v8_t7_cczcq_zyc</v>
+        <v>v8_t7_cczcq_zzc</v>
       </c>
       <c r="E563" s="1" t="s">
         <v>1674</v>
@@ -28364,271 +28362,271 @@
         <v>1569</v>
       </c>
       <c r="G563" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="H563" t="s">
-        <v>1657</v>
+        <v>1655</v>
       </c>
       <c r="I563" t="s">
-        <v>1593</v>
+        <v>1590</v>
       </c>
       <c r="J563" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K563" s="1" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="L563" s="1" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
       <c r="M563" s="1" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="O563" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="P563" s="1" t="s">
         <v>1680</v>
-      </c>
-      <c r="P563" s="1" t="s">
-        <v>1682</v>
       </c>
     </row>
     <row r="564" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A564" t="str">
         <f t="shared" si="7"/>
-        <v>v8_t7_cczcq_zmyc</v>
+        <v>v8_t7_cczcq_zyc</v>
       </c>
       <c r="E564" s="1" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
       <c r="F564" t="s">
         <v>1569</v>
       </c>
       <c r="G564" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="H564" t="s">
-        <v>1657</v>
+        <v>1655</v>
       </c>
       <c r="I564" t="s">
-        <v>1594</v>
+        <v>1591</v>
       </c>
       <c r="J564" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K564" s="1" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="L564" s="1" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
       <c r="M564" s="1" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="O564" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="P564" s="1" t="s">
         <v>1680</v>
-      </c>
-      <c r="P564" s="1" t="s">
-        <v>1682</v>
       </c>
     </row>
     <row r="565" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A565" t="str">
         <f t="shared" si="7"/>
-        <v>v8_t7_cczcq_zxmyc</v>
+        <v>v8_t7_cczcq_zmyc</v>
       </c>
       <c r="E565" s="1" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
       <c r="F565" t="s">
         <v>1569</v>
       </c>
       <c r="G565" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="H565" t="s">
-        <v>1657</v>
+        <v>1655</v>
       </c>
       <c r="I565" t="s">
-        <v>1595</v>
+        <v>1592</v>
       </c>
       <c r="J565" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K565" s="1" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="L565" s="1" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
       <c r="M565" s="1" t="s">
-        <v>1584</v>
+        <v>1682</v>
       </c>
       <c r="O565" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="P565" s="1" t="s">
         <v>1680</v>
-      </c>
-      <c r="P565" s="1" t="s">
-        <v>1682</v>
       </c>
     </row>
     <row r="566" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A566" t="str">
         <f t="shared" si="7"/>
-        <v>v8_t8_cczcq_zsyc</v>
+        <v>v8_t7_cczcq_zxmyc</v>
       </c>
       <c r="E566" s="1" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
       <c r="F566" t="s">
         <v>1569</v>
       </c>
       <c r="G566" t="s">
-        <v>1659</v>
+        <v>1654</v>
       </c>
       <c r="H566" t="s">
-        <v>1657</v>
+        <v>1655</v>
       </c>
       <c r="I566" t="s">
-        <v>1596</v>
+        <v>1593</v>
       </c>
       <c r="J566" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K566" s="1" t="s">
-        <v>1661</v>
+        <v>1673</v>
       </c>
       <c r="L566" s="1" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
       <c r="M566" s="1" t="s">
-        <v>1585</v>
+        <v>1582</v>
       </c>
       <c r="O566" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="P566" s="1" t="s">
         <v>1680</v>
-      </c>
-      <c r="P566" s="1" t="s">
-        <v>1682</v>
       </c>
     </row>
     <row r="567" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A567" t="str">
         <f t="shared" si="7"/>
-        <v>v8_t8_cczcq_zmsyc</v>
+        <v>v8_t8_cczcq_zsyc</v>
       </c>
       <c r="E567" s="1" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
       <c r="F567" t="s">
         <v>1569</v>
       </c>
       <c r="G567" t="s">
-        <v>1659</v>
+        <v>1657</v>
       </c>
       <c r="H567" t="s">
-        <v>1657</v>
+        <v>1655</v>
       </c>
       <c r="I567" t="s">
-        <v>1597</v>
+        <v>1594</v>
       </c>
       <c r="J567" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K567" s="1" t="s">
-        <v>1661</v>
+        <v>1659</v>
       </c>
       <c r="L567" s="1" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
       <c r="M567" s="1" t="s">
-        <v>1586</v>
+        <v>1583</v>
       </c>
       <c r="O567" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="P567" s="1" t="s">
         <v>1680</v>
-      </c>
-      <c r="P567" s="1" t="s">
-        <v>1682</v>
       </c>
     </row>
     <row r="568" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A568" t="str">
         <f t="shared" si="7"/>
-        <v>v8_t8_cczcq_zdjysdjc</v>
+        <v>v8_t8_cczcq_zmsyc</v>
       </c>
       <c r="E568" s="1" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="F568" t="s">
         <v>1569</v>
       </c>
       <c r="G568" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="H568" t="s">
-        <v>1657</v>
+        <v>1655</v>
       </c>
       <c r="I568" t="s">
-        <v>1612</v>
+        <v>1595</v>
       </c>
       <c r="J568" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K568" s="1" t="s">
+        <v>1659</v>
+      </c>
+      <c r="L568" s="1" t="s">
         <v>1660</v>
       </c>
-      <c r="L568" s="1" t="s">
-        <v>1662</v>
-      </c>
       <c r="M568" s="1" t="s">
-        <v>1600</v>
+        <v>1584</v>
       </c>
       <c r="O568" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="P568" s="1" t="s">
         <v>1680</v>
-      </c>
-      <c r="P568" s="1" t="s">
-        <v>1682</v>
       </c>
     </row>
     <row r="569" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A569" t="str">
         <f t="shared" si="7"/>
-        <v>v8_t8_cczcq_zdjysrjc</v>
+        <v>v8_t8_cczcq_zdjysdjc</v>
       </c>
       <c r="E569" s="1" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
       <c r="F569" t="s">
         <v>1569</v>
       </c>
       <c r="G569" t="s">
-        <v>1658</v>
+        <v>1656</v>
       </c>
       <c r="H569" t="s">
-        <v>1657</v>
+        <v>1655</v>
       </c>
       <c r="I569" t="s">
-        <v>1615</v>
+        <v>1610</v>
       </c>
       <c r="J569" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K569" s="1" t="s">
+        <v>1658</v>
+      </c>
+      <c r="L569" s="1" t="s">
         <v>1660</v>
       </c>
-      <c r="L569" s="1" t="s">
-        <v>1662</v>
-      </c>
       <c r="M569" s="1" t="s">
-        <v>1603</v>
+        <v>1598</v>
       </c>
       <c r="O569" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="P569" s="1" t="s">
         <v>1680</v>
-      </c>
-      <c r="P569" s="1" t="s">
-        <v>1682</v>
       </c>
     </row>
     <row r="570" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A570" t="str">
         <f t="shared" si="7"/>
-        <v>v8_t8_scpt_znc</v>
+        <v>v8_t8_cczcq_zdjysrjc</v>
       </c>
       <c r="E570" s="1" t="s">
         <v>1671</v>
@@ -28637,504 +28635,539 @@
         <v>1569</v>
       </c>
       <c r="G570" t="s">
-        <v>1658</v>
+        <v>1656</v>
       </c>
       <c r="H570" t="s">
-        <v>1668</v>
+        <v>1655</v>
       </c>
       <c r="I570" t="s">
-        <v>1587</v>
+        <v>1613</v>
       </c>
       <c r="J570" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K570" s="1" t="s">
+        <v>1658</v>
+      </c>
+      <c r="L570" s="1" t="s">
         <v>1660</v>
       </c>
-      <c r="L570" s="1" t="s">
-        <v>1663</v>
-      </c>
       <c r="M570" s="1" t="s">
-        <v>1576</v>
+        <v>1601</v>
       </c>
       <c r="O570" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="P570" s="1" t="s">
         <v>1680</v>
-      </c>
-      <c r="P570" s="1" t="s">
-        <v>1682</v>
       </c>
     </row>
     <row r="571" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A571" t="str">
         <f t="shared" si="7"/>
-        <v>v8_t8_scpt_znnc</v>
+        <v>v8_t8_scpt_znc</v>
       </c>
       <c r="E571" s="1" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
       <c r="F571" t="s">
         <v>1569</v>
       </c>
       <c r="G571" t="s">
-        <v>1658</v>
+        <v>1656</v>
       </c>
       <c r="H571" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
       <c r="I571" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="J571" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K571" s="1" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
       <c r="L571" s="1" t="s">
-        <v>1663</v>
+        <v>1661</v>
       </c>
       <c r="M571" s="1" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="O571" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="P571" s="1" t="s">
         <v>1680</v>
-      </c>
-      <c r="P571" s="1" t="s">
-        <v>1682</v>
       </c>
     </row>
     <row r="572" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A572" t="str">
         <f t="shared" si="7"/>
-        <v>v8_t8_scpt_zrnc</v>
+        <v>v8_t8_scpt_znnc</v>
       </c>
       <c r="E572" s="1" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
       <c r="F572" t="s">
         <v>1569</v>
       </c>
       <c r="G572" t="s">
-        <v>1658</v>
+        <v>1656</v>
       </c>
       <c r="H572" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
       <c r="I572" t="s">
-        <v>1637</v>
+        <v>1586</v>
       </c>
       <c r="J572" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K572" s="1" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
       <c r="L572" s="1" t="s">
-        <v>1663</v>
+        <v>1661</v>
       </c>
       <c r="M572" s="1" t="s">
-        <v>1636</v>
+        <v>1577</v>
       </c>
       <c r="O572" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="P572" s="1" t="s">
         <v>1680</v>
-      </c>
-      <c r="P572" s="1" t="s">
-        <v>1682</v>
       </c>
     </row>
     <row r="573" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A573" t="str">
         <f t="shared" si="7"/>
-        <v>v8_t8_scpt_zsnc</v>
+        <v>v8_t8_scpt_zrnc</v>
       </c>
       <c r="E573" s="1" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
       <c r="F573" t="s">
         <v>1569</v>
       </c>
       <c r="G573" t="s">
-        <v>1658</v>
+        <v>1656</v>
       </c>
       <c r="H573" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
       <c r="I573" t="s">
-        <v>1589</v>
+        <v>1635</v>
       </c>
       <c r="J573" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K573" s="1" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
       <c r="L573" s="1" t="s">
-        <v>1663</v>
+        <v>1661</v>
       </c>
       <c r="M573" s="1" t="s">
-        <v>1578</v>
+        <v>1634</v>
       </c>
       <c r="O573" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="P573" s="1" t="s">
         <v>1680</v>
-      </c>
-      <c r="P573" s="1" t="s">
-        <v>1682</v>
       </c>
     </row>
     <row r="574" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A574" t="str">
         <f t="shared" si="7"/>
-        <v>v8_t8_scpt_zhnc</v>
+        <v>v8_t8_scpt_zsnc</v>
       </c>
       <c r="E574" s="1" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
       <c r="F574" t="s">
         <v>1569</v>
       </c>
       <c r="G574" t="s">
-        <v>1658</v>
+        <v>1656</v>
       </c>
       <c r="H574" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
       <c r="I574" t="s">
-        <v>1590</v>
+        <v>1587</v>
       </c>
       <c r="J574" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K574" s="1" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
       <c r="L574" s="1" t="s">
-        <v>1663</v>
+        <v>1661</v>
       </c>
       <c r="M574" s="1" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="O574" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="P574" s="1" t="s">
         <v>1680</v>
-      </c>
-      <c r="P574" s="1" t="s">
-        <v>1682</v>
       </c>
     </row>
     <row r="575" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A575" t="str">
         <f t="shared" si="7"/>
-        <v>v8_t9_scpt_zyc</v>
+        <v>v8_t8_scpt_zhnc</v>
       </c>
       <c r="E575" s="1" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
       <c r="F575" t="s">
         <v>1569</v>
       </c>
       <c r="G575" t="s">
-        <v>1667</v>
+        <v>1656</v>
       </c>
       <c r="H575" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
       <c r="I575" t="s">
-        <v>1593</v>
+        <v>1588</v>
       </c>
       <c r="J575" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K575" s="1" t="s">
-        <v>1665</v>
+        <v>1658</v>
       </c>
       <c r="L575" s="1" t="s">
-        <v>1663</v>
+        <v>1661</v>
       </c>
       <c r="M575" s="1" t="s">
-        <v>1582</v>
+        <v>1681</v>
       </c>
       <c r="O575" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="P575" s="1" t="s">
         <v>1680</v>
-      </c>
-      <c r="P575" s="1" t="s">
-        <v>1682</v>
       </c>
     </row>
     <row r="576" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A576" t="str">
         <f t="shared" si="7"/>
-        <v>v8_t9_scpt_zmyc</v>
+        <v>v8_t9_scpt_zyc</v>
       </c>
       <c r="E576" s="1" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
       <c r="F576" t="s">
         <v>1569</v>
       </c>
       <c r="G576" t="s">
-        <v>1667</v>
+        <v>1665</v>
       </c>
       <c r="H576" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
       <c r="I576" t="s">
-        <v>1594</v>
+        <v>1591</v>
       </c>
       <c r="J576" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K576" s="1" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
       <c r="L576" s="1" t="s">
-        <v>1663</v>
+        <v>1661</v>
       </c>
       <c r="M576" s="1" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="O576" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="P576" s="1" t="s">
         <v>1680</v>
-      </c>
-      <c r="P576" s="1" t="s">
-        <v>1682</v>
       </c>
     </row>
     <row r="577" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A577" t="str">
         <f t="shared" si="7"/>
-        <v>v8_t9_scpt_zxmyc</v>
+        <v>v8_t9_scpt_zmyc</v>
       </c>
       <c r="E577" s="1" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
       <c r="F577" t="s">
         <v>1569</v>
       </c>
       <c r="G577" t="s">
+        <v>1665</v>
+      </c>
+      <c r="H577" t="s">
         <v>1666</v>
       </c>
-      <c r="H577" t="s">
-        <v>1668</v>
-      </c>
       <c r="I577" t="s">
-        <v>1595</v>
+        <v>1592</v>
       </c>
       <c r="J577" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K577" s="1" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="L577" s="1" t="s">
-        <v>1663</v>
+        <v>1661</v>
       </c>
       <c r="M577" s="1" t="s">
-        <v>1584</v>
+        <v>1682</v>
       </c>
       <c r="O577" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="P577" s="1" t="s">
         <v>1680</v>
-      </c>
-      <c r="P577" s="1" t="s">
-        <v>1682</v>
       </c>
     </row>
     <row r="578" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A578" t="str">
         <f t="shared" si="7"/>
-        <v>v8_t9_scpt_zsyc</v>
+        <v>v8_t9_scpt_zxmyc</v>
       </c>
       <c r="E578" s="1" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
       <c r="F578" t="s">
         <v>1569</v>
       </c>
       <c r="G578" t="s">
+        <v>1664</v>
+      </c>
+      <c r="H578" t="s">
         <v>1666</v>
       </c>
-      <c r="H578" t="s">
-        <v>1668</v>
-      </c>
       <c r="I578" t="s">
-        <v>1596</v>
+        <v>1593</v>
       </c>
       <c r="J578" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K578" s="1" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
       <c r="L578" s="1" t="s">
-        <v>1663</v>
+        <v>1661</v>
       </c>
       <c r="M578" s="1" t="s">
-        <v>1585</v>
+        <v>1582</v>
       </c>
       <c r="O578" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="P578" s="1" t="s">
         <v>1680</v>
-      </c>
-      <c r="P578" s="1" t="s">
-        <v>1682</v>
       </c>
     </row>
     <row r="579" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A579" t="str">
         <f t="shared" si="7"/>
-        <v>v8_t9_scpt_zmsyc</v>
+        <v>v8_t9_scpt_zsyc</v>
       </c>
       <c r="E579" s="1" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
       <c r="F579" t="s">
         <v>1569</v>
       </c>
       <c r="G579" t="s">
+        <v>1664</v>
+      </c>
+      <c r="H579" t="s">
         <v>1666</v>
       </c>
-      <c r="H579" t="s">
-        <v>1668</v>
-      </c>
       <c r="I579" t="s">
-        <v>1597</v>
+        <v>1594</v>
       </c>
       <c r="J579" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K579" s="1" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
       <c r="L579" s="1" t="s">
-        <v>1663</v>
+        <v>1661</v>
       </c>
       <c r="M579" s="1" t="s">
-        <v>1586</v>
+        <v>1583</v>
       </c>
       <c r="O579" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="P579" s="1" t="s">
         <v>1680</v>
-      </c>
-      <c r="P579" s="1" t="s">
-        <v>1682</v>
       </c>
     </row>
     <row r="580" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A580" t="str">
         <f t="shared" si="7"/>
-        <v>v8_t9_scjy_zgnz</v>
+        <v>v8_t9_scpt_zmsyc</v>
       </c>
       <c r="E580" s="1" t="s">
-        <v>1672</v>
+        <v>1669</v>
       </c>
       <c r="F580" t="s">
         <v>1569</v>
       </c>
       <c r="G580" t="s">
+        <v>1664</v>
+      </c>
+      <c r="H580" t="s">
         <v>1666</v>
       </c>
-      <c r="H580" t="s">
-        <v>1509</v>
-      </c>
       <c r="I580" t="s">
-        <v>1632</v>
+        <v>1595</v>
       </c>
       <c r="J580" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K580" s="1" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
       <c r="L580" s="1" t="s">
-        <v>1669</v>
+        <v>1661</v>
       </c>
       <c r="M580" s="1" t="s">
-        <v>1628</v>
+        <v>1584</v>
       </c>
       <c r="O580" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="P580" s="1" t="s">
         <v>1680</v>
-      </c>
-      <c r="P580" s="1" t="s">
-        <v>1682</v>
       </c>
     </row>
     <row r="581" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A581" t="str">
         <f t="shared" si="7"/>
-        <v>v8_t9_scjy_zsyz</v>
+        <v>v8_t9_scjy_zgnz</v>
       </c>
       <c r="E581" s="1" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
       <c r="F581" t="s">
         <v>1569</v>
       </c>
       <c r="G581" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
       <c r="H581" t="s">
         <v>1509</v>
       </c>
       <c r="I581" t="s">
-        <v>1670</v>
+        <v>1630</v>
       </c>
       <c r="J581" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K581" s="1" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
       <c r="L581" s="1" t="s">
-        <v>1669</v>
+        <v>1667</v>
       </c>
       <c r="M581" s="1" t="s">
-        <v>1629</v>
+        <v>1626</v>
       </c>
       <c r="O581" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="P581" s="1" t="s">
         <v>1680</v>
-      </c>
-      <c r="P581" s="1" t="s">
-        <v>1682</v>
       </c>
     </row>
     <row r="582" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A582" t="str">
         <f t="shared" si="7"/>
-        <v>v8_t9_scjy_zgzz</v>
+        <v>v8_t9_scjy_zsyz</v>
       </c>
       <c r="E582" s="1" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
       <c r="F582" t="s">
         <v>1569</v>
       </c>
       <c r="G582" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
       <c r="H582" t="s">
         <v>1509</v>
       </c>
       <c r="I582" t="s">
-        <v>1634</v>
+        <v>1668</v>
       </c>
       <c r="J582" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K582" s="1" t="s">
+        <v>1662</v>
+      </c>
+      <c r="L582" s="1" t="s">
+        <v>1667</v>
+      </c>
+      <c r="M582" s="1" t="s">
+        <v>1627</v>
+      </c>
+      <c r="O582" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="P582" s="1" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="583" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A583" t="str">
+        <f t="shared" si="7"/>
+        <v>v8_t9_scjy_zgzz</v>
+      </c>
+      <c r="E583" s="1" t="s">
+        <v>1670</v>
+      </c>
+      <c r="F583" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G583" t="s">
         <v>1664</v>
       </c>
-      <c r="L582" s="1" t="s">
-        <v>1669</v>
-      </c>
-      <c r="M582" s="1" t="s">
-        <v>1630</v>
-      </c>
-      <c r="O582" s="1" t="s">
+      <c r="H583" t="s">
+        <v>1509</v>
+      </c>
+      <c r="I583" t="s">
+        <v>1632</v>
+      </c>
+      <c r="J583" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="K583" s="1" t="s">
+        <v>1662</v>
+      </c>
+      <c r="L583" s="1" t="s">
+        <v>1667</v>
+      </c>
+      <c r="M583" s="1" t="s">
+        <v>1628</v>
+      </c>
+      <c r="O583" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="P583" s="1" t="s">
         <v>1680</v>
       </c>
-      <c r="P582" s="1" t="s">
-        <v>1682</v>
-      </c>
-    </row>
-    <row r="583" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K583" s="1"/>
-      <c r="L583" s="1"/>
     </row>
     <row r="584" spans="1:16" x14ac:dyDescent="0.25">
       <c r="K584" s="1"/>
@@ -29167,6 +29200,10 @@
     <row r="591" spans="1:16" x14ac:dyDescent="0.25">
       <c r="K591" s="1"/>
       <c r="L591" s="1"/>
+    </row>
+    <row r="592" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K592" s="1"/>
+      <c r="L592" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data-raw/varsList.xlsx
+++ b/data-raw/varsList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\techme\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E01A328-181F-4A83-9E9E-16492F68029D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A634E9C7-ED84-493C-8F6A-5883782C0653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3225" yWindow="8002" windowWidth="20715" windowHeight="13425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-195" yWindow="-195" windowWidth="29190" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6820" uniqueCount="1684">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6864" uniqueCount="1685">
   <si>
     <t>variables</t>
   </si>
@@ -5559,10 +5559,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>znnc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>zsnc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5927,6 +5923,14 @@
   </si>
   <si>
     <t>种乳牛场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>znnc1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>znnc2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6401,11 +6405,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P592"/>
+  <dimension ref="A1:P596"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A482" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I494" sqref="I494"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A548" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H552" sqref="H552"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25519,7 +25523,7 @@
         <v>1570</v>
       </c>
       <c r="G490" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="H490" t="s">
         <v>1571</v>
@@ -25531,7 +25535,7 @@
         <v>1573</v>
       </c>
       <c r="K490" s="1" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="L490" s="1" t="s">
         <v>1574</v>
@@ -25540,10 +25544,10 @@
         <v>1575</v>
       </c>
       <c r="O490" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="P490" s="1" t="s">
         <v>1679</v>
-      </c>
-      <c r="P490" s="1" t="s">
-        <v>1680</v>
       </c>
     </row>
     <row r="491" spans="1:16" x14ac:dyDescent="0.25">
@@ -25558,7 +25562,7 @@
         <v>1570</v>
       </c>
       <c r="G491" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="H491" t="s">
         <v>1571</v>
@@ -25570,7 +25574,7 @@
         <v>1573</v>
       </c>
       <c r="K491" s="1" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="L491" s="1" t="s">
         <v>1574</v>
@@ -25579,17 +25583,13 @@
         <v>1576</v>
       </c>
       <c r="O491" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="P491" s="1" t="s">
         <v>1679</v>
       </c>
-      <c r="P491" s="1" t="s">
-        <v>1680</v>
-      </c>
     </row>
     <row r="492" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A492" t="str">
-        <f t="shared" ref="A492:A556" si="6">F492&amp;"_"&amp;G492&amp;"_"&amp;H492&amp;"_"&amp;I492</f>
-        <v>v8_t1_zcqc_znnc</v>
-      </c>
       <c r="E492" s="1" t="s">
         <v>1079</v>
       </c>
@@ -25597,34 +25597,38 @@
         <v>1569</v>
       </c>
       <c r="G492" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="H492" t="s">
         <v>1571</v>
       </c>
       <c r="I492" t="s">
-        <v>1586</v>
+        <v>1683</v>
       </c>
       <c r="J492" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K492" s="1" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="L492" s="1" t="s">
         <v>1574</v>
       </c>
       <c r="M492" s="1" t="s">
-        <v>1577</v>
+        <v>1682</v>
       </c>
       <c r="O492" s="1" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="P492" s="1" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="493" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A493" t="str">
+        <f t="shared" ref="A493:A558" si="6">F493&amp;"_"&amp;G493&amp;"_"&amp;H493&amp;"_"&amp;I493</f>
+        <v>v8_t1_zcqc_znnc2</v>
+      </c>
       <c r="E493" s="1" t="s">
         <v>1079</v>
       </c>
@@ -25632,31 +25636,31 @@
         <v>1569</v>
       </c>
       <c r="G493" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="H493" t="s">
         <v>1571</v>
       </c>
       <c r="I493" t="s">
-        <v>1635</v>
+        <v>1684</v>
       </c>
       <c r="J493" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K493" s="1" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="L493" s="1" t="s">
         <v>1574</v>
       </c>
       <c r="M493" s="1" t="s">
-        <v>1683</v>
+        <v>1577</v>
       </c>
       <c r="O493" s="1" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="P493" s="1" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="494" spans="1:16" x14ac:dyDescent="0.25">
@@ -25671,31 +25675,31 @@
         <v>1569</v>
       </c>
       <c r="G494" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="H494" t="s">
         <v>1571</v>
       </c>
       <c r="I494" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="J494" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K494" s="1" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="L494" s="1" t="s">
         <v>1574</v>
       </c>
       <c r="M494" s="1" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="O494" s="1" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="P494" s="1" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="495" spans="1:16" x14ac:dyDescent="0.25">
@@ -25710,19 +25714,19 @@
         <v>1569</v>
       </c>
       <c r="G495" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="H495" t="s">
         <v>1571</v>
       </c>
       <c r="I495" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="J495" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K495" s="1" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="L495" s="1" t="s">
         <v>1574</v>
@@ -25731,10 +25735,10 @@
         <v>1578</v>
       </c>
       <c r="O495" s="1" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="P495" s="1" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="496" spans="1:16" x14ac:dyDescent="0.25">
@@ -25749,31 +25753,31 @@
         <v>1569</v>
       </c>
       <c r="G496" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="H496" t="s">
         <v>1571</v>
       </c>
       <c r="I496" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="J496" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K496" s="1" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="L496" s="1" t="s">
         <v>1574</v>
       </c>
       <c r="M496" s="1" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="O496" s="1" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="P496" s="1" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="497" spans="1:16" x14ac:dyDescent="0.25">
@@ -25788,19 +25792,19 @@
         <v>1569</v>
       </c>
       <c r="G497" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="H497" t="s">
         <v>1571</v>
       </c>
       <c r="I497" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="J497" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K497" s="1" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="L497" s="1" t="s">
         <v>1574</v>
@@ -25809,10 +25813,10 @@
         <v>1579</v>
       </c>
       <c r="O497" s="1" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="P497" s="1" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="498" spans="1:16" x14ac:dyDescent="0.25">
@@ -25827,19 +25831,19 @@
         <v>1569</v>
       </c>
       <c r="G498" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="H498" t="s">
         <v>1571</v>
       </c>
       <c r="I498" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="J498" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K498" s="1" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="L498" s="1" t="s">
         <v>1574</v>
@@ -25848,10 +25852,10 @@
         <v>1580</v>
       </c>
       <c r="O498" s="1" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="P498" s="1" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="499" spans="1:16" x14ac:dyDescent="0.25">
@@ -25866,19 +25870,19 @@
         <v>1569</v>
       </c>
       <c r="G499" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="H499" t="s">
         <v>1571</v>
       </c>
       <c r="I499" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="J499" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K499" s="1" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="L499" s="1" t="s">
         <v>1574</v>
@@ -25887,10 +25891,10 @@
         <v>1581</v>
       </c>
       <c r="O499" s="1" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="P499" s="1" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="500" spans="1:16" x14ac:dyDescent="0.25">
@@ -25905,31 +25909,31 @@
         <v>1569</v>
       </c>
       <c r="G500" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="H500" t="s">
         <v>1571</v>
       </c>
       <c r="I500" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="J500" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K500" s="1" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="L500" s="1" t="s">
         <v>1574</v>
       </c>
       <c r="M500" s="1" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="O500" s="1" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="P500" s="1" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="501" spans="1:16" x14ac:dyDescent="0.25">
@@ -25944,19 +25948,19 @@
         <v>1569</v>
       </c>
       <c r="G501" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="H501" t="s">
         <v>1571</v>
       </c>
       <c r="I501" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="J501" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K501" s="1" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="L501" s="1" t="s">
         <v>1574</v>
@@ -25965,10 +25969,10 @@
         <v>1582</v>
       </c>
       <c r="O501" s="1" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="P501" s="1" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="502" spans="1:16" x14ac:dyDescent="0.25">
@@ -25983,19 +25987,19 @@
         <v>1569</v>
       </c>
       <c r="G502" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="H502" t="s">
         <v>1571</v>
       </c>
       <c r="I502" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="J502" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K502" s="1" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="L502" s="1" t="s">
         <v>1574</v>
@@ -26004,10 +26008,10 @@
         <v>1583</v>
       </c>
       <c r="O502" s="1" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="P502" s="1" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="503" spans="1:16" x14ac:dyDescent="0.25">
@@ -26022,19 +26026,19 @@
         <v>1569</v>
       </c>
       <c r="G503" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="H503" t="s">
         <v>1571</v>
       </c>
       <c r="I503" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="J503" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K503" s="1" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="L503" s="1" t="s">
         <v>1574</v>
@@ -26043,10 +26047,10 @@
         <v>1584</v>
       </c>
       <c r="O503" s="1" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="P503" s="1" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="504" spans="1:16" x14ac:dyDescent="0.25">
@@ -26061,31 +26065,31 @@
         <v>1569</v>
       </c>
       <c r="G504" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="H504" t="s">
         <v>1571</v>
       </c>
       <c r="I504" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="J504" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K504" s="1" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="L504" s="1" t="s">
         <v>1574</v>
       </c>
       <c r="M504" s="1" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="O504" s="1" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="P504" s="1" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="505" spans="1:16" x14ac:dyDescent="0.25">
@@ -26100,31 +26104,31 @@
         <v>1569</v>
       </c>
       <c r="G505" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="H505" t="s">
         <v>1571</v>
       </c>
       <c r="I505" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="J505" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K505" s="1" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="L505" s="1" t="s">
         <v>1574</v>
       </c>
       <c r="M505" s="1" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="O505" s="1" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="P505" s="1" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="506" spans="1:16" x14ac:dyDescent="0.25">
@@ -26139,31 +26143,31 @@
         <v>1569</v>
       </c>
       <c r="G506" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="H506" t="s">
         <v>1571</v>
       </c>
       <c r="I506" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="J506" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K506" s="1" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="L506" s="1" t="s">
         <v>1574</v>
       </c>
       <c r="M506" s="1" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="O506" s="1" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="P506" s="1" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="507" spans="1:16" x14ac:dyDescent="0.25">
@@ -26178,31 +26182,31 @@
         <v>1569</v>
       </c>
       <c r="G507" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="H507" t="s">
         <v>1571</v>
       </c>
       <c r="I507" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="J507" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K507" s="1" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="L507" s="1" t="s">
         <v>1574</v>
       </c>
       <c r="M507" s="1" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="O507" s="1" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="P507" s="1" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="508" spans="1:16" x14ac:dyDescent="0.25">
@@ -26217,31 +26221,31 @@
         <v>1569</v>
       </c>
       <c r="G508" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="H508" t="s">
         <v>1571</v>
       </c>
       <c r="I508" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="J508" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K508" s="1" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="L508" s="1" t="s">
         <v>1574</v>
       </c>
       <c r="M508" s="1" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="O508" s="1" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="P508" s="1" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="509" spans="1:16" x14ac:dyDescent="0.25">
@@ -26256,31 +26260,31 @@
         <v>1569</v>
       </c>
       <c r="G509" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="H509" t="s">
         <v>1571</v>
       </c>
       <c r="I509" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="J509" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K509" s="1" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="L509" s="1" t="s">
         <v>1574</v>
       </c>
       <c r="M509" s="1" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="O509" s="1" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="P509" s="1" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="510" spans="1:16" x14ac:dyDescent="0.25">
@@ -26295,31 +26299,31 @@
         <v>1569</v>
       </c>
       <c r="G510" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="H510" t="s">
         <v>1571</v>
       </c>
       <c r="I510" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="J510" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K510" s="1" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="L510" s="1" t="s">
         <v>1574</v>
       </c>
       <c r="M510" s="1" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="O510" s="1" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="P510" s="1" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="511" spans="1:16" x14ac:dyDescent="0.25">
@@ -26334,31 +26338,31 @@
         <v>1569</v>
       </c>
       <c r="G511" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="H511" t="s">
         <v>1571</v>
       </c>
       <c r="I511" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="J511" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K511" s="1" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="L511" s="1" t="s">
         <v>1574</v>
       </c>
       <c r="M511" s="1" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="O511" s="1" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="P511" s="1" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="512" spans="1:16" x14ac:dyDescent="0.25">
@@ -26373,31 +26377,31 @@
         <v>1569</v>
       </c>
       <c r="G512" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="H512" t="s">
         <v>1571</v>
       </c>
       <c r="I512" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="J512" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K512" s="1" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="L512" s="1" t="s">
         <v>1574</v>
       </c>
       <c r="M512" s="1" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="O512" s="1" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="P512" s="1" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="513" spans="1:16" x14ac:dyDescent="0.25">
@@ -26412,31 +26416,31 @@
         <v>1569</v>
       </c>
       <c r="G513" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="H513" t="s">
         <v>1571</v>
       </c>
       <c r="I513" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="J513" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K513" s="1" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="L513" s="1" t="s">
         <v>1574</v>
       </c>
       <c r="M513" s="1" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="O513" s="1" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="P513" s="1" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="514" spans="1:16" x14ac:dyDescent="0.25">
@@ -26451,31 +26455,31 @@
         <v>1569</v>
       </c>
       <c r="G514" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="H514" t="s">
         <v>1571</v>
       </c>
       <c r="I514" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="J514" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K514" s="1" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="L514" s="1" t="s">
         <v>1574</v>
       </c>
       <c r="M514" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="O514" s="1" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="P514" s="1" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="515" spans="1:16" x14ac:dyDescent="0.25">
@@ -26490,31 +26494,31 @@
         <v>1569</v>
       </c>
       <c r="G515" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="H515" t="s">
         <v>1571</v>
       </c>
       <c r="I515" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="J515" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K515" s="1" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="L515" s="1" t="s">
         <v>1574</v>
       </c>
       <c r="M515" s="1" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="O515" s="1" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="P515" s="1" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="516" spans="1:16" x14ac:dyDescent="0.25">
@@ -26529,31 +26533,31 @@
         <v>1569</v>
       </c>
       <c r="G516" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="H516" t="s">
         <v>1571</v>
       </c>
       <c r="I516" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="J516" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K516" s="1" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="L516" s="1" t="s">
         <v>1574</v>
       </c>
       <c r="M516" s="1" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="O516" s="1" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="P516" s="1" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="517" spans="1:16" x14ac:dyDescent="0.25">
@@ -26568,31 +26572,31 @@
         <v>1569</v>
       </c>
       <c r="G517" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="H517" t="s">
         <v>1571</v>
       </c>
       <c r="I517" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="J517" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K517" s="1" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="L517" s="1" t="s">
         <v>1574</v>
       </c>
       <c r="M517" s="1" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="O517" s="1" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="P517" s="1" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="518" spans="1:16" x14ac:dyDescent="0.25">
@@ -26607,31 +26611,31 @@
         <v>1569</v>
       </c>
       <c r="G518" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="H518" t="s">
         <v>1571</v>
       </c>
       <c r="I518" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="J518" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K518" s="1" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="L518" s="1" t="s">
         <v>1574</v>
       </c>
       <c r="M518" s="1" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="O518" s="1" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="P518" s="1" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="519" spans="1:16" x14ac:dyDescent="0.25">
@@ -26646,31 +26650,31 @@
         <v>1569</v>
       </c>
       <c r="G519" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="H519" t="s">
         <v>1571</v>
       </c>
       <c r="I519" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="J519" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K519" s="1" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="L519" s="1" t="s">
         <v>1574</v>
       </c>
       <c r="M519" s="1" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="O519" s="1" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="P519" s="1" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="520" spans="1:16" x14ac:dyDescent="0.25">
@@ -26679,16 +26683,16 @@
         <v>v8_t3_nmcl_znc</v>
       </c>
       <c r="E520" s="1" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="F520" t="s">
         <v>1569</v>
       </c>
       <c r="G520" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="H520" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="I520" t="s">
         <v>1585</v>
@@ -26697,67 +26701,63 @@
         <v>1573</v>
       </c>
       <c r="K520" s="1" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="L520" s="1" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="M520" s="1" t="s">
         <v>1576</v>
       </c>
       <c r="O520" s="1" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="P520" s="1" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="521" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A521" t="str">
-        <f t="shared" si="6"/>
-        <v>v8_t3_nmcl_znnc</v>
-      </c>
       <c r="E521" s="1" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="F521" t="s">
         <v>1569</v>
       </c>
       <c r="G521" t="s">
-        <v>1645</v>
+        <v>1643</v>
       </c>
       <c r="H521" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="I521" t="s">
-        <v>1586</v>
+        <v>1683</v>
       </c>
       <c r="J521" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K521" s="1" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="L521" s="1" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="M521" s="1" t="s">
-        <v>1577</v>
+        <v>1682</v>
       </c>
       <c r="O521" s="1" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="P521" s="1" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="522" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A522" t="str">
         <f t="shared" si="6"/>
-        <v>v8_t3_nmcl_zrnc</v>
+        <v>v8_t3_nmcl_znnc2</v>
       </c>
       <c r="E522" s="1" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="F522" t="s">
         <v>1569</v>
@@ -26766,151 +26766,151 @@
         <v>1644</v>
       </c>
       <c r="H522" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="I522" t="s">
-        <v>1635</v>
+        <v>1684</v>
       </c>
       <c r="J522" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K522" s="1" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="L522" s="1" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="M522" s="1" t="s">
-        <v>1634</v>
+        <v>1577</v>
       </c>
       <c r="O522" s="1" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="P522" s="1" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="523" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A523" t="str">
         <f t="shared" si="6"/>
-        <v>v8_t3_nmcl_zsnc</v>
+        <v>v8_t3_nmcl_zrnc</v>
       </c>
       <c r="E523" s="1" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="F523" t="s">
         <v>1569</v>
       </c>
       <c r="G523" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="H523" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="I523" t="s">
-        <v>1587</v>
+        <v>1634</v>
       </c>
       <c r="J523" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K523" s="1" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="L523" s="1" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="M523" s="1" t="s">
-        <v>1578</v>
+        <v>1633</v>
       </c>
       <c r="O523" s="1" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="P523" s="1" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="524" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A524" t="str">
         <f t="shared" si="6"/>
-        <v>v8_t3_nmcl_zhnc</v>
+        <v>v8_t3_nmcl_zsnc</v>
       </c>
       <c r="E524" s="1" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="F524" t="s">
         <v>1569</v>
       </c>
       <c r="G524" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="H524" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="I524" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
       <c r="J524" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K524" s="1" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="L524" s="1" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="M524" s="1" t="s">
-        <v>1681</v>
+        <v>1578</v>
       </c>
       <c r="O524" s="1" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="P524" s="1" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="525" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A525" t="str">
         <f t="shared" si="6"/>
-        <v>v8_t3_nmcl_zmc</v>
+        <v>v8_t3_nmcl_zhnc</v>
       </c>
       <c r="E525" s="1" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="F525" t="s">
         <v>1569</v>
       </c>
       <c r="G525" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="H525" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="I525" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="J525" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K525" s="1" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="L525" s="1" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="M525" s="1" t="s">
-        <v>1579</v>
+        <v>1680</v>
       </c>
       <c r="O525" s="1" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="P525" s="1" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="526" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A526" t="str">
         <f t="shared" si="6"/>
-        <v>v8_t3_nmcl_zzc</v>
+        <v>v8_t3_nmcl_zmc</v>
       </c>
       <c r="E526" s="1" t="s">
         <v>1674</v>
@@ -26919,40 +26919,40 @@
         <v>1569</v>
       </c>
       <c r="G526" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="H526" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="I526" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="J526" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K526" s="1" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="L526" s="1" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="M526" s="1" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="O526" s="1" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="P526" s="1" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="527" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A527" t="str">
         <f t="shared" si="6"/>
-        <v>v8_t4_nmcl_zyc</v>
+        <v>v8_t3_nmcl_zzc</v>
       </c>
       <c r="E527" s="1" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="F527" t="s">
         <v>1569</v>
@@ -26961,76 +26961,76 @@
         <v>1643</v>
       </c>
       <c r="H527" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="I527" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="J527" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K527" s="1" t="s">
+        <v>1645</v>
+      </c>
+      <c r="L527" s="1" t="s">
         <v>1649</v>
       </c>
-      <c r="L527" s="1" t="s">
-        <v>1650</v>
-      </c>
       <c r="M527" s="1" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="O527" s="1" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="P527" s="1" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="528" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A528" t="str">
         <f t="shared" si="6"/>
-        <v>v8_t4_nmcl_zmyc</v>
+        <v>v8_t4_nmcl_zyc</v>
       </c>
       <c r="E528" s="1" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="F528" t="s">
         <v>1569</v>
       </c>
       <c r="G528" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="H528" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="I528" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="J528" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K528" s="1" t="s">
+        <v>1648</v>
+      </c>
+      <c r="L528" s="1" t="s">
         <v>1649</v>
       </c>
-      <c r="L528" s="1" t="s">
-        <v>1650</v>
-      </c>
       <c r="M528" s="1" t="s">
-        <v>1682</v>
+        <v>1581</v>
       </c>
       <c r="O528" s="1" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="P528" s="1" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="529" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A529" t="str">
         <f t="shared" si="6"/>
-        <v>v8_t4_nmcl_zxmyc</v>
+        <v>v8_t4_nmcl_zmyc</v>
       </c>
       <c r="E529" s="1" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="F529" t="s">
         <v>1569</v>
@@ -27039,10 +27039,10 @@
         <v>1642</v>
       </c>
       <c r="H529" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="I529" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="J529" s="1" t="s">
         <v>1573</v>
@@ -27051,100 +27051,100 @@
         <v>1648</v>
       </c>
       <c r="L529" s="1" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="M529" s="1" t="s">
-        <v>1582</v>
+        <v>1681</v>
       </c>
       <c r="O529" s="1" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="P529" s="1" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="530" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A530" t="str">
         <f t="shared" si="6"/>
-        <v>v8_t4_nmcl_zsyc</v>
+        <v>v8_t4_nmcl_zxmyc</v>
       </c>
       <c r="E530" s="1" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="F530" t="s">
         <v>1569</v>
       </c>
       <c r="G530" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="H530" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="I530" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="J530" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K530" s="1" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="L530" s="1" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="M530" s="1" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="O530" s="1" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="P530" s="1" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="531" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A531" t="str">
         <f t="shared" si="6"/>
-        <v>v8_t4_nmcl_zmsyc</v>
+        <v>v8_t4_nmcl_zsyc</v>
       </c>
       <c r="E531" s="1" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="F531" t="s">
         <v>1569</v>
       </c>
       <c r="G531" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="H531" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="I531" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
       <c r="J531" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K531" s="1" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="L531" s="1" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="M531" s="1" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="O531" s="1" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="P531" s="1" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="532" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A532" t="str">
         <f t="shared" si="6"/>
-        <v>v8_t4_nmcl_zdjc</v>
+        <v>v8_t4_nmcl_zmsyc</v>
       </c>
       <c r="E532" s="1" t="s">
         <v>1671</v>
@@ -27153,118 +27153,118 @@
         <v>1569</v>
       </c>
       <c r="G532" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="H532" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="I532" t="s">
-        <v>1609</v>
+        <v>1594</v>
       </c>
       <c r="J532" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K532" s="1" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="L532" s="1" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="M532" s="1" t="s">
-        <v>1597</v>
+        <v>1584</v>
       </c>
       <c r="O532" s="1" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="P532" s="1" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="533" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A533" t="str">
         <f t="shared" si="6"/>
-        <v>v8_t4_nmcl_zdjysdjc</v>
+        <v>v8_t4_nmcl_zdjc</v>
       </c>
       <c r="E533" s="1" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="F533" t="s">
         <v>1569</v>
       </c>
       <c r="G533" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="H533" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="I533" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="J533" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K533" s="1" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="L533" s="1" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="M533" s="1" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="O533" s="1" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="P533" s="1" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="534" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A534" t="str">
         <f t="shared" si="6"/>
-        <v>v8_t4_nmcl_fmddjc</v>
+        <v>v8_t4_nmcl_zdjysdjc</v>
       </c>
       <c r="E534" s="1" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="F534" t="s">
         <v>1569</v>
       </c>
       <c r="G534" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="H534" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="I534" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="J534" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K534" s="1" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="L534" s="1" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="M534" s="1" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="O534" s="1" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="P534" s="1" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="535" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A535" t="str">
         <f t="shared" si="6"/>
-        <v>v8_t5_nmcl_zrjc</v>
+        <v>v8_t4_nmcl_fmddjc</v>
       </c>
       <c r="E535" s="1" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="F535" t="s">
         <v>1569</v>
@@ -27273,76 +27273,76 @@
         <v>1641</v>
       </c>
       <c r="H535" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="I535" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="J535" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K535" s="1" t="s">
-        <v>1637</v>
+        <v>1647</v>
       </c>
       <c r="L535" s="1" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="M535" s="1" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="O535" s="1" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="P535" s="1" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="536" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A536" t="str">
         <f t="shared" si="6"/>
-        <v>v8_t5_nmcl_zdjysrjc</v>
+        <v>v8_t5_nmcl_zrjc</v>
       </c>
       <c r="E536" s="1" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="F536" t="s">
         <v>1569</v>
       </c>
       <c r="G536" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="H536" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="I536" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="J536" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K536" s="1" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="L536" s="1" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="M536" s="1" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="O536" s="1" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="P536" s="1" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="537" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A537" t="str">
         <f t="shared" si="6"/>
-        <v>v8_t5_nmcl_fmdrjc</v>
+        <v>v8_t5_nmcl_zdjysrjc</v>
       </c>
       <c r="E537" s="1" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="F537" t="s">
         <v>1569</v>
@@ -27351,10 +27351,10 @@
         <v>1640</v>
       </c>
       <c r="H537" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="I537" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="J537" s="1" t="s">
         <v>1573</v>
@@ -27363,376 +27363,376 @@
         <v>1636</v>
       </c>
       <c r="L537" s="1" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="M537" s="1" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="O537" s="1" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="P537" s="1" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="538" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A538" t="str">
         <f t="shared" si="6"/>
-        <v>v8_t5_nmcl_zyc</v>
+        <v>v8_t5_nmcl_fmdrjc</v>
       </c>
       <c r="E538" s="1" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
       <c r="F538" t="s">
         <v>1569</v>
       </c>
       <c r="G538" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="H538" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="I538" t="s">
-        <v>1591</v>
+        <v>1613</v>
       </c>
       <c r="J538" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K538" s="1" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="L538" s="1" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="M538" s="1" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="O538" s="1" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="P538" s="1" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="539" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A539" t="str">
         <f t="shared" si="6"/>
-        <v>v8_t5_nmcl_zec</v>
+        <v>v8_t5_nmcl_zyc</v>
       </c>
       <c r="E539" s="1" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="F539" t="s">
         <v>1569</v>
       </c>
       <c r="G539" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="H539" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="I539" t="s">
-        <v>1615</v>
+        <v>1590</v>
       </c>
       <c r="J539" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K539" s="1" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="L539" s="1" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="M539" s="1" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="O539" s="1" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="P539" s="1" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="540" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A540" t="str">
         <f t="shared" si="6"/>
-        <v>v8_t5_nmcl_ztc</v>
+        <v>v8_t5_nmcl_zec</v>
       </c>
       <c r="E540" s="1" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="F540" t="s">
         <v>1569</v>
       </c>
       <c r="G540" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="H540" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="I540" t="s">
-        <v>1622</v>
+        <v>1614</v>
       </c>
       <c r="J540" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K540" s="1" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="L540" s="1" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="M540" s="1" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="O540" s="1" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="P540" s="1" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="541" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A541" t="str">
         <f t="shared" si="6"/>
-        <v>v8_t5_nmcl_zfc</v>
+        <v>v8_t5_nmcl_ztc</v>
       </c>
       <c r="E541" s="1" t="s">
-        <v>1677</v>
+        <v>1671</v>
       </c>
       <c r="F541" t="s">
         <v>1569</v>
       </c>
       <c r="G541" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="H541" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="I541" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="J541" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K541" s="1" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="L541" s="1" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="M541" s="1" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="O541" s="1" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="P541" s="1" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="542" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A542" t="str">
         <f t="shared" si="6"/>
-        <v>v8_t5_nmcl_zgnz</v>
+        <v>v8_t5_nmcl_zfc</v>
       </c>
       <c r="E542" s="1" t="s">
-        <v>1674</v>
+        <v>1676</v>
       </c>
       <c r="F542" t="s">
         <v>1569</v>
       </c>
       <c r="G542" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="H542" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="I542" t="s">
-        <v>1630</v>
+        <v>1622</v>
       </c>
       <c r="J542" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K542" s="1" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="L542" s="1" t="s">
-        <v>1574</v>
+        <v>1649</v>
       </c>
       <c r="M542" s="1" t="s">
-        <v>1626</v>
+        <v>1605</v>
       </c>
       <c r="O542" s="1" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="P542" s="1" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="543" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A543" t="str">
         <f t="shared" si="6"/>
-        <v>v8_t5_nmcl_zgyz</v>
+        <v>v8_t5_nmcl_zgnz</v>
       </c>
       <c r="E543" s="1" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="F543" t="s">
         <v>1569</v>
       </c>
       <c r="G543" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="H543" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="I543" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="J543" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K543" s="1" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="L543" s="1" t="s">
         <v>1574</v>
       </c>
       <c r="M543" s="1" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
       <c r="O543" s="1" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="P543" s="1" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="544" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A544" t="str">
         <f t="shared" si="6"/>
-        <v>v8_t5_nmcl_zgzz</v>
+        <v>v8_t5_nmcl_zgyz</v>
       </c>
       <c r="E544" s="1" t="s">
-        <v>1674</v>
+        <v>1671</v>
       </c>
       <c r="F544" t="s">
         <v>1569</v>
       </c>
       <c r="G544" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="H544" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="I544" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="J544" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K544" s="1" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="L544" s="1" t="s">
         <v>1574</v>
       </c>
       <c r="M544" s="1" t="s">
-        <v>1628</v>
+        <v>1626</v>
       </c>
       <c r="O544" s="1" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="P544" s="1" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="545" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A545" t="str">
         <f t="shared" si="6"/>
-        <v>v8_t6_nfmccl_znc</v>
+        <v>v8_t5_nmcl_zgzz</v>
       </c>
       <c r="E545" s="1" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="F545" t="s">
         <v>1569</v>
       </c>
       <c r="G545" t="s">
-        <v>1653</v>
+        <v>1639</v>
       </c>
       <c r="H545" t="s">
-        <v>1651</v>
+        <v>1632</v>
       </c>
       <c r="I545" t="s">
-        <v>1585</v>
+        <v>1631</v>
       </c>
       <c r="J545" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K545" s="1" t="s">
-        <v>1639</v>
+        <v>1635</v>
       </c>
       <c r="L545" s="1" t="s">
-        <v>1676</v>
+        <v>1574</v>
       </c>
       <c r="M545" s="1" t="s">
-        <v>1576</v>
+        <v>1627</v>
       </c>
       <c r="O545" s="1" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="P545" s="1" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="546" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A546" t="str">
         <f t="shared" si="6"/>
-        <v>v8_t6_nfmccl_znnc</v>
+        <v>v8_t6_nfmccl_znc</v>
       </c>
       <c r="E546" s="1" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="F546" t="s">
         <v>1569</v>
       </c>
       <c r="G546" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="H546" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="I546" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="J546" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K546" s="1" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="L546" s="1" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="M546" s="1" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="O546" s="1" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="P546" s="1" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="547" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A547" t="str">
-        <f t="shared" si="6"/>
-        <v>v8_t6_nfmccl_zrnc</v>
+        <f t="shared" ref="A547" si="7">F547&amp;"_"&amp;G547&amp;"_"&amp;H547&amp;"_"&amp;I547</f>
+        <v>v8_t6_nfmccl_znnc1</v>
       </c>
       <c r="E547" s="1" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="F547" t="s">
         <v>1569</v>
@@ -27741,10 +27741,10 @@
         <v>1652</v>
       </c>
       <c r="H547" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="I547" t="s">
-        <v>1635</v>
+        <v>1683</v>
       </c>
       <c r="J547" s="1" t="s">
         <v>1573</v>
@@ -27753,25 +27753,25 @@
         <v>1638</v>
       </c>
       <c r="L547" s="1" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="M547" s="1" t="s">
-        <v>1634</v>
+        <v>1682</v>
       </c>
       <c r="O547" s="1" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="P547" s="1" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="548" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A548" t="str">
         <f t="shared" si="6"/>
-        <v>v8_t6_nfmccl_zsnc</v>
+        <v>v8_t6_nfmccl_znnc2</v>
       </c>
       <c r="E548" s="1" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="F548" t="s">
         <v>1569</v>
@@ -27780,10 +27780,10 @@
         <v>1652</v>
       </c>
       <c r="H548" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="I548" t="s">
-        <v>1587</v>
+        <v>1684</v>
       </c>
       <c r="J548" s="1" t="s">
         <v>1573</v>
@@ -27792,802 +27792,802 @@
         <v>1638</v>
       </c>
       <c r="L548" s="1" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="M548" s="1" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="O548" s="1" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="P548" s="1" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="549" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A549" t="str">
         <f t="shared" si="6"/>
-        <v>v8_t6_nfmccl_zhnc</v>
+        <v>v8_t6_nfmccl_zrnc</v>
       </c>
       <c r="E549" s="1" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="F549" t="s">
         <v>1569</v>
       </c>
       <c r="G549" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="H549" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="I549" t="s">
-        <v>1588</v>
+        <v>1634</v>
       </c>
       <c r="J549" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K549" s="1" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="L549" s="1" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="M549" s="1" t="s">
-        <v>1681</v>
+        <v>1633</v>
       </c>
       <c r="O549" s="1" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="P549" s="1" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="550" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A550" t="str">
         <f t="shared" si="6"/>
-        <v>v8_t6_nfmccl_zmc</v>
+        <v>v8_t6_nfmccl_zsnc</v>
       </c>
       <c r="E550" s="1" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="F550" t="s">
         <v>1569</v>
       </c>
       <c r="G550" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="H550" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="I550" t="s">
-        <v>1589</v>
+        <v>1586</v>
       </c>
       <c r="J550" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K550" s="1" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="L550" s="1" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="M550" s="1" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="O550" s="1" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="P550" s="1" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="551" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A551" t="str">
         <f t="shared" si="6"/>
-        <v>v8_t6_nfmccl_zzc</v>
+        <v>v8_t6_nfmccl_zhnc</v>
       </c>
       <c r="E551" s="1" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="F551" t="s">
         <v>1569</v>
       </c>
       <c r="G551" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="H551" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="I551" t="s">
-        <v>1590</v>
+        <v>1587</v>
       </c>
       <c r="J551" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K551" s="1" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="L551" s="1" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="M551" s="1" t="s">
-        <v>1580</v>
+        <v>1680</v>
       </c>
       <c r="O551" s="1" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="P551" s="1" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="552" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A552" t="str">
         <f t="shared" si="6"/>
-        <v>v8_t6_nfmccl_zyc</v>
+        <v>v8_t6_nfmccl_zmc</v>
       </c>
       <c r="E552" s="1" t="s">
-        <v>1672</v>
+        <v>1674</v>
       </c>
       <c r="F552" t="s">
         <v>1569</v>
       </c>
       <c r="G552" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="H552" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="I552" t="s">
-        <v>1591</v>
+        <v>1588</v>
       </c>
       <c r="J552" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K552" s="1" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="L552" s="1" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="M552" s="1" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
       <c r="O552" s="1" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="P552" s="1" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="553" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A553" t="str">
         <f t="shared" si="6"/>
-        <v>v8_t6_nfmccl_zmyc</v>
+        <v>v8_t6_nfmccl_zzc</v>
       </c>
       <c r="E553" s="1" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="F553" t="s">
         <v>1569</v>
       </c>
       <c r="G553" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="H553" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="I553" t="s">
-        <v>1592</v>
+        <v>1589</v>
       </c>
       <c r="J553" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K553" s="1" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="L553" s="1" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="M553" s="1" t="s">
-        <v>1682</v>
+        <v>1580</v>
       </c>
       <c r="O553" s="1" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="P553" s="1" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="554" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A554" t="str">
         <f t="shared" si="6"/>
-        <v>v8_t6_nfmccl_zxmyc</v>
+        <v>v8_t6_nfmccl_zyc</v>
       </c>
       <c r="E554" s="1" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="F554" t="s">
         <v>1569</v>
       </c>
       <c r="G554" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
       <c r="H554" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="I554" t="s">
-        <v>1593</v>
+        <v>1590</v>
       </c>
       <c r="J554" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K554" s="1" t="s">
-        <v>1639</v>
+        <v>1637</v>
       </c>
       <c r="L554" s="1" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="M554" s="1" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="O554" s="1" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="P554" s="1" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="555" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A555" t="str">
         <f t="shared" si="6"/>
-        <v>v8_t7_nfmccl_zsyc</v>
+        <v>v8_t6_nfmccl_zmyc</v>
       </c>
       <c r="E555" s="1" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="F555" t="s">
         <v>1569</v>
       </c>
       <c r="G555" t="s">
-        <v>1654</v>
+        <v>1651</v>
       </c>
       <c r="H555" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="I555" t="s">
-        <v>1594</v>
+        <v>1591</v>
       </c>
       <c r="J555" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K555" s="1" t="s">
-        <v>1673</v>
+        <v>1637</v>
       </c>
       <c r="L555" s="1" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="M555" s="1" t="s">
-        <v>1583</v>
+        <v>1681</v>
       </c>
       <c r="O555" s="1" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="P555" s="1" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="556" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A556" t="str">
         <f t="shared" si="6"/>
-        <v>v8_t7_nfmccl_zmsyc</v>
+        <v>v8_t6_nfmccl_zxmyc</v>
       </c>
       <c r="E556" s="1" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="F556" t="s">
         <v>1569</v>
       </c>
       <c r="G556" t="s">
-        <v>1654</v>
+        <v>1652</v>
       </c>
       <c r="H556" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="I556" t="s">
-        <v>1595</v>
+        <v>1592</v>
       </c>
       <c r="J556" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K556" s="1" t="s">
-        <v>1673</v>
+        <v>1638</v>
       </c>
       <c r="L556" s="1" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="M556" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="O556" s="1" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="P556" s="1" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="557" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A557" t="str">
-        <f t="shared" ref="A557:A583" si="7">F557&amp;"_"&amp;G557&amp;"_"&amp;H557&amp;"_"&amp;I557</f>
-        <v>v8_t7_cczcq_znc</v>
+        <f t="shared" si="6"/>
+        <v>v8_t7_nfmccl_zsyc</v>
       </c>
       <c r="E557" s="1" t="s">
-        <v>1674</v>
+        <v>1671</v>
       </c>
       <c r="F557" t="s">
         <v>1569</v>
       </c>
       <c r="G557" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="H557" t="s">
-        <v>1655</v>
+        <v>1650</v>
       </c>
       <c r="I557" t="s">
-        <v>1585</v>
+        <v>1593</v>
       </c>
       <c r="J557" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K557" s="1" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="L557" s="1" t="s">
-        <v>1660</v>
+        <v>1675</v>
       </c>
       <c r="M557" s="1" t="s">
-        <v>1576</v>
+        <v>1583</v>
       </c>
       <c r="O557" s="1" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="P557" s="1" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="558" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A558" t="str">
-        <f t="shared" si="7"/>
-        <v>v8_t7_cczcq_znnc</v>
+        <f t="shared" si="6"/>
+        <v>v8_t7_nfmccl_zmsyc</v>
       </c>
       <c r="E558" s="1" t="s">
-        <v>1674</v>
+        <v>1671</v>
       </c>
       <c r="F558" t="s">
         <v>1569</v>
       </c>
       <c r="G558" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="H558" t="s">
-        <v>1655</v>
+        <v>1650</v>
       </c>
       <c r="I558" t="s">
-        <v>1586</v>
+        <v>1594</v>
       </c>
       <c r="J558" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K558" s="1" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="L558" s="1" t="s">
-        <v>1660</v>
+        <v>1675</v>
       </c>
       <c r="M558" s="1" t="s">
-        <v>1577</v>
+        <v>1584</v>
       </c>
       <c r="O558" s="1" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="P558" s="1" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="559" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A559" t="str">
-        <f t="shared" si="7"/>
-        <v>v8_t7_cczcq_zrnc</v>
+        <f t="shared" ref="A559:A587" si="8">F559&amp;"_"&amp;G559&amp;"_"&amp;H559&amp;"_"&amp;I559</f>
+        <v>v8_t7_cczcq_znc</v>
       </c>
       <c r="E559" s="1" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="F559" t="s">
         <v>1569</v>
       </c>
       <c r="G559" t="s">
+        <v>1653</v>
+      </c>
+      <c r="H559" t="s">
         <v>1654</v>
       </c>
-      <c r="H559" t="s">
-        <v>1655</v>
-      </c>
       <c r="I559" t="s">
-        <v>1635</v>
+        <v>1585</v>
       </c>
       <c r="J559" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K559" s="1" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="L559" s="1" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="M559" s="1" t="s">
-        <v>1634</v>
+        <v>1576</v>
       </c>
       <c r="O559" s="1" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="P559" s="1" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="560" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A560" t="str">
-        <f t="shared" si="7"/>
-        <v>v8_t7_cczcq_zsnc</v>
+        <f t="shared" ref="A560" si="9">F560&amp;"_"&amp;G560&amp;"_"&amp;H560&amp;"_"&amp;I560</f>
+        <v>v8_t7_cczcq_znnc1</v>
       </c>
       <c r="E560" s="1" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="F560" t="s">
         <v>1569</v>
       </c>
       <c r="G560" t="s">
+        <v>1653</v>
+      </c>
+      <c r="H560" t="s">
         <v>1654</v>
       </c>
-      <c r="H560" t="s">
-        <v>1655</v>
-      </c>
       <c r="I560" t="s">
-        <v>1587</v>
+        <v>1683</v>
       </c>
       <c r="J560" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K560" s="1" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="L560" s="1" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="M560" s="1" t="s">
-        <v>1578</v>
+        <v>1682</v>
       </c>
       <c r="O560" s="1" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="P560" s="1" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="561" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A561" t="str">
-        <f t="shared" si="7"/>
-        <v>v8_t7_cczcq_zhnc</v>
+        <f t="shared" si="8"/>
+        <v>v8_t7_cczcq_znnc2</v>
       </c>
       <c r="E561" s="1" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="F561" t="s">
         <v>1569</v>
       </c>
       <c r="G561" t="s">
+        <v>1653</v>
+      </c>
+      <c r="H561" t="s">
         <v>1654</v>
       </c>
-      <c r="H561" t="s">
-        <v>1655</v>
-      </c>
       <c r="I561" t="s">
-        <v>1588</v>
+        <v>1684</v>
       </c>
       <c r="J561" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K561" s="1" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="L561" s="1" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="M561" s="1" t="s">
-        <v>1681</v>
+        <v>1577</v>
       </c>
       <c r="O561" s="1" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="P561" s="1" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="562" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A562" t="str">
-        <f t="shared" si="7"/>
-        <v>v8_t7_cczcq_zmc</v>
+        <f t="shared" si="8"/>
+        <v>v8_t7_cczcq_zrnc</v>
       </c>
       <c r="E562" s="1" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="F562" t="s">
         <v>1569</v>
       </c>
       <c r="G562" t="s">
+        <v>1653</v>
+      </c>
+      <c r="H562" t="s">
         <v>1654</v>
       </c>
-      <c r="H562" t="s">
-        <v>1655</v>
-      </c>
       <c r="I562" t="s">
-        <v>1589</v>
+        <v>1634</v>
       </c>
       <c r="J562" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K562" s="1" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="L562" s="1" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="M562" s="1" t="s">
-        <v>1579</v>
+        <v>1633</v>
       </c>
       <c r="O562" s="1" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="P562" s="1" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="563" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A563" t="str">
-        <f t="shared" si="7"/>
-        <v>v8_t7_cczcq_zzc</v>
+        <f t="shared" si="8"/>
+        <v>v8_t7_cczcq_zsnc</v>
       </c>
       <c r="E563" s="1" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="F563" t="s">
         <v>1569</v>
       </c>
       <c r="G563" t="s">
+        <v>1653</v>
+      </c>
+      <c r="H563" t="s">
         <v>1654</v>
       </c>
-      <c r="H563" t="s">
-        <v>1655</v>
-      </c>
       <c r="I563" t="s">
-        <v>1590</v>
+        <v>1586</v>
       </c>
       <c r="J563" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K563" s="1" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="L563" s="1" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="M563" s="1" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
       <c r="O563" s="1" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="P563" s="1" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="564" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A564" t="str">
-        <f t="shared" si="7"/>
-        <v>v8_t7_cczcq_zyc</v>
+        <f t="shared" si="8"/>
+        <v>v8_t7_cczcq_zhnc</v>
       </c>
       <c r="E564" s="1" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="F564" t="s">
         <v>1569</v>
       </c>
       <c r="G564" t="s">
+        <v>1653</v>
+      </c>
+      <c r="H564" t="s">
         <v>1654</v>
       </c>
-      <c r="H564" t="s">
-        <v>1655</v>
-      </c>
       <c r="I564" t="s">
-        <v>1591</v>
+        <v>1587</v>
       </c>
       <c r="J564" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K564" s="1" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="L564" s="1" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="M564" s="1" t="s">
-        <v>1581</v>
+        <v>1680</v>
       </c>
       <c r="O564" s="1" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="P564" s="1" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="565" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A565" t="str">
-        <f t="shared" si="7"/>
-        <v>v8_t7_cczcq_zmyc</v>
+        <f t="shared" si="8"/>
+        <v>v8_t7_cczcq_zmc</v>
       </c>
       <c r="E565" s="1" t="s">
-        <v>1672</v>
+        <v>1674</v>
       </c>
       <c r="F565" t="s">
         <v>1569</v>
       </c>
       <c r="G565" t="s">
+        <v>1653</v>
+      </c>
+      <c r="H565" t="s">
         <v>1654</v>
       </c>
-      <c r="H565" t="s">
-        <v>1655</v>
-      </c>
       <c r="I565" t="s">
-        <v>1592</v>
+        <v>1588</v>
       </c>
       <c r="J565" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K565" s="1" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="L565" s="1" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="M565" s="1" t="s">
-        <v>1682</v>
+        <v>1579</v>
       </c>
       <c r="O565" s="1" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="P565" s="1" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="566" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A566" t="str">
-        <f t="shared" si="7"/>
-        <v>v8_t7_cczcq_zxmyc</v>
+        <f t="shared" si="8"/>
+        <v>v8_t7_cczcq_zzc</v>
       </c>
       <c r="E566" s="1" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="F566" t="s">
         <v>1569</v>
       </c>
       <c r="G566" t="s">
+        <v>1653</v>
+      </c>
+      <c r="H566" t="s">
         <v>1654</v>
       </c>
-      <c r="H566" t="s">
-        <v>1655</v>
-      </c>
       <c r="I566" t="s">
-        <v>1593</v>
+        <v>1589</v>
       </c>
       <c r="J566" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K566" s="1" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="L566" s="1" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="M566" s="1" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="O566" s="1" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="P566" s="1" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="567" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A567" t="str">
-        <f t="shared" si="7"/>
-        <v>v8_t8_cczcq_zsyc</v>
+        <f t="shared" si="8"/>
+        <v>v8_t7_cczcq_zyc</v>
       </c>
       <c r="E567" s="1" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="F567" t="s">
         <v>1569</v>
       </c>
       <c r="G567" t="s">
-        <v>1657</v>
+        <v>1653</v>
       </c>
       <c r="H567" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="I567" t="s">
-        <v>1594</v>
+        <v>1590</v>
       </c>
       <c r="J567" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K567" s="1" t="s">
+        <v>1672</v>
+      </c>
+      <c r="L567" s="1" t="s">
         <v>1659</v>
       </c>
-      <c r="L567" s="1" t="s">
-        <v>1660</v>
-      </c>
       <c r="M567" s="1" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="O567" s="1" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="P567" s="1" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="568" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A568" t="str">
-        <f t="shared" si="7"/>
-        <v>v8_t8_cczcq_zmsyc</v>
+        <f t="shared" si="8"/>
+        <v>v8_t7_cczcq_zmyc</v>
       </c>
       <c r="E568" s="1" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="F568" t="s">
         <v>1569</v>
       </c>
       <c r="G568" t="s">
-        <v>1657</v>
+        <v>1653</v>
       </c>
       <c r="H568" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="I568" t="s">
-        <v>1595</v>
+        <v>1591</v>
       </c>
       <c r="J568" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K568" s="1" t="s">
+        <v>1672</v>
+      </c>
+      <c r="L568" s="1" t="s">
         <v>1659</v>
       </c>
-      <c r="L568" s="1" t="s">
-        <v>1660</v>
-      </c>
       <c r="M568" s="1" t="s">
-        <v>1584</v>
+        <v>1681</v>
       </c>
       <c r="O568" s="1" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="P568" s="1" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="569" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A569" t="str">
-        <f t="shared" si="7"/>
-        <v>v8_t8_cczcq_zdjysdjc</v>
+        <f t="shared" si="8"/>
+        <v>v8_t7_cczcq_zxmyc</v>
       </c>
       <c r="E569" s="1" t="s">
         <v>1671</v>
@@ -28596,37 +28596,37 @@
         <v>1569</v>
       </c>
       <c r="G569" t="s">
-        <v>1656</v>
+        <v>1653</v>
       </c>
       <c r="H569" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="I569" t="s">
-        <v>1610</v>
+        <v>1592</v>
       </c>
       <c r="J569" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K569" s="1" t="s">
-        <v>1658</v>
+        <v>1672</v>
       </c>
       <c r="L569" s="1" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="M569" s="1" t="s">
-        <v>1598</v>
+        <v>1582</v>
       </c>
       <c r="O569" s="1" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="P569" s="1" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="570" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A570" t="str">
-        <f t="shared" si="7"/>
-        <v>v8_t8_cczcq_zdjysrjc</v>
+        <f t="shared" si="8"/>
+        <v>v8_t8_cczcq_zsyc</v>
       </c>
       <c r="E570" s="1" t="s">
         <v>1671</v>
@@ -28638,10 +28638,10 @@
         <v>1656</v>
       </c>
       <c r="H570" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="I570" t="s">
-        <v>1613</v>
+        <v>1593</v>
       </c>
       <c r="J570" s="1" t="s">
         <v>1573</v>
@@ -28650,25 +28650,25 @@
         <v>1658</v>
       </c>
       <c r="L570" s="1" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="M570" s="1" t="s">
-        <v>1601</v>
+        <v>1583</v>
       </c>
       <c r="O570" s="1" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="P570" s="1" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="571" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A571" t="str">
-        <f t="shared" si="7"/>
-        <v>v8_t8_scpt_znc</v>
+        <f t="shared" si="8"/>
+        <v>v8_t8_cczcq_zmsyc</v>
       </c>
       <c r="E571" s="1" t="s">
-        <v>1669</v>
+        <v>1671</v>
       </c>
       <c r="F571" t="s">
         <v>1569</v>
@@ -28677,10 +28677,10 @@
         <v>1656</v>
       </c>
       <c r="H571" t="s">
-        <v>1666</v>
+        <v>1654</v>
       </c>
       <c r="I571" t="s">
-        <v>1585</v>
+        <v>1594</v>
       </c>
       <c r="J571" s="1" t="s">
         <v>1573</v>
@@ -28689,337 +28689,337 @@
         <v>1658</v>
       </c>
       <c r="L571" s="1" t="s">
-        <v>1661</v>
+        <v>1659</v>
       </c>
       <c r="M571" s="1" t="s">
-        <v>1576</v>
+        <v>1584</v>
       </c>
       <c r="O571" s="1" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="P571" s="1" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="572" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A572" t="str">
-        <f t="shared" si="7"/>
-        <v>v8_t8_scpt_znnc</v>
+        <f t="shared" si="8"/>
+        <v>v8_t8_cczcq_zdjysdjc</v>
       </c>
       <c r="E572" s="1" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="F572" t="s">
         <v>1569</v>
       </c>
       <c r="G572" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="H572" t="s">
-        <v>1666</v>
+        <v>1654</v>
       </c>
       <c r="I572" t="s">
-        <v>1586</v>
+        <v>1609</v>
       </c>
       <c r="J572" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K572" s="1" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="L572" s="1" t="s">
-        <v>1661</v>
+        <v>1659</v>
       </c>
       <c r="M572" s="1" t="s">
-        <v>1577</v>
+        <v>1597</v>
       </c>
       <c r="O572" s="1" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="P572" s="1" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="573" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A573" t="str">
-        <f t="shared" si="7"/>
-        <v>v8_t8_scpt_zrnc</v>
+        <f t="shared" si="8"/>
+        <v>v8_t8_cczcq_zdjysrjc</v>
       </c>
       <c r="E573" s="1" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="F573" t="s">
         <v>1569</v>
       </c>
       <c r="G573" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="H573" t="s">
-        <v>1666</v>
+        <v>1654</v>
       </c>
       <c r="I573" t="s">
-        <v>1635</v>
+        <v>1612</v>
       </c>
       <c r="J573" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K573" s="1" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="L573" s="1" t="s">
-        <v>1661</v>
+        <v>1659</v>
       </c>
       <c r="M573" s="1" t="s">
-        <v>1634</v>
+        <v>1600</v>
       </c>
       <c r="O573" s="1" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="P573" s="1" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="574" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A574" t="str">
-        <f t="shared" si="7"/>
-        <v>v8_t8_scpt_zsnc</v>
+        <f t="shared" si="8"/>
+        <v>v8_t8_scpt_znc</v>
       </c>
       <c r="E574" s="1" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="F574" t="s">
         <v>1569</v>
       </c>
       <c r="G574" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="H574" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="I574" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="J574" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K574" s="1" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="L574" s="1" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="M574" s="1" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="O574" s="1" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="P574" s="1" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="575" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A575" t="str">
-        <f t="shared" si="7"/>
-        <v>v8_t8_scpt_zhnc</v>
+        <f t="shared" ref="A575" si="10">F575&amp;"_"&amp;G575&amp;"_"&amp;H575&amp;"_"&amp;I575</f>
+        <v>v8_t8_scpt_znnc1</v>
       </c>
       <c r="E575" s="1" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="F575" t="s">
         <v>1569</v>
       </c>
       <c r="G575" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="H575" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="I575" t="s">
-        <v>1588</v>
+        <v>1683</v>
       </c>
       <c r="J575" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K575" s="1" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="L575" s="1" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="M575" s="1" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="O575" s="1" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="P575" s="1" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="576" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A576" t="str">
-        <f t="shared" si="7"/>
-        <v>v8_t9_scpt_zyc</v>
+        <f t="shared" si="8"/>
+        <v>v8_t8_scpt_znnc2</v>
       </c>
       <c r="E576" s="1" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="F576" t="s">
         <v>1569</v>
       </c>
       <c r="G576" t="s">
+        <v>1655</v>
+      </c>
+      <c r="H576" t="s">
         <v>1665</v>
       </c>
-      <c r="H576" t="s">
-        <v>1666</v>
-      </c>
       <c r="I576" t="s">
-        <v>1591</v>
+        <v>1684</v>
       </c>
       <c r="J576" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K576" s="1" t="s">
-        <v>1663</v>
+        <v>1657</v>
       </c>
       <c r="L576" s="1" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="M576" s="1" t="s">
-        <v>1581</v>
+        <v>1577</v>
       </c>
       <c r="O576" s="1" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="P576" s="1" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="577" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A577" t="str">
-        <f t="shared" si="7"/>
-        <v>v8_t9_scpt_zmyc</v>
+        <f t="shared" si="8"/>
+        <v>v8_t8_scpt_zrnc</v>
       </c>
       <c r="E577" s="1" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="F577" t="s">
         <v>1569</v>
       </c>
       <c r="G577" t="s">
+        <v>1655</v>
+      </c>
+      <c r="H577" t="s">
         <v>1665</v>
       </c>
-      <c r="H577" t="s">
-        <v>1666</v>
-      </c>
       <c r="I577" t="s">
-        <v>1592</v>
+        <v>1634</v>
       </c>
       <c r="J577" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K577" s="1" t="s">
-        <v>1663</v>
+        <v>1657</v>
       </c>
       <c r="L577" s="1" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="M577" s="1" t="s">
-        <v>1682</v>
+        <v>1633</v>
       </c>
       <c r="O577" s="1" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="P577" s="1" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="578" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A578" t="str">
-        <f t="shared" si="7"/>
-        <v>v8_t9_scpt_zxmyc</v>
+        <f t="shared" si="8"/>
+        <v>v8_t8_scpt_zsnc</v>
       </c>
       <c r="E578" s="1" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="F578" t="s">
         <v>1569</v>
       </c>
       <c r="G578" t="s">
-        <v>1664</v>
+        <v>1655</v>
       </c>
       <c r="H578" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="I578" t="s">
-        <v>1593</v>
+        <v>1586</v>
       </c>
       <c r="J578" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K578" s="1" t="s">
-        <v>1662</v>
+        <v>1657</v>
       </c>
       <c r="L578" s="1" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="M578" s="1" t="s">
-        <v>1582</v>
+        <v>1578</v>
       </c>
       <c r="O578" s="1" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="P578" s="1" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="579" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A579" t="str">
-        <f t="shared" si="7"/>
-        <v>v8_t9_scpt_zsyc</v>
+        <f t="shared" si="8"/>
+        <v>v8_t8_scpt_zhnc</v>
       </c>
       <c r="E579" s="1" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="F579" t="s">
         <v>1569</v>
       </c>
       <c r="G579" t="s">
-        <v>1664</v>
+        <v>1655</v>
       </c>
       <c r="H579" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="I579" t="s">
-        <v>1594</v>
+        <v>1587</v>
       </c>
       <c r="J579" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K579" s="1" t="s">
-        <v>1662</v>
+        <v>1657</v>
       </c>
       <c r="L579" s="1" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="M579" s="1" t="s">
-        <v>1583</v>
+        <v>1680</v>
       </c>
       <c r="O579" s="1" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="P579" s="1" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="580" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A580" t="str">
-        <f t="shared" si="7"/>
-        <v>v8_t9_scpt_zmsyc</v>
+        <f t="shared" si="8"/>
+        <v>v8_t9_scpt_zyc</v>
       </c>
       <c r="E580" s="1" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="F580" t="s">
         <v>1569</v>
@@ -29028,10 +29028,10 @@
         <v>1664</v>
       </c>
       <c r="H580" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="I580" t="s">
-        <v>1595</v>
+        <v>1590</v>
       </c>
       <c r="J580" s="1" t="s">
         <v>1573</v>
@@ -29040,25 +29040,25 @@
         <v>1662</v>
       </c>
       <c r="L580" s="1" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="M580" s="1" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
       <c r="O580" s="1" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="P580" s="1" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="581" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A581" t="str">
-        <f t="shared" si="7"/>
-        <v>v8_t9_scjy_zgnz</v>
+        <f t="shared" si="8"/>
+        <v>v8_t9_scpt_zmyc</v>
       </c>
       <c r="E581" s="1" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
       <c r="F581" t="s">
         <v>1569</v>
@@ -29067,10 +29067,10 @@
         <v>1664</v>
       </c>
       <c r="H581" t="s">
-        <v>1509</v>
+        <v>1665</v>
       </c>
       <c r="I581" t="s">
-        <v>1630</v>
+        <v>1591</v>
       </c>
       <c r="J581" s="1" t="s">
         <v>1573</v>
@@ -29079,111 +29079,251 @@
         <v>1662</v>
       </c>
       <c r="L581" s="1" t="s">
-        <v>1667</v>
+        <v>1660</v>
       </c>
       <c r="M581" s="1" t="s">
-        <v>1626</v>
+        <v>1681</v>
       </c>
       <c r="O581" s="1" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="P581" s="1" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="582" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A582" t="str">
-        <f t="shared" si="7"/>
-        <v>v8_t9_scjy_zsyz</v>
+        <f t="shared" si="8"/>
+        <v>v8_t9_scpt_zxmyc</v>
       </c>
       <c r="E582" s="1" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
       <c r="F582" t="s">
         <v>1569</v>
       </c>
       <c r="G582" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="H582" t="s">
-        <v>1509</v>
+        <v>1665</v>
       </c>
       <c r="I582" t="s">
-        <v>1668</v>
+        <v>1592</v>
       </c>
       <c r="J582" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K582" s="1" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="L582" s="1" t="s">
-        <v>1667</v>
+        <v>1660</v>
       </c>
       <c r="M582" s="1" t="s">
-        <v>1627</v>
+        <v>1582</v>
       </c>
       <c r="O582" s="1" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="P582" s="1" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="583" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A583" t="str">
-        <f t="shared" si="7"/>
-        <v>v8_t9_scjy_zgzz</v>
+        <f t="shared" si="8"/>
+        <v>v8_t9_scpt_zsyc</v>
       </c>
       <c r="E583" s="1" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
       <c r="F583" t="s">
         <v>1569</v>
       </c>
       <c r="G583" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="H583" t="s">
-        <v>1509</v>
+        <v>1665</v>
       </c>
       <c r="I583" t="s">
-        <v>1632</v>
+        <v>1593</v>
       </c>
       <c r="J583" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="K583" s="1" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="L583" s="1" t="s">
+        <v>1660</v>
+      </c>
+      <c r="M583" s="1" t="s">
+        <v>1583</v>
+      </c>
+      <c r="O583" s="1" t="s">
+        <v>1677</v>
+      </c>
+      <c r="P583" s="1" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="584" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A584" t="str">
+        <f t="shared" si="8"/>
+        <v>v8_t9_scpt_zmsyc</v>
+      </c>
+      <c r="E584" s="1" t="s">
+        <v>1668</v>
+      </c>
+      <c r="F584" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G584" t="s">
+        <v>1663</v>
+      </c>
+      <c r="H584" t="s">
+        <v>1665</v>
+      </c>
+      <c r="I584" t="s">
+        <v>1594</v>
+      </c>
+      <c r="J584" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="K584" s="1" t="s">
+        <v>1661</v>
+      </c>
+      <c r="L584" s="1" t="s">
+        <v>1660</v>
+      </c>
+      <c r="M584" s="1" t="s">
+        <v>1584</v>
+      </c>
+      <c r="O584" s="1" t="s">
+        <v>1677</v>
+      </c>
+      <c r="P584" s="1" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="585" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A585" t="str">
+        <f t="shared" si="8"/>
+        <v>v8_t9_scjy_zgnz</v>
+      </c>
+      <c r="E585" s="1" t="s">
+        <v>1669</v>
+      </c>
+      <c r="F585" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G585" t="s">
+        <v>1663</v>
+      </c>
+      <c r="H585" t="s">
+        <v>1509</v>
+      </c>
+      <c r="I585" t="s">
+        <v>1629</v>
+      </c>
+      <c r="J585" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="K585" s="1" t="s">
+        <v>1661</v>
+      </c>
+      <c r="L585" s="1" t="s">
+        <v>1666</v>
+      </c>
+      <c r="M585" s="1" t="s">
+        <v>1625</v>
+      </c>
+      <c r="O585" s="1" t="s">
+        <v>1677</v>
+      </c>
+      <c r="P585" s="1" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="586" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A586" t="str">
+        <f t="shared" si="8"/>
+        <v>v8_t9_scjy_zsyz</v>
+      </c>
+      <c r="E586" s="1" t="s">
+        <v>1669</v>
+      </c>
+      <c r="F586" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G586" t="s">
+        <v>1663</v>
+      </c>
+      <c r="H586" t="s">
+        <v>1509</v>
+      </c>
+      <c r="I586" t="s">
         <v>1667</v>
       </c>
-      <c r="M583" s="1" t="s">
-        <v>1628</v>
-      </c>
-      <c r="O583" s="1" t="s">
-        <v>1678</v>
-      </c>
-      <c r="P583" s="1" t="s">
-        <v>1680</v>
-      </c>
-    </row>
-    <row r="584" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K584" s="1"/>
-      <c r="L584" s="1"/>
-    </row>
-    <row r="585" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K585" s="1"/>
-      <c r="L585" s="1"/>
-    </row>
-    <row r="586" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K586" s="1"/>
-      <c r="L586" s="1"/>
+      <c r="J586" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="K586" s="1" t="s">
+        <v>1661</v>
+      </c>
+      <c r="L586" s="1" t="s">
+        <v>1666</v>
+      </c>
+      <c r="M586" s="1" t="s">
+        <v>1626</v>
+      </c>
+      <c r="O586" s="1" t="s">
+        <v>1677</v>
+      </c>
+      <c r="P586" s="1" t="s">
+        <v>1679</v>
+      </c>
     </row>
     <row r="587" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K587" s="1"/>
-      <c r="L587" s="1"/>
+      <c r="A587" t="str">
+        <f t="shared" si="8"/>
+        <v>v8_t9_scjy_zgzz</v>
+      </c>
+      <c r="E587" s="1" t="s">
+        <v>1669</v>
+      </c>
+      <c r="F587" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G587" t="s">
+        <v>1663</v>
+      </c>
+      <c r="H587" t="s">
+        <v>1509</v>
+      </c>
+      <c r="I587" t="s">
+        <v>1631</v>
+      </c>
+      <c r="J587" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="K587" s="1" t="s">
+        <v>1661</v>
+      </c>
+      <c r="L587" s="1" t="s">
+        <v>1666</v>
+      </c>
+      <c r="M587" s="1" t="s">
+        <v>1627</v>
+      </c>
+      <c r="O587" s="1" t="s">
+        <v>1677</v>
+      </c>
+      <c r="P587" s="1" t="s">
+        <v>1679</v>
+      </c>
     </row>
     <row r="588" spans="1:16" x14ac:dyDescent="0.25">
       <c r="K588" s="1"/>
@@ -29204,6 +29344,22 @@
     <row r="592" spans="1:16" x14ac:dyDescent="0.25">
       <c r="K592" s="1"/>
       <c r="L592" s="1"/>
+    </row>
+    <row r="593" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K593" s="1"/>
+      <c r="L593" s="1"/>
+    </row>
+    <row r="594" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K594" s="1"/>
+      <c r="L594" s="1"/>
+    </row>
+    <row r="595" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K595" s="1"/>
+      <c r="L595" s="1"/>
+    </row>
+    <row r="596" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K596" s="1"/>
+      <c r="L596" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data-raw/varsList.xlsx
+++ b/data-raw/varsList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\techme\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A634E9C7-ED84-493C-8F6A-5883782C0653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F68B87D-3D03-4671-91DF-7BDE0349DBE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-195" yWindow="-195" windowWidth="29190" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-9892" yWindow="8258" windowWidth="24495" windowHeight="15674" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6864" uniqueCount="1685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6948" uniqueCount="1711">
   <si>
     <t>variables</t>
   </si>
@@ -5931,6 +5931,106 @@
   </si>
   <si>
     <t>znnc2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v99</t>
+  </si>
+  <si>
+    <t>v99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国家野外科学观测研究站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>administrator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>province</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国家野外站名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>依托单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主管部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>省份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v2022.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技部网站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v2022.8</t>
+  </si>
+  <si>
+    <t>v2022.9</t>
+  </si>
+  <si>
+    <t>v2022.10</t>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>obstation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>officer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公示部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共网站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>识别码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6405,16 +6505,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P596"/>
+  <dimension ref="A1:P597"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A548" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H552" sqref="H552"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A578" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D593" sqref="D593"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
     <col min="2" max="2" width="16.140625" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" customWidth="1"/>
@@ -29326,40 +29426,310 @@
       </c>
     </row>
     <row r="588" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K588" s="1"/>
-      <c r="L588" s="1"/>
+      <c r="A588" t="str">
+        <f t="shared" ref="A588:A594" si="11">F588&amp;"_"&amp;G588&amp;"_"&amp;H588&amp;"_"&amp;I588</f>
+        <v>v99_obstation_list_index</v>
+      </c>
+      <c r="C588" s="1" t="s">
+        <v>1690</v>
+      </c>
+      <c r="D588" s="1" t="s">
+        <v>1691</v>
+      </c>
+      <c r="F588" t="s">
+        <v>1686</v>
+      </c>
+      <c r="G588" t="s">
+        <v>1705</v>
+      </c>
+      <c r="H588" t="s">
+        <v>1687</v>
+      </c>
+      <c r="I588" s="1" t="s">
+        <v>1691</v>
+      </c>
+      <c r="J588" s="1" t="s">
+        <v>1708</v>
+      </c>
+      <c r="K588" s="1" t="s">
+        <v>1688</v>
+      </c>
+      <c r="L588" s="1" t="s">
+        <v>1689</v>
+      </c>
+      <c r="M588" s="1" t="s">
+        <v>1690</v>
+      </c>
+      <c r="O588" t="s">
+        <v>1699</v>
+      </c>
+      <c r="P588" s="1" t="s">
+        <v>1700</v>
+      </c>
     </row>
     <row r="589" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K589" s="1"/>
-      <c r="L589" s="1"/>
+      <c r="A589" t="str">
+        <f t="shared" si="11"/>
+        <v>v99_obstation_list_name</v>
+      </c>
+      <c r="C589" s="1" t="s">
+        <v>1704</v>
+      </c>
+      <c r="D589" t="s">
+        <v>1692</v>
+      </c>
+      <c r="F589" t="s">
+        <v>1686</v>
+      </c>
+      <c r="G589" t="s">
+        <v>1705</v>
+      </c>
+      <c r="H589" t="s">
+        <v>1687</v>
+      </c>
+      <c r="I589" t="s">
+        <v>1692</v>
+      </c>
+      <c r="J589" s="1" t="s">
+        <v>1708</v>
+      </c>
+      <c r="K589" s="1" t="s">
+        <v>1688</v>
+      </c>
+      <c r="L589" s="1" t="s">
+        <v>1689</v>
+      </c>
+      <c r="M589" s="1" t="s">
+        <v>1695</v>
+      </c>
+      <c r="O589" t="s">
+        <v>1699</v>
+      </c>
+      <c r="P589" s="1" t="s">
+        <v>1700</v>
+      </c>
     </row>
     <row r="590" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K590" s="1"/>
-      <c r="L590" s="1"/>
+      <c r="A590" t="str">
+        <f t="shared" si="11"/>
+        <v>v99_obstation_list_institution</v>
+      </c>
+      <c r="C590" s="1" t="s">
+        <v>1696</v>
+      </c>
+      <c r="D590" t="s">
+        <v>1525</v>
+      </c>
+      <c r="F590" t="s">
+        <v>1685</v>
+      </c>
+      <c r="G590" t="s">
+        <v>1705</v>
+      </c>
+      <c r="H590" t="s">
+        <v>1687</v>
+      </c>
+      <c r="I590" t="s">
+        <v>1525</v>
+      </c>
+      <c r="J590" s="1" t="s">
+        <v>1708</v>
+      </c>
+      <c r="K590" s="1" t="s">
+        <v>1688</v>
+      </c>
+      <c r="L590" s="1" t="s">
+        <v>1689</v>
+      </c>
+      <c r="M590" s="1" t="s">
+        <v>1696</v>
+      </c>
+      <c r="O590" t="s">
+        <v>1701</v>
+      </c>
+      <c r="P590" s="1" t="s">
+        <v>1700</v>
+      </c>
     </row>
     <row r="591" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K591" s="1"/>
-      <c r="L591" s="1"/>
+      <c r="A591" t="str">
+        <f t="shared" si="11"/>
+        <v>v99_obstation_list_administrator</v>
+      </c>
+      <c r="C591" s="1" t="s">
+        <v>1697</v>
+      </c>
+      <c r="D591" t="s">
+        <v>1693</v>
+      </c>
+      <c r="F591" t="s">
+        <v>1685</v>
+      </c>
+      <c r="G591" t="s">
+        <v>1705</v>
+      </c>
+      <c r="H591" t="s">
+        <v>1687</v>
+      </c>
+      <c r="I591" t="s">
+        <v>1693</v>
+      </c>
+      <c r="J591" s="1" t="s">
+        <v>1708</v>
+      </c>
+      <c r="K591" s="1" t="s">
+        <v>1688</v>
+      </c>
+      <c r="L591" s="1" t="s">
+        <v>1689</v>
+      </c>
+      <c r="M591" s="1" t="s">
+        <v>1697</v>
+      </c>
+      <c r="O591" t="s">
+        <v>1702</v>
+      </c>
+      <c r="P591" s="1" t="s">
+        <v>1700</v>
+      </c>
     </row>
     <row r="592" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K592" s="1"/>
-      <c r="L592" s="1"/>
-    </row>
-    <row r="593" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K593" s="1"/>
-      <c r="L593" s="1"/>
-    </row>
-    <row r="594" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K594" s="1"/>
-      <c r="L594" s="1"/>
-    </row>
-    <row r="595" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="A592" t="str">
+        <f t="shared" si="11"/>
+        <v>v99_obstation_list_officer</v>
+      </c>
+      <c r="C592" s="1" t="s">
+        <v>1707</v>
+      </c>
+      <c r="D592" t="s">
+        <v>1706</v>
+      </c>
+      <c r="F592" t="s">
+        <v>1685</v>
+      </c>
+      <c r="G592" t="s">
+        <v>1705</v>
+      </c>
+      <c r="H592" t="s">
+        <v>1687</v>
+      </c>
+      <c r="I592" t="s">
+        <v>1706</v>
+      </c>
+      <c r="J592" s="1" t="s">
+        <v>1708</v>
+      </c>
+      <c r="K592" s="1" t="s">
+        <v>1688</v>
+      </c>
+      <c r="L592" s="1" t="s">
+        <v>1689</v>
+      </c>
+      <c r="M592" s="1" t="s">
+        <v>1707</v>
+      </c>
+      <c r="O592" t="s">
+        <v>1703</v>
+      </c>
+      <c r="P592" s="1" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="593" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A593" t="str">
+        <f t="shared" si="11"/>
+        <v>v99_obstation_list_province</v>
+      </c>
+      <c r="C593" s="1" t="s">
+        <v>1698</v>
+      </c>
+      <c r="D593" t="s">
+        <v>1694</v>
+      </c>
+      <c r="F593" t="s">
+        <v>1685</v>
+      </c>
+      <c r="G593" t="s">
+        <v>1705</v>
+      </c>
+      <c r="H593" t="s">
+        <v>1687</v>
+      </c>
+      <c r="I593" t="s">
+        <v>1694</v>
+      </c>
+      <c r="J593" s="1" t="s">
+        <v>1708</v>
+      </c>
+      <c r="K593" s="1" t="s">
+        <v>1688</v>
+      </c>
+      <c r="L593" s="1" t="s">
+        <v>1689</v>
+      </c>
+      <c r="M593" s="1" t="s">
+        <v>1698</v>
+      </c>
+      <c r="O593" t="s">
+        <v>1703</v>
+      </c>
+      <c r="P593" s="1" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="594" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A594" t="str">
+        <f t="shared" si="11"/>
+        <v>v99_obstation_list_id</v>
+      </c>
+      <c r="C594" s="1" t="s">
+        <v>1710</v>
+      </c>
+      <c r="D594" t="s">
+        <v>1709</v>
+      </c>
+      <c r="F594" t="s">
+        <v>1685</v>
+      </c>
+      <c r="G594" t="s">
+        <v>1705</v>
+      </c>
+      <c r="H594" t="s">
+        <v>1687</v>
+      </c>
+      <c r="I594" t="s">
+        <v>1709</v>
+      </c>
+      <c r="J594" s="1" t="s">
+        <v>1708</v>
+      </c>
+      <c r="K594" s="1" t="s">
+        <v>1688</v>
+      </c>
+      <c r="L594" s="1" t="s">
+        <v>1689</v>
+      </c>
+      <c r="M594" s="1" t="s">
+        <v>1710</v>
+      </c>
+      <c r="O594" t="s">
+        <v>1703</v>
+      </c>
+      <c r="P594" s="1" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="595" spans="1:16" x14ac:dyDescent="0.25">
       <c r="K595" s="1"/>
       <c r="L595" s="1"/>
     </row>
-    <row r="596" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:16" x14ac:dyDescent="0.25">
       <c r="K596" s="1"/>
       <c r="L596" s="1"/>
+    </row>
+    <row r="597" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K597" s="1"/>
+      <c r="L597" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data-raw/varsList.xlsx
+++ b/data-raw/varsList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\techme\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F68B87D-3D03-4671-91DF-7BDE0349DBE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F9C550-F324-4BAE-B4EE-EAF3379875A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9892" yWindow="8258" windowWidth="24495" windowHeight="15674" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24120" yWindow="3090" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6948" uniqueCount="1711">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6936" uniqueCount="1709">
   <si>
     <t>variables</t>
   </si>
@@ -6023,14 +6023,6 @@
   </si>
   <si>
     <t>公共网站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>识别码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6505,11 +6497,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P597"/>
+  <dimension ref="A1:P596"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A578" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D593" sqref="D593"/>
+      <selection pane="bottomLeft" activeCell="I593" sqref="I593"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29427,7 +29419,7 @@
     </row>
     <row r="588" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A588" t="str">
-        <f t="shared" ref="A588:A594" si="11">F588&amp;"_"&amp;G588&amp;"_"&amp;H588&amp;"_"&amp;I588</f>
+        <f t="shared" ref="A588:A593" si="11">F588&amp;"_"&amp;G588&amp;"_"&amp;H588&amp;"_"&amp;I588</f>
         <v>v99_obstation_list_index</v>
       </c>
       <c r="C588" s="1" t="s">
@@ -29678,46 +29670,8 @@
       </c>
     </row>
     <row r="594" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A594" t="str">
-        <f t="shared" si="11"/>
-        <v>v99_obstation_list_id</v>
-      </c>
-      <c r="C594" s="1" t="s">
-        <v>1710</v>
-      </c>
-      <c r="D594" t="s">
-        <v>1709</v>
-      </c>
-      <c r="F594" t="s">
-        <v>1685</v>
-      </c>
-      <c r="G594" t="s">
-        <v>1705</v>
-      </c>
-      <c r="H594" t="s">
-        <v>1687</v>
-      </c>
-      <c r="I594" t="s">
-        <v>1709</v>
-      </c>
-      <c r="J594" s="1" t="s">
-        <v>1708</v>
-      </c>
-      <c r="K594" s="1" t="s">
-        <v>1688</v>
-      </c>
-      <c r="L594" s="1" t="s">
-        <v>1689</v>
-      </c>
-      <c r="M594" s="1" t="s">
-        <v>1710</v>
-      </c>
-      <c r="O594" t="s">
-        <v>1703</v>
-      </c>
-      <c r="P594" s="1" t="s">
-        <v>1700</v>
-      </c>
+      <c r="K594" s="1"/>
+      <c r="L594" s="1"/>
     </row>
     <row r="595" spans="1:16" x14ac:dyDescent="0.25">
       <c r="K595" s="1"/>
@@ -29726,10 +29680,6 @@
     <row r="596" spans="1:16" x14ac:dyDescent="0.25">
       <c r="K596" s="1"/>
       <c r="L596" s="1"/>
-    </row>
-    <row r="597" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K597" s="1"/>
-      <c r="L597" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data-raw/varsList.xlsx
+++ b/data-raw/varsList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\techme\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F9C550-F324-4BAE-B4EE-EAF3379875A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17226621-09DE-43BA-9018-5E35DEF1D698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="3090" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6936" uniqueCount="1709">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7152" uniqueCount="1719">
   <si>
     <t>variables</t>
   </si>
@@ -5997,15 +5997,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>v2022.8</t>
-  </si>
-  <si>
-    <t>v2022.9</t>
-  </si>
-  <si>
-    <t>v2022.10</t>
-  </si>
-  <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6023,6 +6014,57 @@
   </si>
   <si>
     <t>公共网站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>agripark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国家农业科技园区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v2022.7</t>
+  </si>
+  <si>
+    <t>batch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>批次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>year</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>check</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评估</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验收</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6497,11 +6539,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P596"/>
+  <dimension ref="A1:P611"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A578" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I593" sqref="I593"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A587" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H598" sqref="H598"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29419,7 +29461,7 @@
     </row>
     <row r="588" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A588" t="str">
-        <f t="shared" ref="A588:A593" si="11">F588&amp;"_"&amp;G588&amp;"_"&amp;H588&amp;"_"&amp;I588</f>
+        <f t="shared" ref="A588:A600" si="11">F588&amp;"_"&amp;G588&amp;"_"&amp;H588&amp;"_"&amp;I588</f>
         <v>v99_obstation_list_index</v>
       </c>
       <c r="C588" s="1" t="s">
@@ -29432,7 +29474,7 @@
         <v>1686</v>
       </c>
       <c r="G588" t="s">
-        <v>1705</v>
+        <v>1702</v>
       </c>
       <c r="H588" t="s">
         <v>1687</v>
@@ -29441,7 +29483,7 @@
         <v>1691</v>
       </c>
       <c r="J588" s="1" t="s">
-        <v>1708</v>
+        <v>1705</v>
       </c>
       <c r="K588" s="1" t="s">
         <v>1688</v>
@@ -29465,7 +29507,7 @@
         <v>v99_obstation_list_name</v>
       </c>
       <c r="C589" s="1" t="s">
-        <v>1704</v>
+        <v>1701</v>
       </c>
       <c r="D589" t="s">
         <v>1692</v>
@@ -29474,7 +29516,7 @@
         <v>1686</v>
       </c>
       <c r="G589" t="s">
-        <v>1705</v>
+        <v>1702</v>
       </c>
       <c r="H589" t="s">
         <v>1687</v>
@@ -29483,7 +29525,7 @@
         <v>1692</v>
       </c>
       <c r="J589" s="1" t="s">
-        <v>1708</v>
+        <v>1705</v>
       </c>
       <c r="K589" s="1" t="s">
         <v>1688</v>
@@ -29516,7 +29558,7 @@
         <v>1685</v>
       </c>
       <c r="G590" t="s">
-        <v>1705</v>
+        <v>1702</v>
       </c>
       <c r="H590" t="s">
         <v>1687</v>
@@ -29525,7 +29567,7 @@
         <v>1525</v>
       </c>
       <c r="J590" s="1" t="s">
-        <v>1708</v>
+        <v>1705</v>
       </c>
       <c r="K590" s="1" t="s">
         <v>1688</v>
@@ -29537,7 +29579,7 @@
         <v>1696</v>
       </c>
       <c r="O590" t="s">
-        <v>1701</v>
+        <v>1708</v>
       </c>
       <c r="P590" s="1" t="s">
         <v>1700</v>
@@ -29558,7 +29600,7 @@
         <v>1685</v>
       </c>
       <c r="G591" t="s">
-        <v>1705</v>
+        <v>1702</v>
       </c>
       <c r="H591" t="s">
         <v>1687</v>
@@ -29567,7 +29609,7 @@
         <v>1693</v>
       </c>
       <c r="J591" s="1" t="s">
-        <v>1708</v>
+        <v>1705</v>
       </c>
       <c r="K591" s="1" t="s">
         <v>1688</v>
@@ -29579,7 +29621,7 @@
         <v>1697</v>
       </c>
       <c r="O591" t="s">
-        <v>1702</v>
+        <v>1708</v>
       </c>
       <c r="P591" s="1" t="s">
         <v>1700</v>
@@ -29591,25 +29633,25 @@
         <v>v99_obstation_list_officer</v>
       </c>
       <c r="C592" s="1" t="s">
-        <v>1707</v>
+        <v>1704</v>
       </c>
       <c r="D592" t="s">
-        <v>1706</v>
+        <v>1703</v>
       </c>
       <c r="F592" t="s">
         <v>1685</v>
       </c>
       <c r="G592" t="s">
-        <v>1705</v>
+        <v>1702</v>
       </c>
       <c r="H592" t="s">
         <v>1687</v>
       </c>
       <c r="I592" t="s">
-        <v>1706</v>
+        <v>1703</v>
       </c>
       <c r="J592" s="1" t="s">
-        <v>1708</v>
+        <v>1705</v>
       </c>
       <c r="K592" s="1" t="s">
         <v>1688</v>
@@ -29618,10 +29660,10 @@
         <v>1689</v>
       </c>
       <c r="M592" s="1" t="s">
-        <v>1707</v>
+        <v>1704</v>
       </c>
       <c r="O592" t="s">
-        <v>1703</v>
+        <v>1708</v>
       </c>
       <c r="P592" s="1" t="s">
         <v>1700</v>
@@ -29642,7 +29684,7 @@
         <v>1685</v>
       </c>
       <c r="G593" t="s">
-        <v>1705</v>
+        <v>1702</v>
       </c>
       <c r="H593" t="s">
         <v>1687</v>
@@ -29651,7 +29693,7 @@
         <v>1694</v>
       </c>
       <c r="J593" s="1" t="s">
-        <v>1708</v>
+        <v>1705</v>
       </c>
       <c r="K593" s="1" t="s">
         <v>1688</v>
@@ -29663,23 +29705,767 @@
         <v>1698</v>
       </c>
       <c r="O593" t="s">
-        <v>1703</v>
+        <v>1708</v>
       </c>
       <c r="P593" s="1" t="s">
         <v>1700</v>
       </c>
     </row>
     <row r="594" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K594" s="1"/>
-      <c r="L594" s="1"/>
+      <c r="A594" t="str">
+        <f t="shared" ref="A594" si="12">F594&amp;"_"&amp;G594&amp;"_"&amp;H594&amp;"_"&amp;I594</f>
+        <v>v99_agripark_list_year</v>
+      </c>
+      <c r="C594" s="1" t="s">
+        <v>1711</v>
+      </c>
+      <c r="D594" t="s">
+        <v>1712</v>
+      </c>
+      <c r="F594" t="s">
+        <v>1685</v>
+      </c>
+      <c r="G594" t="s">
+        <v>1706</v>
+      </c>
+      <c r="H594" t="s">
+        <v>1687</v>
+      </c>
+      <c r="I594" t="s">
+        <v>1712</v>
+      </c>
+      <c r="J594" s="1" t="s">
+        <v>1705</v>
+      </c>
+      <c r="K594" s="1" t="s">
+        <v>1707</v>
+      </c>
+      <c r="L594" s="1" t="s">
+        <v>1689</v>
+      </c>
+      <c r="M594" s="1" t="s">
+        <v>1711</v>
+      </c>
+      <c r="O594" t="s">
+        <v>1708</v>
+      </c>
+      <c r="P594" s="1" t="s">
+        <v>1700</v>
+      </c>
     </row>
     <row r="595" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K595" s="1"/>
-      <c r="L595" s="1"/>
+      <c r="A595" t="str">
+        <f t="shared" si="11"/>
+        <v>v99_agripark_list_index</v>
+      </c>
+      <c r="C595" s="1" t="s">
+        <v>1690</v>
+      </c>
+      <c r="D595" t="s">
+        <v>1691</v>
+      </c>
+      <c r="F595" t="s">
+        <v>1685</v>
+      </c>
+      <c r="G595" t="s">
+        <v>1706</v>
+      </c>
+      <c r="H595" t="s">
+        <v>1687</v>
+      </c>
+      <c r="I595" t="s">
+        <v>1691</v>
+      </c>
+      <c r="J595" s="1" t="s">
+        <v>1705</v>
+      </c>
+      <c r="K595" s="1" t="s">
+        <v>1707</v>
+      </c>
+      <c r="L595" s="1" t="s">
+        <v>1689</v>
+      </c>
+      <c r="M595" s="1" t="s">
+        <v>1690</v>
+      </c>
+      <c r="O595" t="s">
+        <v>1708</v>
+      </c>
+      <c r="P595" s="1" t="s">
+        <v>1700</v>
+      </c>
     </row>
     <row r="596" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K596" s="1"/>
-      <c r="L596" s="1"/>
+      <c r="A596" t="str">
+        <f t="shared" si="11"/>
+        <v>v99_agripark_list_batch</v>
+      </c>
+      <c r="C596" s="1" t="s">
+        <v>1710</v>
+      </c>
+      <c r="D596" t="s">
+        <v>1709</v>
+      </c>
+      <c r="F596" t="s">
+        <v>1685</v>
+      </c>
+      <c r="G596" t="s">
+        <v>1706</v>
+      </c>
+      <c r="H596" t="s">
+        <v>1687</v>
+      </c>
+      <c r="I596" t="s">
+        <v>1709</v>
+      </c>
+      <c r="J596" s="1" t="s">
+        <v>1705</v>
+      </c>
+      <c r="K596" s="1" t="s">
+        <v>1707</v>
+      </c>
+      <c r="L596" s="1" t="s">
+        <v>1689</v>
+      </c>
+      <c r="M596" s="1" t="s">
+        <v>1710</v>
+      </c>
+      <c r="O596" t="s">
+        <v>1708</v>
+      </c>
+      <c r="P596" s="1" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="597" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A597" t="str">
+        <f t="shared" si="11"/>
+        <v>v99_agripark_list_name</v>
+      </c>
+      <c r="C597" s="1" t="s">
+        <v>1701</v>
+      </c>
+      <c r="D597" t="s">
+        <v>1692</v>
+      </c>
+      <c r="F597" t="s">
+        <v>1685</v>
+      </c>
+      <c r="G597" t="s">
+        <v>1706</v>
+      </c>
+      <c r="H597" t="s">
+        <v>1687</v>
+      </c>
+      <c r="I597" t="s">
+        <v>1692</v>
+      </c>
+      <c r="J597" s="1" t="s">
+        <v>1705</v>
+      </c>
+      <c r="K597" s="1" t="s">
+        <v>1707</v>
+      </c>
+      <c r="L597" s="1" t="s">
+        <v>1689</v>
+      </c>
+      <c r="M597" s="1" t="s">
+        <v>1701</v>
+      </c>
+      <c r="O597" t="s">
+        <v>1708</v>
+      </c>
+      <c r="P597" s="1" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="598" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A598" t="str">
+        <f t="shared" si="11"/>
+        <v>v99_agripark_list_province</v>
+      </c>
+      <c r="C598" s="1" t="s">
+        <v>1698</v>
+      </c>
+      <c r="D598" t="s">
+        <v>1694</v>
+      </c>
+      <c r="F598" t="s">
+        <v>1685</v>
+      </c>
+      <c r="G598" t="s">
+        <v>1706</v>
+      </c>
+      <c r="H598" t="s">
+        <v>1687</v>
+      </c>
+      <c r="I598" t="s">
+        <v>1694</v>
+      </c>
+      <c r="J598" s="1" t="s">
+        <v>1705</v>
+      </c>
+      <c r="K598" s="1" t="s">
+        <v>1707</v>
+      </c>
+      <c r="L598" s="1" t="s">
+        <v>1689</v>
+      </c>
+      <c r="M598" s="1" t="s">
+        <v>1698</v>
+      </c>
+      <c r="O598" t="s">
+        <v>1708</v>
+      </c>
+      <c r="P598" s="1" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="599" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A599" t="str">
+        <f t="shared" si="11"/>
+        <v>v99_agripark_list_officer</v>
+      </c>
+      <c r="C599" s="1" t="s">
+        <v>1704</v>
+      </c>
+      <c r="D599" t="s">
+        <v>1703</v>
+      </c>
+      <c r="F599" t="s">
+        <v>1685</v>
+      </c>
+      <c r="G599" t="s">
+        <v>1706</v>
+      </c>
+      <c r="H599" t="s">
+        <v>1687</v>
+      </c>
+      <c r="I599" t="s">
+        <v>1703</v>
+      </c>
+      <c r="J599" s="1" t="s">
+        <v>1705</v>
+      </c>
+      <c r="K599" s="1" t="s">
+        <v>1707</v>
+      </c>
+      <c r="L599" s="1" t="s">
+        <v>1689</v>
+      </c>
+      <c r="M599" s="1" t="s">
+        <v>1704</v>
+      </c>
+      <c r="O599" t="s">
+        <v>1708</v>
+      </c>
+      <c r="P599" s="1" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="600" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A600" t="str">
+        <f t="shared" si="11"/>
+        <v>v99_agripark_eval_year</v>
+      </c>
+      <c r="C600" s="1" t="s">
+        <v>1711</v>
+      </c>
+      <c r="D600" t="s">
+        <v>1712</v>
+      </c>
+      <c r="F600" t="s">
+        <v>1685</v>
+      </c>
+      <c r="G600" t="s">
+        <v>1706</v>
+      </c>
+      <c r="H600" t="s">
+        <v>1713</v>
+      </c>
+      <c r="I600" t="s">
+        <v>1712</v>
+      </c>
+      <c r="J600" s="1" t="s">
+        <v>1705</v>
+      </c>
+      <c r="K600" s="1" t="s">
+        <v>1707</v>
+      </c>
+      <c r="L600" s="1" t="s">
+        <v>1717</v>
+      </c>
+      <c r="M600" s="1" t="s">
+        <v>1711</v>
+      </c>
+      <c r="O600" t="s">
+        <v>1708</v>
+      </c>
+      <c r="P600" s="1" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="601" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A601" t="str">
+        <f t="shared" ref="A601:A606" si="13">F601&amp;"_"&amp;G601&amp;"_"&amp;H601&amp;"_"&amp;I601</f>
+        <v>v99_agripark_eval_index</v>
+      </c>
+      <c r="C601" s="1" t="s">
+        <v>1690</v>
+      </c>
+      <c r="D601" t="s">
+        <v>1691</v>
+      </c>
+      <c r="F601" t="s">
+        <v>1685</v>
+      </c>
+      <c r="G601" t="s">
+        <v>1706</v>
+      </c>
+      <c r="H601" t="s">
+        <v>1713</v>
+      </c>
+      <c r="I601" t="s">
+        <v>1691</v>
+      </c>
+      <c r="J601" s="1" t="s">
+        <v>1705</v>
+      </c>
+      <c r="K601" s="1" t="s">
+        <v>1707</v>
+      </c>
+      <c r="L601" s="1" t="s">
+        <v>1717</v>
+      </c>
+      <c r="M601" s="1" t="s">
+        <v>1690</v>
+      </c>
+      <c r="O601" t="s">
+        <v>1708</v>
+      </c>
+      <c r="P601" s="1" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="602" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A602" t="str">
+        <f t="shared" si="13"/>
+        <v>v99_agripark_eval_name</v>
+      </c>
+      <c r="C602" s="1" t="s">
+        <v>1701</v>
+      </c>
+      <c r="D602" t="s">
+        <v>1692</v>
+      </c>
+      <c r="F602" t="s">
+        <v>1685</v>
+      </c>
+      <c r="G602" t="s">
+        <v>1706</v>
+      </c>
+      <c r="H602" t="s">
+        <v>1713</v>
+      </c>
+      <c r="I602" t="s">
+        <v>1692</v>
+      </c>
+      <c r="J602" s="1" t="s">
+        <v>1705</v>
+      </c>
+      <c r="K602" s="1" t="s">
+        <v>1707</v>
+      </c>
+      <c r="L602" s="1" t="s">
+        <v>1717</v>
+      </c>
+      <c r="M602" s="1" t="s">
+        <v>1701</v>
+      </c>
+      <c r="O602" t="s">
+        <v>1708</v>
+      </c>
+      <c r="P602" s="1" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="603" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A603" t="str">
+        <f t="shared" ref="A603" si="14">F603&amp;"_"&amp;G603&amp;"_"&amp;H603&amp;"_"&amp;I603</f>
+        <v>v99_agripark_eval_result</v>
+      </c>
+      <c r="C603" s="1" t="s">
+        <v>1701</v>
+      </c>
+      <c r="D603" t="s">
+        <v>1692</v>
+      </c>
+      <c r="F603" t="s">
+        <v>1685</v>
+      </c>
+      <c r="G603" t="s">
+        <v>1706</v>
+      </c>
+      <c r="H603" t="s">
+        <v>1713</v>
+      </c>
+      <c r="I603" t="s">
+        <v>1714</v>
+      </c>
+      <c r="J603" s="1" t="s">
+        <v>1705</v>
+      </c>
+      <c r="K603" s="1" t="s">
+        <v>1707</v>
+      </c>
+      <c r="L603" s="1" t="s">
+        <v>1717</v>
+      </c>
+      <c r="M603" s="1" t="s">
+        <v>1715</v>
+      </c>
+      <c r="O603" t="s">
+        <v>1708</v>
+      </c>
+      <c r="P603" s="1" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="604" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A604" t="str">
+        <f t="shared" si="13"/>
+        <v>v99_agripark_eval_province</v>
+      </c>
+      <c r="C604" s="1" t="s">
+        <v>1698</v>
+      </c>
+      <c r="D604" t="s">
+        <v>1694</v>
+      </c>
+      <c r="F604" t="s">
+        <v>1685</v>
+      </c>
+      <c r="G604" t="s">
+        <v>1706</v>
+      </c>
+      <c r="H604" t="s">
+        <v>1713</v>
+      </c>
+      <c r="I604" t="s">
+        <v>1694</v>
+      </c>
+      <c r="J604" s="1" t="s">
+        <v>1705</v>
+      </c>
+      <c r="K604" s="1" t="s">
+        <v>1707</v>
+      </c>
+      <c r="L604" s="1" t="s">
+        <v>1717</v>
+      </c>
+      <c r="M604" s="1" t="s">
+        <v>1698</v>
+      </c>
+      <c r="O604" t="s">
+        <v>1708</v>
+      </c>
+      <c r="P604" s="1" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="605" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A605" t="str">
+        <f t="shared" si="13"/>
+        <v>v99_agripark_eval_officer</v>
+      </c>
+      <c r="C605" s="1" t="s">
+        <v>1704</v>
+      </c>
+      <c r="D605" t="s">
+        <v>1703</v>
+      </c>
+      <c r="F605" t="s">
+        <v>1685</v>
+      </c>
+      <c r="G605" t="s">
+        <v>1706</v>
+      </c>
+      <c r="H605" t="s">
+        <v>1713</v>
+      </c>
+      <c r="I605" t="s">
+        <v>1703</v>
+      </c>
+      <c r="J605" s="1" t="s">
+        <v>1705</v>
+      </c>
+      <c r="K605" s="1" t="s">
+        <v>1707</v>
+      </c>
+      <c r="L605" s="1" t="s">
+        <v>1717</v>
+      </c>
+      <c r="M605" s="1" t="s">
+        <v>1704</v>
+      </c>
+      <c r="O605" t="s">
+        <v>1708</v>
+      </c>
+      <c r="P605" s="1" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="606" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A606" t="str">
+        <f t="shared" si="13"/>
+        <v>v99_agripark_check_year</v>
+      </c>
+      <c r="C606" s="1" t="s">
+        <v>1711</v>
+      </c>
+      <c r="D606" t="s">
+        <v>1712</v>
+      </c>
+      <c r="F606" t="s">
+        <v>1685</v>
+      </c>
+      <c r="G606" t="s">
+        <v>1706</v>
+      </c>
+      <c r="H606" t="s">
+        <v>1716</v>
+      </c>
+      <c r="I606" t="s">
+        <v>1712</v>
+      </c>
+      <c r="J606" s="1" t="s">
+        <v>1705</v>
+      </c>
+      <c r="K606" s="1" t="s">
+        <v>1707</v>
+      </c>
+      <c r="L606" s="1" t="s">
+        <v>1718</v>
+      </c>
+      <c r="M606" s="1" t="s">
+        <v>1711</v>
+      </c>
+      <c r="O606" t="s">
+        <v>1708</v>
+      </c>
+      <c r="P606" s="1" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="607" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A607" t="str">
+        <f t="shared" ref="A607:A611" si="15">F607&amp;"_"&amp;G607&amp;"_"&amp;H607&amp;"_"&amp;I607</f>
+        <v>v99_agripark_check_index</v>
+      </c>
+      <c r="C607" s="1" t="s">
+        <v>1690</v>
+      </c>
+      <c r="D607" t="s">
+        <v>1691</v>
+      </c>
+      <c r="F607" t="s">
+        <v>1685</v>
+      </c>
+      <c r="G607" t="s">
+        <v>1706</v>
+      </c>
+      <c r="H607" t="s">
+        <v>1716</v>
+      </c>
+      <c r="I607" t="s">
+        <v>1691</v>
+      </c>
+      <c r="J607" s="1" t="s">
+        <v>1705</v>
+      </c>
+      <c r="K607" s="1" t="s">
+        <v>1707</v>
+      </c>
+      <c r="L607" s="1" t="s">
+        <v>1718</v>
+      </c>
+      <c r="M607" s="1" t="s">
+        <v>1690</v>
+      </c>
+      <c r="O607" t="s">
+        <v>1708</v>
+      </c>
+      <c r="P607" s="1" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="608" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A608" t="str">
+        <f t="shared" si="15"/>
+        <v>v99_agripark_check_name</v>
+      </c>
+      <c r="C608" s="1" t="s">
+        <v>1701</v>
+      </c>
+      <c r="D608" t="s">
+        <v>1692</v>
+      </c>
+      <c r="F608" t="s">
+        <v>1685</v>
+      </c>
+      <c r="G608" t="s">
+        <v>1706</v>
+      </c>
+      <c r="H608" t="s">
+        <v>1716</v>
+      </c>
+      <c r="I608" t="s">
+        <v>1692</v>
+      </c>
+      <c r="J608" s="1" t="s">
+        <v>1705</v>
+      </c>
+      <c r="K608" s="1" t="s">
+        <v>1707</v>
+      </c>
+      <c r="L608" s="1" t="s">
+        <v>1718</v>
+      </c>
+      <c r="M608" s="1" t="s">
+        <v>1701</v>
+      </c>
+      <c r="O608" t="s">
+        <v>1708</v>
+      </c>
+      <c r="P608" s="1" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="609" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A609" t="str">
+        <f t="shared" si="15"/>
+        <v>v99_agripark_check_result</v>
+      </c>
+      <c r="C609" s="1" t="s">
+        <v>1701</v>
+      </c>
+      <c r="D609" t="s">
+        <v>1692</v>
+      </c>
+      <c r="F609" t="s">
+        <v>1685</v>
+      </c>
+      <c r="G609" t="s">
+        <v>1706</v>
+      </c>
+      <c r="H609" t="s">
+        <v>1716</v>
+      </c>
+      <c r="I609" t="s">
+        <v>1714</v>
+      </c>
+      <c r="J609" s="1" t="s">
+        <v>1705</v>
+      </c>
+      <c r="K609" s="1" t="s">
+        <v>1707</v>
+      </c>
+      <c r="L609" s="1" t="s">
+        <v>1718</v>
+      </c>
+      <c r="M609" s="1" t="s">
+        <v>1715</v>
+      </c>
+      <c r="O609" t="s">
+        <v>1708</v>
+      </c>
+      <c r="P609" s="1" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="610" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A610" t="str">
+        <f t="shared" si="15"/>
+        <v>v99_agripark_check_province</v>
+      </c>
+      <c r="C610" s="1" t="s">
+        <v>1698</v>
+      </c>
+      <c r="D610" t="s">
+        <v>1694</v>
+      </c>
+      <c r="F610" t="s">
+        <v>1685</v>
+      </c>
+      <c r="G610" t="s">
+        <v>1706</v>
+      </c>
+      <c r="H610" t="s">
+        <v>1716</v>
+      </c>
+      <c r="I610" t="s">
+        <v>1694</v>
+      </c>
+      <c r="J610" s="1" t="s">
+        <v>1705</v>
+      </c>
+      <c r="K610" s="1" t="s">
+        <v>1707</v>
+      </c>
+      <c r="L610" s="1" t="s">
+        <v>1718</v>
+      </c>
+      <c r="M610" s="1" t="s">
+        <v>1698</v>
+      </c>
+      <c r="O610" t="s">
+        <v>1708</v>
+      </c>
+      <c r="P610" s="1" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="611" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A611" t="str">
+        <f t="shared" si="15"/>
+        <v>v99_agripark_check_officer</v>
+      </c>
+      <c r="C611" s="1" t="s">
+        <v>1704</v>
+      </c>
+      <c r="D611" t="s">
+        <v>1703</v>
+      </c>
+      <c r="F611" t="s">
+        <v>1685</v>
+      </c>
+      <c r="G611" t="s">
+        <v>1706</v>
+      </c>
+      <c r="H611" t="s">
+        <v>1716</v>
+      </c>
+      <c r="I611" t="s">
+        <v>1703</v>
+      </c>
+      <c r="J611" s="1" t="s">
+        <v>1705</v>
+      </c>
+      <c r="K611" s="1" t="s">
+        <v>1707</v>
+      </c>
+      <c r="L611" s="1" t="s">
+        <v>1718</v>
+      </c>
+      <c r="M611" s="1" t="s">
+        <v>1704</v>
+      </c>
+      <c r="O611" t="s">
+        <v>1708</v>
+      </c>
+      <c r="P611" s="1" t="s">
+        <v>1700</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
